--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.456</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.479</v>
+        <v>16.041</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.535</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.839</v>
+        <v>20.567</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.664</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.798</v>
+        <v>10.047</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.56767677425391</v>
+        <v>11.1669779497279</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.63862376940986</v>
+        <v>19.53630131565158</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10.65842890735833</v>
+        <v>27.30645345754776</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.55670046098924</v>
+        <v>-0.1883841466984286</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10.62884724228921</v>
+        <v>20.72555763720484</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10.65141573377837</v>
+        <v>26.30298869297544</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.60569872508133</v>
+        <v>4.785722047119716</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10.66410518371433</v>
+        <v>32.45237875985802</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10.68208909806977</v>
+        <v>38.24096384920887</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10.67485356021647</v>
+        <v>23.81199545048248</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10.7252728043952</v>
+        <v>25.94168286768499</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>10.74710032871557</v>
+        <v>31.87945034337298</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10.5757719042483</v>
+        <v>12.44385700615147</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>10.70428796978405</v>
+        <v>21.66836585048581</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10.7402170615981</v>
+        <v>34.47500813398403</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.56557193779905</v>
+        <v>13.6208442594146</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>10.66465543348401</v>
+        <v>22.71087488090252</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10.69175455543804</v>
+        <v>29.36987870931703</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.53759640968229</v>
+        <v>-4.019586311630878</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.63917153825127</v>
+        <v>15.1350286861794</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10.66991386905467</v>
+        <v>20.32983795637354</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.60667965913883</v>
+        <v>-3.838625065328834</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10.68889401188863</v>
+        <v>23.76501477261453</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10.61049330573373</v>
+        <v>18.55652331118678</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>10.69129077172639</v>
+        <v>35.67695736396351</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>10.71104413389243</v>
+        <v>38.18858826999777</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10.61149167901217</v>
+        <v>6.130956014856704</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>10.69403668093743</v>
+        <v>38.57685306287392</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>10.71655067449955</v>
+        <v>39.42970623162638</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>10.6625854648267</v>
+        <v>13.81825874004495</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>10.72944036782371</v>
+        <v>52.0689509969052</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>10.74735130564573</v>
+        <v>53.22281348699941</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>10.75976439207082</v>
+        <v>55.8587458547234</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10.81843789982351</v>
+        <v>62.0249856071252</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>10.84001440230085</v>
+        <v>62.87084906304804</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>10.65345350278066</v>
+        <v>30.93478588637041</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>10.79975760711152</v>
+        <v>56.56000909429692</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>10.8355452378425</v>
+        <v>60.98819838020142</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>10.62926452632354</v>
+        <v>22.44192489982716</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>10.74171863998444</v>
+        <v>41.46860550200563</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>10.768883221212</v>
+        <v>43.76051498630973</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.61677291864655</v>
+        <v>5.453954463265671</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>10.73250417608402</v>
+        <v>37.9527903547539</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>10.76331632963705</v>
+        <v>39.47176633766348</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>10.688580909662</v>
+        <v>11.98287187294443</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.78229413155141</v>
+        <v>51.76659463185673</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>10.61062396918101</v>
+        <v>9.835416096998165</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>10.69010929664467</v>
+        <v>29.1037127178768</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>10.70933358897453</v>
+        <v>33.35903985952302</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>10.61438541973265</v>
+        <v>1.382094865336089</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>10.69568322824674</v>
+        <v>36.26495461831314</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>10.71758606941434</v>
+        <v>39.44098822587513</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>10.66400690044583</v>
+        <v>10.16929647704522</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>10.72985681474455</v>
+        <v>50.47422927888916</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>10.74728243787888</v>
+        <v>53.64580943155222</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>10.76079804019272</v>
+        <v>54.32707085751787</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>10.81880444229849</v>
+        <v>60.58755796330064</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>10.83988508301583</v>
+        <v>64.51718529039803</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>10.6572848453286</v>
+        <v>21.72340712608138</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>10.80120806601373</v>
+        <v>51.27438578872382</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.83602902339137</v>
+        <v>58.56667031694197</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>10.63075474155677</v>
+        <v>13.48627975305626</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>10.74130406867382</v>
+        <v>34.81495853567564</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10.76775319882737</v>
+        <v>39.58751980398507</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>10.62243349175485</v>
+        <v>-1.396526415940588</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>10.73631697870066</v>
+        <v>33.81018190518709</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>10.76630717111443</v>
+        <v>38.53272432719282</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>10.69207612719451</v>
+        <v>6.838876213286792</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>10.78430013416067</v>
+        <v>48.88384955296785</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.58790358289152</v>
+        <v>8.15529767987972</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>10.65227260197315</v>
+        <v>22.65290216965704</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>10.66991674556562</v>
+        <v>32.36572591928696</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>10.58291754086932</v>
+        <v>4.358593962240825</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>10.64849759838847</v>
+        <v>33.01313034128634</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>10.66859301425968</v>
+        <v>41.21140004489009</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10.62538502567159</v>
+        <v>10.53455368155696</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>10.67848248677138</v>
+        <v>45.21471539652995</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>10.69449656511854</v>
+        <v>53.27861468889265</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>10.69380583442901</v>
+        <v>38.7311806029815</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>10.73994270233108</v>
+        <v>43.83541441902915</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>10.75946609841366</v>
+        <v>53.30958750259579</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>10.60538409100611</v>
+        <v>17.1928322198771</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>10.72198374859874</v>
+        <v>36.87154217570871</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>10.75397913363637</v>
+        <v>52.95370496928661</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>10.59374965859968</v>
+        <v>12.82973341739254</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>10.68354714245552</v>
+        <v>28.7878894548246</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>10.70770252579034</v>
+        <v>38.12390463330874</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>10.57534006383059</v>
+        <v>1.450316476261218</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>10.66754323496018</v>
+        <v>29.27655663667685</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>10.69493251285119</v>
+        <v>38.00414157218157</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>10.63519415125616</v>
+        <v>3.804933430203736</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>10.70983256998591</v>
+        <v>39.25566726800852</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>10.71341623608409</v>
+        <v>29.88232743492663</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10.70686997195167</v>
+        <v>18.39808384172417</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>10.78068030681431</v>
+        <v>22.8284315320161</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>10.81150194516289</v>
+        <v>27.34630753142994</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.57919746054856</v>
+        <v>3.802451094015211</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>10.75839754811126</v>
+        <v>20.62187982317623</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>10.80775813911844</v>
+        <v>29.46051253750845</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.58078941652954</v>
+        <v>13.08554402838325</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>10.69165537082215</v>
+        <v>24.95544132966327</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>10.72144599784734</v>
+        <v>33.73713227733014</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.55676357166426</v>
+        <v>-5.092629990964639</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10.6713762037705</v>
+        <v>17.38091954074534</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>10.70512446464772</v>
+        <v>24.13442384149224</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>10.6336713443895</v>
+        <v>-1.159799358950551</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>10.72646203428237</v>
+        <v>29.59666561365862</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>10.75339608211087</v>
+        <v>38.03961830385681</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>10.76294115776686</v>
+        <v>32.5941681013156</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>10.84974243959901</v>
+        <v>38.2575631407689</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>10.88525734332845</v>
+        <v>47.36594954556097</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>10.63166200625877</v>
+        <v>3.390778575096924</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>10.83200256460991</v>
+        <v>28.81789556616128</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>10.88632413176337</v>
+        <v>40.34411080084569</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>10.80683646476176</v>
+        <v>54.2049487114046</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>10.82806802694148</v>
+        <v>56.17056290874157</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>10.91322952025954</v>
+        <v>64.55303661856382</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>10.94395112166442</v>
+        <v>64.57830835237627</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>10.69113468365552</v>
+        <v>28.15091411413695</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>10.89445393339721</v>
+        <v>63.30789974341829</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>10.9438939686907</v>
+        <v>65.42350370466507</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>10.66108156683913</v>
+        <v>25.21782519345013</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>10.78639098447749</v>
+        <v>48.04985759441252</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.81631280462897</v>
+        <v>51.1701045288583</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>10.65487431814324</v>
+        <v>10.28622752653838</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>10.78482774257897</v>
+        <v>47.7589632217955</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>10.81871780411258</v>
+        <v>49.00276939276036</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>10.73416428841878</v>
+        <v>19.60431570434825</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>10.83941639463283</v>
+        <v>63.94389041156197</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>10.86642704245551</v>
+        <v>67.01096330948204</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>10.90933379194745</v>
+        <v>77.45512946328995</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>11.00860378977213</v>
+        <v>86.87439589667899</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>11.04421141550377</v>
+        <v>91.02078821618173</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>10.76860363912818</v>
+        <v>37.45493948993981</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>10.99499076488014</v>
+        <v>82.9101081265249</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>11.04951168523314</v>
+        <v>85.70092588304757</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>10.80818918293176</v>
+        <v>54.11919713594821</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>10.83111801442525</v>
+        <v>52.46125170535436</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>10.91516020451899</v>
+        <v>60.63402912152658</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10.94518206991889</v>
+        <v>64.81705804451948</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.69780997125627</v>
+        <v>18.96249273761886</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10.89768159242813</v>
+        <v>58.23732714286293</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>10.94580990912698</v>
+        <v>64.43479191845209</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>10.66592252600497</v>
+        <v>17.42449081605509</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>10.7890104463449</v>
+        <v>43.52780459930884</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>10.81812587107607</v>
+        <v>48.53514924353426</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>10.66421999213461</v>
+        <v>4.255183656386521</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>10.7919754879276</v>
+        <v>45.64325373097513</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>10.8249419779895</v>
+        <v>49.37279428792144</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>10.74087001166234</v>
+        <v>15.27507542863172</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>10.84434909068962</v>
+        <v>62.93275410920936</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>10.8706248935084</v>
+        <v>68.13137794708103</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>10.91573757281711</v>
+        <v>75.27886754307968</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>11.01352777510223</v>
+        <v>85.70463214861442</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>11.0482872520238</v>
+        <v>93.46487892851128</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>10.77874576078267</v>
+        <v>30.70661033014866</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>11.00111758415031</v>
+        <v>81.81087474028564</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>11.054158760946</v>
+        <v>87.827430300938</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>10.73168153386947</v>
+        <v>48.47423062262459</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>10.73391224280676</v>
+        <v>33.8562394762064</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>10.80125340338452</v>
+        <v>41.18726191769911</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>10.82883145255168</v>
+        <v>50.33671197995617</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>10.61999445825742</v>
+        <v>11.60432600084733</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>10.78240294120979</v>
+        <v>40.22608366925364</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>10.82638547598659</v>
+        <v>53.49620990527499</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>10.61348902132658</v>
+        <v>19.67370923766882</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>10.71383559934664</v>
+        <v>39.8290795782072</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>10.74037205863987</v>
+        <v>50.39963830295516</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10.59930238186128</v>
+        <v>8.748299794739879</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>10.70317849078384</v>
+        <v>41.66582084697937</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>10.73322695442013</v>
+        <v>50.83489826360669</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>10.6657364990833</v>
+        <v>15.13524582937875</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>10.74984468799344</v>
+        <v>55.30436517591725</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>10.77382719198462</v>
+        <v>65.83774261990038</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>10.79197962136931</v>
+        <v>58.4268302837893</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>10.8709386138006</v>
+        <v>68.61983782783535</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>10.90268203166919</v>
+        <v>81.60204477219767</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>10.67485088528104</v>
+        <v>21.77084947333234</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>10.85618808574423</v>
+        <v>61.40291314995314</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>10.90455853423321</v>
+        <v>76.04129481557874</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.54350635186689</v>
+        <v>13.07458696873729</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>10.62036336829593</v>
+        <v>21.45877461584986</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>10.64256890810021</v>
+        <v>27.09852142928395</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>10.52523091317541</v>
+        <v>6.533769592248309</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>10.60288370862882</v>
+        <v>24.59330271277872</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>10.62825666197871</v>
+        <v>29.07799904582597</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>10.58242007747798</v>
+        <v>14.4477356050072</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>10.64524778883434</v>
+        <v>40.00990902910301</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>10.66546594181254</v>
+        <v>44.48658145938408</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>10.64847624131969</v>
+        <v>32.61145003691118</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>10.7015497134992</v>
+        <v>38.75180825330908</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>10.72638701151421</v>
+        <v>40.14987860518984</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>10.53283918663042</v>
+        <v>13.18846965946818</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>10.67178009905968</v>
+        <v>25.79532375039606</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>10.71241096816798</v>
+        <v>33.5851128130022</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10.54899093395834</v>
+        <v>15.30472324011053</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>10.65699396090045</v>
+        <v>28.91650268232245</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>10.68756797086468</v>
+        <v>35.47407096357679</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10.51136969705651</v>
+        <v>1.48606635720753</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>10.62149739939065</v>
+        <v>23.70621893451726</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>10.6562640962724</v>
+        <v>29.7993415904933</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>10.59121899533612</v>
+        <v>6.806808990614453</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>10.68030983153571</v>
+        <v>37.37710327960338</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>10.58392025506927</v>
+        <v>17.16067721023681</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>10.67171885777443</v>
+        <v>32.9822798219185</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>10.69390667102939</v>
+        <v>34.65348603017723</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>10.57822518699879</v>
+        <v>10.30299276303512</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>10.66739877943954</v>
+        <v>38.36920244224312</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>10.69276169157167</v>
+        <v>39.56495513170106</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>10.63833683413175</v>
+        <v>19.42752319763444</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>10.71052375342191</v>
+        <v>54.23722664255497</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>10.73070145728249</v>
+        <v>55.31170800476747</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>10.73362091001619</v>
+        <v>54.82811059670372</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>10.7958031734448</v>
+        <v>63.83787224511005</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>10.8204558715534</v>
+        <v>62.66579266850522</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>10.60952101051197</v>
+        <v>22.25965858899695</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>10.76818538081637</v>
+        <v>48.64258230609651</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>10.80876183309815</v>
+        <v>50.24475123131533</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>10.61180496072154</v>
+        <v>22.2563481918369</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>10.73470020453831</v>
+        <v>44.74605747116053</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10.76541505501244</v>
+        <v>48.49028563286532</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>10.59058401888116</v>
+        <v>9.52743083137133</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>10.71644287568232</v>
+        <v>43.86028467624326</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>10.75137074072667</v>
+        <v>47.96297547990225</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.67418834482849</v>
+        <v>18.56230321102366</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>10.77605572039418</v>
+        <v>60.21469646004503</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>10.58346916356921</v>
+        <v>9.597471814609015</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>10.66989829327746</v>
+        <v>27.21822551432231</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>10.69149892660815</v>
+        <v>30.3827005019255</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>10.58098426538603</v>
+        <v>7.11748681007597</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>10.66887973531722</v>
+        <v>37.24649616638813</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.69356231595998</v>
+        <v>40.43328105664344</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>10.6394471963872</v>
+        <v>16.86598199068371</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>10.71060597387658</v>
+        <v>53.3918957114391</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>10.73024349698831</v>
+        <v>56.1832490753798</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>10.73436639959488</v>
+        <v>53.85499724772227</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>10.79592542130434</v>
+        <v>62.27909456906183</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>10.8200227243411</v>
+        <v>64.00158595749627</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>10.61353648124979</v>
+        <v>13.96620915471293</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>10.76972232553314</v>
+        <v>43.62734110523721</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>10.80921599644601</v>
+        <v>47.63881483153267</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>10.61226929466608</v>
+        <v>14.2731818951452</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>10.73314927278258</v>
+        <v>38.78941863334244</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>10.76306451489296</v>
+        <v>44.7032893662492</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>10.59582596031552</v>
+        <v>4.287789579862537</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>10.71975623180156</v>
+        <v>41.03991982640737</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>10.75376314241298</v>
+        <v>47.93829978861856</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>10.67702176567686</v>
+        <v>14.41650884369481</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>10.77733698342921</v>
+        <v>58.06625140833695</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>10.56714082363687</v>
+        <v>8.715022524785702</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>10.63694652003956</v>
+        <v>22.6674643619275</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>10.65673763897198</v>
+        <v>30.10708364592871</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>10.55617261422438</v>
+        <v>9.508816040121779</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>10.6268496390515</v>
+        <v>34.60874587900176</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>10.64945202163165</v>
+        <v>41.53302361431611</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>10.60586853056813</v>
+        <v>18.11425502358546</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>10.66306122828305</v>
+        <v>50.07546244372286</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>10.68107272442194</v>
+        <v>56.64681054005107</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>10.67206903585958</v>
+        <v>44.42067383022039</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>10.72075001502356</v>
+        <v>52.84583709905766</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>10.74297917445577</v>
+        <v>57.61205074186062</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10.56888164184145</v>
+        <v>15.12850616730767</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>10.69507686175456</v>
+        <v>37.31835756227663</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>10.73127563489256</v>
+        <v>47.97344672468486</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>10.58027877523307</v>
+        <v>12.77712617526036</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>10.67824769311575</v>
+        <v>32.94858348917991</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>10.70551166381721</v>
+        <v>42.01908502180916</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>10.55398961046094</v>
+        <v>5.01554917864998</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>10.65406374771631</v>
+        <v>35.51745399400242</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>10.68505143807682</v>
+        <v>44.91328640840321</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.62332755010878</v>
+        <v>11.8123980337127</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>10.70429738980582</v>
+        <v>49.88200658493211</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>10.70804483212053</v>
+        <v>44.00186230729165</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>10.69293178488449</v>
+        <v>32.09473837933712</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>10.77168823445468</v>
+        <v>43.64111531392518</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>10.80698624200813</v>
+        <v>46.11851097582294</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>10.54398217714491</v>
+        <v>11.11516763119481</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>10.73895215724016</v>
+        <v>37.13407374406283</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>10.795082002561</v>
+        <v>43.76363511905205</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>10.58179204837772</v>
+        <v>17.28437338264924</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>10.7035284670838</v>
+        <v>33.37398266212873</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>10.73725003190442</v>
+        <v>43.43235054136195</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>10.54970801927985</v>
+        <v>-2.278875933290699</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10.67503554516946</v>
+        <v>23.33622356104627</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>10.71331835393092</v>
+        <v>32.65362350007164</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>10.63792934026608</v>
+        <v>8.119326405255798</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>10.7393517369558</v>
+        <v>42.02069442750611</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>10.76990907368044</v>
+        <v>52.1304745386316</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>10.77663400585553</v>
+        <v>46.57787507394184</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>10.87050479356787</v>
+        <v>56.11268626208759</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>10.91125850758875</v>
+        <v>63.75271404957699</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>10.62328414092288</v>
+        <v>9.594712454385608</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>10.84292343472296</v>
+        <v>42.51665713082051</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>10.90484845959321</v>
+        <v>53.75047109394048</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>10.80388048779283</v>
+        <v>64.6273612292912</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>10.81750513115905</v>
+        <v>60.03352225881923</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>10.90884048134319</v>
+        <v>74.60628737742542</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>10.94417446314404</v>
+        <v>75.3403667173807</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>10.65772696351002</v>
+        <v>25.76307702421287</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>10.87951539637375</v>
+        <v>67.80008917627747</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>10.9358969812336</v>
+        <v>70.01740756971799</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>10.66509115437595</v>
+        <v>27.57946084321586</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>10.802969869708</v>
+        <v>53.77824810652496</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>10.83691193470963</v>
+        <v>59.17330624548325</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>10.65217525177903</v>
+        <v>10.03623568793613</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>10.79461469989095</v>
+        <v>49.69722868483642</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>10.83314595805782</v>
+        <v>54.4853153100896</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>10.74370054319283</v>
+        <v>23.78958320844876</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>10.85902141176719</v>
+        <v>70.39294809067424</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>10.88973716333269</v>
+        <v>75.99674775949971</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>10.93191730935937</v>
+        <v>81.52142129926466</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>11.03967193472512</v>
+        <v>94.13151594967916</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>11.08068866962943</v>
+        <v>98.6996211166981</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>10.76749757709555</v>
+        <v>34.02738002552869</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>11.01620322670184</v>
+        <v>85.03866049265466</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>11.07852480512993</v>
+        <v>88.78213307471677</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>10.80442975795156</v>
+        <v>64.91006021408839</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>10.81980226341311</v>
+        <v>56.74889872634687</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>10.91003037370312</v>
+        <v>70.52756708041056</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>10.9445732297433</v>
+        <v>75.16214103645767</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>10.66425961359452</v>
+        <v>17.12068702670058</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>10.88240885922024</v>
+        <v>62.78665002733027</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>10.93731198455829</v>
+        <v>68.50040143760464</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>10.66893200654887</v>
+        <v>20.37600451941681</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>10.80442703877494</v>
+        <v>49.80687349598441</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>10.83746308723839</v>
+        <v>56.68301075236909</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>10.66114552093042</v>
+        <v>5.269726922753655</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>10.80124897919031</v>
+        <v>48.84331420185183</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>10.8387403331066</v>
+        <v>55.5854617280448</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>10.74973675124887</v>
+        <v>20.29826265415647</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>10.86317521647939</v>
+        <v>70.20444402591281</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>10.89306345511542</v>
+        <v>77.47484488955371</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>10.93746918942357</v>
+        <v>79.67665005779989</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>11.043699007495</v>
+        <v>93.10003217682844</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>11.08375183443549</v>
+        <v>100.9016077309273</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>10.77742166473551</v>
+        <v>27.66805446485232</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>11.02182692192601</v>
+        <v>84.2712003205327</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>11.08247363644402</v>
+        <v>90.46588583470214</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>10.72901932758091</v>
+        <v>59.38894834777675</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>10.72418053934082</v>
+        <v>44.04457955722845</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>10.79616213881329</v>
+        <v>58.04949643659491</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>10.82776251976973</v>
+        <v>64.95198405767317</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>10.59128922643366</v>
+        <v>15.53859144655502</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>10.76815127134629</v>
+        <v>52.90175852660906</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>10.81818707163911</v>
+        <v>63.45129379220592</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.61659672993447</v>
+        <v>22.39017764839107</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>10.72686213292914</v>
+        <v>46.80025211731854</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>10.75691047350628</v>
+        <v>58.37246374109808</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>10.59604755321212</v>
+        <v>9.69570454909482</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>10.70973138322902</v>
+        <v>45.79416608812542</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>10.74382937581275</v>
+        <v>57.1507350112448</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>10.67239606283295</v>
+        <v>22.16123376809505</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>10.76440785880962</v>
+        <v>65.50459321887604</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>10.7916263098491</v>
+        <v>77.36113063010072</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>10.80806052732397</v>
+        <v>69.38882232051675</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>10.89356103113292</v>
+        <v>83.43689029542759</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>10.93000303191214</v>
+        <v>94.60581161456263</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>10.67125120993389</v>
+        <v>24.90464549856311</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>10.87020267620654</v>
+        <v>72.14824444963402</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>10.92536390911876</v>
+        <v>85.76676558739823</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10.56532293441512</v>
+        <v>10.772902867297</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>10.647568195022</v>
+        <v>20.90883643762706</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>10.66985580090581</v>
+        <v>27.9763095189998</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>10.55248621661431</v>
+        <v>-2.487516352323318</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>10.63614407078524</v>
+        <v>20.58402829598955</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>10.66154830836911</v>
+        <v>25.69079705514325</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>10.60922235400515</v>
+        <v>5.623979786130864</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>10.67694683578426</v>
+        <v>35.66328443562971</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>10.69718177461252</v>
+        <v>40.89582216438419</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>10.68839917296575</v>
+        <v>23.075769628219</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>10.74718163160585</v>
+        <v>25.94117362352343</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>10.77174326012804</v>
+        <v>31.19419463300417</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>10.57327020346464</v>
+        <v>7.382793673839117</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>10.7222076642311</v>
+        <v>18.70016870573908</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>10.76266883642736</v>
+        <v>30.4555457912095</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.57178737558626</v>
+        <v>17.89626604914785</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>10.68668529794467</v>
+        <v>31.38617880489045</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>10.71719915974098</v>
+        <v>37.75790539631492</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>10.53998628803496</v>
+        <v>-1.142267098149514</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>10.65780280777814</v>
+        <v>23.36073972731637</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>10.69242389327949</v>
+        <v>28.49137954808535</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>10.61949807694554</v>
+        <v>2.80157447777335</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>10.71485789925656</v>
+        <v>35.60619808256904</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.614060696523</v>
+        <v>19.14756474233758</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>10.70770125366261</v>
+        <v>37.91438697352462</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>10.72988649207358</v>
+        <v>39.60722363929732</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>10.61492521430825</v>
+        <v>3.966567091081316</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>10.71061224771639</v>
+        <v>38.45902172029255</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>10.73590539419626</v>
+        <v>38.74150684051794</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>10.67414846321013</v>
+        <v>14.81775746006391</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>10.75164645690373</v>
+        <v>55.36356756847401</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>10.77175809007249</v>
+        <v>55.8477337032444</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>10.78540038974815</v>
+        <v>54.66283845915825</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>10.85375573263651</v>
+        <v>61.20560389895206</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>10.8779825082061</v>
+        <v>61.44167755023248</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>10.66186676868585</v>
+        <v>24.31471586166925</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>10.83137736689509</v>
+        <v>51.74537756340005</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>10.87159963051473</v>
+        <v>54.98161800443054</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>10.64502826778622</v>
+        <v>27.88754747936146</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>10.77539758936146</v>
+        <v>51.32122950059077</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>10.8059296571436</v>
+        <v>53.1109487225005</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>10.63099346078106</v>
+        <v>9.067421780641052</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>10.76519064130685</v>
+        <v>46.96632312930081</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>10.79982747161397</v>
+        <v>48.18407952955816</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>10.71370742869846</v>
+        <v>19.09795392664365</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>10.82237303821944</v>
+        <v>64.14534245310963</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.61412827201884</v>
+        <v>11.27964423738372</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>10.70624427281191</v>
+        <v>32.26244542250359</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>10.72783371635234</v>
+        <v>35.62681061774967</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>10.61818056603329</v>
+        <v>0.4805196805681042</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>10.71241720488063</v>
+        <v>37.48706718928586</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>10.73702178666443</v>
+        <v>39.9990476001546</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>10.67570074141466</v>
+        <v>12.42732690172148</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>10.75203001964943</v>
+        <v>55.09142409817078</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>10.77159511396502</v>
+        <v>57.50912902888281</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>10.78651455201038</v>
+        <v>54.51081145663643</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>10.85408288610859</v>
+        <v>61.14711923213962</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>10.87775340802408</v>
+        <v>64.38751318888383</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>10.66623444084836</v>
+        <v>16.20474105564869</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>10.8329799712327</v>
+        <v>47.67925200815635</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>10.87211259238381</v>
+        <v>53.64311296113353</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>10.64636858024435</v>
+        <v>19.4771445042375</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>10.77452418647348</v>
+        <v>45.28300599796578</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>10.80425034159368</v>
+        <v>49.43062179687976</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>10.63712264212727</v>
+        <v>3.184069433185194</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>10.76917067820765</v>
+        <v>43.87129026438259</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>10.80288130861153</v>
+        <v>48.13848098429101</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>10.71734747736589</v>
+        <v>14.8589413955563</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>10.82428096962988</v>
+        <v>62.23435635611898</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>10.58844311757709</v>
+        <v>9.394247743254514</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>10.66305740770166</v>
+        <v>25.85550145779236</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>10.68291104854895</v>
+        <v>34.78902176147571</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>10.58252565837019</v>
+        <v>4.104523437314075</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>10.65856247031435</v>
+        <v>35.15549402390683</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>10.68118032455477</v>
+        <v>42.79860289980115</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>10.63170769832825</v>
+        <v>13.48916454262398</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>10.69327088127301</v>
+        <v>50.76342642436647</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>10.71128733929385</v>
+        <v>58.1887807715598</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>10.71008859579315</v>
+        <v>40.24011951883719</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>10.76386428556702</v>
+        <v>46.15971401490731</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>10.78583289231444</v>
+        <v>54.87556805364973</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>10.60734894931328</v>
+        <v>13.80534076937912</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>10.74246713746286</v>
+        <v>35.88032103335043</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>10.7784942661756</v>
+        <v>50.76453187804472</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>10.60306604304582</v>
+        <v>18.43987118922207</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>10.70718811496941</v>
+        <v>39.10088273747678</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>10.73438482031937</v>
+        <v>48.01372376865108</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>10.58223355141291</v>
+        <v>6.106356288475496</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>10.6891703175523</v>
+        <v>39.64966234507092</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>10.72001226400184</v>
+        <v>48.15312081549071</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>10.6511239062489</v>
+        <v>12.23613424480893</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>10.73768896816259</v>
+        <v>53.22383919767229</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>10.74246300754078</v>
+        <v>41.55511260977578</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>10.7364929928365</v>
+        <v>28.71843505183652</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>10.82252912400257</v>
+        <v>36.24690044398019</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>10.85725223709025</v>
+        <v>40.6101007315246</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>10.58816546158944</v>
+        <v>10.4153845098249</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>10.79591214389648</v>
+        <v>33.59879421079261</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>10.85153037371666</v>
+        <v>41.98553661203577</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>10.59253129801258</v>
+        <v>13.83914180095019</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>10.72108807181908</v>
+        <v>30.46546509014068</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>10.75467203134563</v>
+        <v>39.12295097161784</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>10.56539312357546</v>
+        <v>-9.523033356788076</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>10.69832374869017</v>
+        <v>18.84565727836382</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>10.73637412984495</v>
+        <v>25.68218823955375</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>10.65381878483833</v>
+        <v>-1.251859692070944</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>10.76143995000728</v>
+        <v>35.18692310271268</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>10.7917959306173</v>
+        <v>43.58237351990361</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>10.80510764947276</v>
+        <v>37.59075645356823</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>10.90620718010457</v>
+        <v>46.74760398218636</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>10.94628890233997</v>
+        <v>55.33113793748716</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>10.65257787443893</v>
+        <v>4.287005343689977</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>10.88483502337715</v>
+        <v>36.99417556996725</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>10.94611352799391</v>
+        <v>48.11558535800163</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>10.84994875707106</v>
+        <v>66.18318570638495</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>10.87587038862052</v>
+        <v>66.65055156082012</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>10.97507364560946</v>
+        <v>77.80371522977173</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>11.00962022770246</v>
+        <v>77.62104741102873</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>10.71678033380714</v>
+        <v>33.8789083877501</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>10.9524298651122</v>
+        <v>75.29591942037189</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>11.00803764165156</v>
+        <v>76.61451507173192</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>10.6851653952951</v>
+        <v>26.25077936312617</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>10.83043717695029</v>
+        <v>53.90441726625638</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>10.86411113505142</v>
+        <v>56.51031272398312</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>10.67849309033776</v>
+        <v>5.303024006669851</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>10.8291776588852</v>
+        <v>48.81172594106136</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>10.86732230711373</v>
+        <v>49.66791087488716</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>10.76971807638319</v>
+        <v>18.67890531879505</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>10.89176085590902</v>
+        <v>68.83618043446103</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>10.9221489276012</v>
+        <v>71.42253328686292</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>10.97384920110041</v>
+        <v>81.50060473311291</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>11.08941253020035</v>
+        <v>94.13693420276357</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>11.12953415623283</v>
+        <v>97.48235130822869</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>10.81033457777816</v>
+        <v>36.67221917892387</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>11.07272901843178</v>
+        <v>89.43079395050003</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>11.13412801726098</v>
+        <v>91.13316059363638</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>10.85112087971265</v>
+        <v>66.93103307848267</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>10.87893938393349</v>
+        <v>63.94151601842711</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>10.97682621283913</v>
+        <v>74.86701617370821</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>11.01058688086999</v>
+        <v>78.70214648836412</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>10.7240646435575</v>
+        <v>25.46138539590311</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>10.95570889105323</v>
+        <v>71.11987673089756</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>11.00983775375765</v>
+        <v>76.29745726988173</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>10.6902673792949</v>
+        <v>18.61675874748257</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>10.83295833052939</v>
+        <v>49.65950887286304</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>10.86572221514075</v>
+        <v>53.96903300855362</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>10.68876543242782</v>
+        <v>-0.1841580784078047</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.83689496611929</v>
+        <v>47.37832690150946</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>10.87399700529045</v>
+        <v>50.49138738326481</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>10.77695779316412</v>
+        <v>14.82515721662027</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>10.89693945836163</v>
+        <v>68.41810910492045</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>10.92649829741057</v>
+        <v>72.93276506768608</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>10.98065879520697</v>
+        <v>79.91758823710769</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>11.09448789811081</v>
+        <v>93.60435521560987</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>11.13365365216145</v>
+        <v>100.3497551702308</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>10.82149129393364</v>
+        <v>30.35412570544707</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>11.07922233471838</v>
+        <v>88.96564757452657</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>11.13894990479677</v>
+        <v>93.56746533304079</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>10.76228228152286</v>
+        <v>62.1251469811813</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>10.76624158024947</v>
+        <v>46.26962871597083</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>10.84471905816633</v>
+        <v>56.84852368043343</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>10.87578793272504</v>
+        <v>65.69774606911204</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>10.6338980133009</v>
+        <v>19.85626701664087</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>10.82216478489587</v>
+        <v>55.32302169723658</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>10.8717182802337</v>
+        <v>67.88750748509985</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>10.62867018212547</v>
+        <v>21.29705816337324</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>10.74502134992799</v>
+        <v>46.58741952139711</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>10.77493342374982</v>
+        <v>56.80188685262776</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>10.61280328730375</v>
+        <v>5.464806311787648</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>10.73327227507019</v>
+        <v>44.74292504110335</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>10.7671472138319</v>
+        <v>53.71363890579743</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>10.68918478729435</v>
+        <v>16.21748324886588</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>10.7867283508583</v>
+        <v>62.48960597131739</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>10.81375454268793</v>
+        <v>72.72019116749722</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>10.83671977900907</v>
+        <v>64.99775144582046</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>10.9286687377464</v>
+        <v>78.92427524337046</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>10.96449271872046</v>
+        <v>91.09840525636716</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>10.70063529065718</v>
+        <v>23.84947282693619</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>10.91084822382448</v>
+        <v>71.38217869942844</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>10.96540695790676</v>
+        <v>85.19203427520097</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.51904629851277</v>
+        <v>9.296848848038408</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.59051644738845</v>
+        <v>13.20778801589704</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>10.61194112464659</v>
+        <v>17.52885238662278</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.49641094679457</v>
+        <v>-1.543138856503326</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>10.568434401706</v>
+        <v>9.197279826798336</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>10.59290940210333</v>
+        <v>12.54275316792963</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>10.55227995399003</v>
+        <v>3.896938933859136</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.61053534165507</v>
+        <v>22.33799474345187</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>10.63004341179225</v>
+        <v>25.77014481542939</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>10.60630540625314</v>
+        <v>19.0791929566618</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>10.6545866195228</v>
+        <v>22.31369899086252</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>10.67869949295699</v>
+        <v>23.3407911958007</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.49598094452596</v>
+        <v>5.214130804826539</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>10.62512012943652</v>
+        <v>12.77427627244132</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>10.66437719773677</v>
+        <v>17.82034580973406</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>10.5158222352989</v>
+        <v>8.704204423972083</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>10.61644678332465</v>
+        <v>16.5159724666164</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>10.64603370303248</v>
+        <v>22.87449511324214</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>10.47328564848904</v>
+        <v>-4.861568401028531</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.57566678599469</v>
+        <v>8.619746021841848</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>10.60930601390116</v>
+        <v>14.90645751154704</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>10.55118008445425</v>
+        <v>-3.317927293196128</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>10.63398111661783</v>
+        <v>18.7571711695434</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>10.55543825680389</v>
+        <v>11.85158209504278</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>10.6372272147564</v>
+        <v>23.49141995774588</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>10.65866775940365</v>
+        <v>24.75862658509469</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>10.54440174916357</v>
+        <v>1.726653409197372</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>10.62728340435311</v>
+        <v>22.69659236542881</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>10.65178547560891</v>
+        <v>23.78584137751033</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>10.60317007745419</v>
+        <v>8.700001644755957</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>10.670245550402</v>
+        <v>36.57083727783096</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>10.6897449599908</v>
+        <v>37.54644316810543</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>10.68435630962571</v>
+        <v>38.04981314700005</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>10.74117669059009</v>
+        <v>44.82257128582832</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>10.765166546718</v>
+        <v>44.4679892657216</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>10.56594661764132</v>
+        <v>11.69259141093188</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>10.7136808793206</v>
+        <v>33.38867487104359</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>10.75295027521492</v>
+        <v>33.83160469505761</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>10.57297542740412</v>
+        <v>14.226157955473</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>10.68765264502271</v>
+        <v>31.12297158856143</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>10.71742458213449</v>
+        <v>35.68909990997702</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>10.54557454566559</v>
+        <v>2.29220453787207</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>10.66279150126016</v>
+        <v>27.9707363010661</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>10.69664132041907</v>
+        <v>33.43714621280854</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>10.62719449613281</v>
+        <v>7.927018241659834</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.72204377652335</v>
+        <v>41.14366700790058</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>10.55566155875267</v>
+        <v>4.677515236674221</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>10.63620046417781</v>
+        <v>17.88845072980419</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>10.65707873093168</v>
+        <v>20.75992396035367</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>10.54783109528054</v>
+        <v>-1.534232048594404</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>10.62955612998126</v>
+        <v>21.24351888713812</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>10.65340674094757</v>
+        <v>24.45282066804378</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>10.60499642943279</v>
+        <v>6.089097929733317</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>10.67114231420155</v>
+        <v>35.45801719201889</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>10.69012439933555</v>
+        <v>38.26723115896654</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>10.68606732418531</v>
+        <v>36.52565252210672</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>10.74236498453316</v>
+        <v>42.559891955243</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>10.76581961468768</v>
+        <v>45.19812345721934</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>10.57077897373444</v>
+        <v>3.562406439152248</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>10.71625265147674</v>
+        <v>28.08284518927333</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>10.75448345773884</v>
+        <v>31.1495290835996</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>10.57428010098854</v>
+        <v>6.267683067603627</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>10.68710823150533</v>
+        <v>24.92471219115018</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>10.71611160641317</v>
+        <v>31.78399616040178</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>10.55162010452803</v>
+        <v>-3.46914814470481</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>10.66707892357338</v>
+        <v>24.3217542771215</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>10.70004357071083</v>
+        <v>32.72753803893138</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>10.63090302192986</v>
+        <v>3.304724291139198</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>10.72433834303617</v>
+        <v>38.25586974113554</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>10.54436935072395</v>
+        <v>4.303309549877678</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>10.60931748186372</v>
+        <v>13.1968663339356</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>10.62841873199136</v>
+        <v>19.49186682481702</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>10.52926564307236</v>
+        <v>-0.1342428335045192</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>10.59486194872812</v>
+        <v>16.88342011432792</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>10.61667129802574</v>
+        <v>22.88398899320346</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>10.57785141034732</v>
+        <v>6.033092691661146</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>10.63091717803664</v>
+        <v>30.18737539247962</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>10.64830167871065</v>
+        <v>35.9088688367375</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>10.63296277330972</v>
+        <v>28.09783640493877</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>10.67731424506463</v>
+        <v>33.22337497393657</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>10.6989018695897</v>
+        <v>37.81674439566902</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>10.53451738103119</v>
+        <v>5.461169716199887</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>10.65187454640965</v>
+        <v>21.60709042285628</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>10.68686056645835</v>
+        <v>29.83521033308207</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>10.54933135407058</v>
+        <v>4.936150916915771</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>10.64065027439379</v>
+        <v>18.5959929024437</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>10.66704186910242</v>
+        <v>27.71797941141979</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>10.51832208157228</v>
+        <v>-3.522858492955358</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>10.61140898090557</v>
+        <v>17.3232538956142</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>10.64140064645044</v>
+        <v>27.21821600860178</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>10.58601210298286</v>
+        <v>-0.4952351679687297</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>10.66130836083411</v>
+        <v>28.25428403118472</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>10.66082491326448</v>
+        <v>25.45320482910499</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>10.63642477406198</v>
+        <v>15.55804909008398</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>10.70849970910092</v>
+        <v>23.41489298203105</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>10.74285699631165</v>
+        <v>26.88965801523182</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>10.49425993191205</v>
+        <v>-0.7592685396621519</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>10.67582147727657</v>
+        <v>17.24663985208673</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>10.73020958427032</v>
+        <v>23.24803675632065</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>10.54910270732385</v>
+        <v>9.9728919560105</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>10.66282079932017</v>
+        <v>20.18853217098991</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>10.69548884098715</v>
+        <v>30.18214108485156</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.51177554574774</v>
+        <v>-7.129152904198598</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>10.62864836263202</v>
+        <v>9.567664255608797</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>10.66572941931622</v>
+        <v>19.35695576147294</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>10.59756926798472</v>
+        <v>-0.4263546362579262</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>10.6921273452798</v>
+        <v>24.8154644729543</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>10.72173458901339</v>
+        <v>35.19627390185221</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>10.71854205371066</v>
+        <v>30.86791953343357</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>10.80502228392525</v>
+        <v>36.42287034918355</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>10.84470638357586</v>
+        <v>45.55334767938938</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>10.57216611106925</v>
+        <v>0.0400092099896554</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>10.77725049452895</v>
+        <v>23.70047774583707</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>10.83730570767552</v>
+        <v>34.96606793331065</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>10.74901956288945</v>
+        <v>46.6977874668403</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>10.75120263111967</v>
+        <v>40.1593298451762</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>10.83508314612098</v>
+        <v>51.75841540610044</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>10.86955452382132</v>
+        <v>54.86731517858115</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>10.59868801482205</v>
+        <v>11.14047847817862</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>10.8055482467862</v>
+        <v>45.37779258352021</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>10.86027507970755</v>
+        <v>48.70836295040198</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>10.62609513967926</v>
+        <v>20.94994718817479</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>10.75505840218219</v>
+        <v>41.39138466095592</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>10.78799355356047</v>
+        <v>47.84349707862845</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>10.60655142941353</v>
+        <v>6.336100985656678</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>10.73957724999794</v>
+        <v>37.01039635413355</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>10.77695896552351</v>
+        <v>43.59304539444957</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>10.69562608325093</v>
+        <v>17.02258097016345</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>10.80330267483126</v>
+        <v>54.89590154056628</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>10.83311290895386</v>
+        <v>61.97972425249564</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>10.86297759081768</v>
+        <v>65.05639574348866</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>10.96250828473127</v>
+        <v>74.36279640292894</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>11.00253281229284</v>
+        <v>81.85098187847206</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>10.70602057700377</v>
+        <v>23.82511079258354</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>10.93854820641896</v>
+        <v>65.59216194959437</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>10.99909113777177</v>
+        <v>71.26546213526277</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>10.75061044053977</v>
+        <v>46.3732132371519</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>10.75470508878408</v>
+        <v>35.98539535131883</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>10.83762286132674</v>
+        <v>46.61819420409255</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>10.87132862209646</v>
+        <v>53.74632668697102</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>10.60623526978846</v>
+        <v>2.188146217400757</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>10.80975902865872</v>
+        <v>39.54406593773439</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>10.86306261302528</v>
+        <v>46.60269094568088</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>10.6305705131769</v>
+        <v>13.82059019181516</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>10.75733341302439</v>
+        <v>37.14807292802823</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>10.78939647320749</v>
+        <v>45.29196050232126</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>10.61610671749084</v>
+        <v>1.058963479793036</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>10.74698595319275</v>
+        <v>35.24175185268697</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>10.78336677398948</v>
+        <v>44.02700341953074</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>10.70234509040458</v>
+        <v>13.08492992834297</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>10.80829284198821</v>
+        <v>53.91233171651084</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>10.8373064408123</v>
+        <v>62.89032452279292</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>10.86952957653909</v>
+        <v>62.33442483054515</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>10.96769955280758</v>
+        <v>72.20406121908277</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>11.00679046364134</v>
+        <v>83.15292449973229</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>10.71674814256356</v>
+        <v>17.05121921419876</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>10.94530876473289</v>
+        <v>63.78393406843574</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>11.00423756382745</v>
+        <v>72.26773865815247</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>10.68524313717351</v>
+        <v>38.10849364783886</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>10.67168133745426</v>
+        <v>24.10608349071666</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>10.73763246621289</v>
+        <v>33.9669991193248</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>10.76839903450868</v>
+        <v>42.16466680163285</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>10.54484522744102</v>
+        <v>1.133014762333652</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>10.7096232403131</v>
+        <v>29.26053223341689</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>10.7581208625146</v>
+        <v>39.62991196628293</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>10.58577069796504</v>
+        <v>13.73298793730307</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>10.68881325324588</v>
+        <v>31.45475105205265</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>10.71793134822462</v>
+        <v>43.35464419785846</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>10.56017475858039</v>
+        <v>2.56322442178444</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>10.66623734866509</v>
+        <v>28.69674642034062</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>10.69927461747671</v>
+        <v>41.00612790300457</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>10.63447361293937</v>
+        <v>11.36546582193372</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>10.72029744018273</v>
+        <v>45.10911868208647</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>10.74667746148041</v>
+        <v>57.67080526756018</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>10.75374862769755</v>
+        <v>50.13411801967835</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>10.83258460146165</v>
+        <v>59.65119710257373</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>10.86807941866145</v>
+        <v>72.79637638417623</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>10.623162886953</v>
+        <v>12.58705058852234</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>10.80900381621526</v>
+        <v>49.15705322817472</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>10.86251526851038</v>
+        <v>63.48319624458233</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>10.57536048431512</v>
+        <v>14.12029454096122</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>10.62672376270555</v>
+        <v>21.87583473217424</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>10.6410174676292</v>
+        <v>29.38418672067777</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>10.56753531826988</v>
+        <v>8.539213365933289</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>10.61975475800335</v>
+        <v>28.67424121223199</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>10.63603895932044</v>
+        <v>34.10383164027071</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>10.60281009015757</v>
+        <v>10.73136603573646</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>10.6450850366794</v>
+        <v>37.32203720868957</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>10.65805965033801</v>
+        <v>42.94839349017931</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>10.65301487914917</v>
+        <v>27.3592807467545</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>10.68942050526143</v>
+        <v>29.24975031204069</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>10.70516118013549</v>
+        <v>35.40832749826038</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>10.58127457846997</v>
+        <v>18.27930372415414</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>10.67432157872445</v>
+        <v>26.231217783608</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>10.70022675456383</v>
+        <v>39.12928343010499</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>10.5739933779793</v>
+        <v>17.74412472762078</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>10.64572595147111</v>
+        <v>25.90420384235768</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>10.66527672206215</v>
+        <v>32.19611680581156</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>10.55385809392467</v>
+        <v>6.44774240279725</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>10.62737841074233</v>
+        <v>24.47536751473923</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>10.64955232153175</v>
+        <v>29.37634287187749</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>10.60361699626869</v>
+        <v>3.397405455292908</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>10.66312469987109</v>
+        <v>29.59849468349001</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>10.60644710274743</v>
+        <v>20.94800928394922</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>10.66494312084423</v>
+        <v>37.01457802113724</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>10.67919210833713</v>
+        <v>39.31624976203459</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>10.60731234314846</v>
+        <v>13.94710214557742</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>10.66706039098341</v>
+        <v>45.02533131730455</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>10.68329651811514</v>
+        <v>45.7616389630761</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>10.64408975183983</v>
+        <v>18.74777837942023</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>10.69248166232634</v>
+        <v>55.39164234539712</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>10.70539637388756</v>
+        <v>56.42811022481889</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>10.71461832482337</v>
+        <v>57.84010328182191</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>10.75699242167881</v>
+        <v>63.47976036838686</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>10.77254162352911</v>
+        <v>64.51769327172006</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>10.63764837849232</v>
+        <v>35.76925903798035</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>10.743576731342</v>
+        <v>59.32136678355891</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>10.76936380443924</v>
+        <v>63.93465061595298</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>10.62022581216702</v>
+        <v>25.78521741198107</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>10.70163974593474</v>
+        <v>43.36833735945729</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>10.72122773655651</v>
+        <v>45.2823641087034</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>10.61132630065165</v>
+        <v>14.889171699515</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>10.69509575753993</v>
+        <v>45.57665067044788</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>10.71730814764856</v>
+        <v>46.75937859917238</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.66303820397404</v>
+        <v>17.9732647715084</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>10.73087122749421</v>
+        <v>55.7405326733231</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>10.60652853458925</v>
+        <v>12.62434302746824</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>10.66407552584875</v>
+        <v>30.7848072018276</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>10.67794262101221</v>
+        <v>34.7434654077844</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>10.60939595073746</v>
+        <v>9.247925470419499</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>10.66824250682989</v>
+        <v>42.69538287914413</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>10.68403757227329</v>
+        <v>45.64402812188632</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>10.64511290765876</v>
+        <v>15.18120106034238</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>10.69277837863391</v>
+        <v>53.82510091645984</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>10.70534289718185</v>
+        <v>56.78271717917514</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>10.7153643566094</v>
+        <v>56.31805699381398</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.75725948385331</v>
+        <v>62.07723497973754</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>10.77245123989925</v>
+        <v>66.04503109630235</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>10.64042026924702</v>
+        <v>26.74633977015336</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>10.74462650978712</v>
+        <v>54.12902646292742</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>10.76971652634973</v>
+        <v>61.46100864075588</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>10.62129513435861</v>
+        <v>17.27864315802082</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>10.7013312802954</v>
+        <v>37.09514566539455</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>10.72040307240644</v>
+        <v>41.36808468970008</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>10.6154186540599</v>
+        <v>8.209557381733603</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>10.69785227242926</v>
+        <v>41.51849931326954</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>10.71947172407821</v>
+        <v>45.75144895007009</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>10.66556969306919</v>
+        <v>13.02012030262063</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>10.73232607486928</v>
+        <v>52.97871848951036</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>10.58994825294728</v>
+        <v>11.43474090602435</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>10.63655051330626</v>
+        <v>25.13278965706465</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>10.64928417233565</v>
+        <v>34.45452643491871</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>10.5864556207947</v>
+        <v>13.10146937707524</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>10.63392373665536</v>
+        <v>40.73996804162704</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>10.64842297668</v>
+        <v>48.62898606340866</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>10.61702150977806</v>
+        <v>16.43814113408709</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>10.65545508329201</v>
+        <v>49.82740357663758</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>10.66700812599243</v>
+        <v>57.58793604604484</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>10.66669655929291</v>
+        <v>41.89576707265044</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>10.70001379462113</v>
+        <v>46.69026063553711</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>10.71409252098484</v>
+        <v>56.18627282144848</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>10.60267482873028</v>
+        <v>22.95544367220855</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>10.68709645715201</v>
+        <v>41.0341390167544</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>10.71016452768874</v>
+        <v>57.00915568733566</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>10.59434035159675</v>
+        <v>17.30522539481553</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>10.65935181478037</v>
+        <v>32.10207089209079</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>10.67677828827573</v>
+        <v>40.89855342696671</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>10.58112980187014</v>
+        <v>12.05484190039471</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>10.6478687937115</v>
+        <v>38.46167163054146</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>10.66762354798585</v>
+        <v>46.68124924117833</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>10.62423140357417</v>
+        <v>11.07997825807661</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>10.6782572618034</v>
+        <v>44.86474822010741</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>10.68080996065832</v>
+        <v>35.40710944588261</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>10.67628534270785</v>
+        <v>23.0339655251017</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>10.72959578843629</v>
+        <v>26.97010170192867</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>10.75181672409171</v>
+        <v>31.48926147956485</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.58383518168522</v>
+        <v>10.22353514277068</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>10.7135746519765</v>
+        <v>25.17898891270809</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>10.74915435307095</v>
+        <v>34.02387238235825</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>10.58474429835869</v>
+        <v>16.53821448794318</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>10.6650074772446</v>
+        <v>27.44086629935249</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>10.68649770750441</v>
+        <v>35.40573776752751</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>10.56742943965481</v>
+        <v>4.309421060928294</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>10.65038845367302</v>
+        <v>25.56434953978363</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>10.67472802610675</v>
+        <v>31.51076260235875</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>10.62286513748792</v>
+        <v>5.362317684981463</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>10.69002969285282</v>
+        <v>34.6383198105198</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>10.70945244382973</v>
+        <v>42.31033385868535</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>10.7165184237399</v>
+        <v>36.29958959961178</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>10.77923586880373</v>
+        <v>41.47775909900216</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>10.80484280260827</v>
+        <v>50.10649603811828</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.62145380658272</v>
+        <v>8.985671980518852</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>10.76649777195656</v>
+        <v>32.40265548316226</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>10.80565206411931</v>
+        <v>43.15958149865353</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>10.74856115381364</v>
+        <v>57.84982539055738</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>10.76420199133808</v>
+        <v>59.02742556560266</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>10.82572030006242</v>
+        <v>66.58377035821464</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>10.84785519132677</v>
+        <v>66.54087621814801</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>10.66505176625251</v>
+        <v>33.3700382663025</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>10.81225659176632</v>
+        <v>65.74686105643251</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>10.84787206471592</v>
+        <v>67.87664635164349</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>10.64297858244706</v>
+        <v>28.05499386001479</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>10.7336997580101</v>
+        <v>49.33411545799225</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>10.7552737682538</v>
+        <v>51.66622997195356</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>10.63858847561715</v>
+        <v>18.95820173378316</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>10.73265415577383</v>
+        <v>54.42785531004528</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>10.75708312895882</v>
+        <v>54.8757759689146</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>10.69572960354834</v>
+        <v>25.19195713813862</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>10.77191622298049</v>
+        <v>67.35199894209153</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>10.7913835704428</v>
+        <v>69.67672622259005</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>10.82265578513369</v>
+        <v>79.57442548210079</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>10.89438986725072</v>
+        <v>88.14486775159017</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>10.92004904014527</v>
+        <v>91.73735888177393</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>10.72075351312108</v>
+        <v>41.96274044979869</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>10.88465798454058</v>
+        <v>84.36246643958674</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>10.92393290867937</v>
+        <v>86.45121256382174</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>10.7495448145925</v>
+        <v>57.75073670611187</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>10.76641811916536</v>
+        <v>55.45427267741393</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>10.82713126156482</v>
+        <v>62.82155672464464</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>10.84876193582394</v>
+        <v>66.7339556370739</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>10.66989333376754</v>
+        <v>24.44883283315685</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>10.8146043229286</v>
+        <v>60.82418900885725</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>10.84927426430368</v>
+        <v>66.83378810735233</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>10.64648629038023</v>
+        <v>20.72510769718577</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>10.7356003297658</v>
+        <v>45.15141202623388</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>10.75659254379744</v>
+        <v>49.27315925544142</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.64536297054002</v>
+        <v>13.14198976003655</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>10.73783925611761</v>
+        <v>52.37336200546441</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>10.7616020116796</v>
+        <v>55.18259499851381</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>10.70059900959686</v>
+        <v>21.07655862087708</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>10.77550347513245</v>
+        <v>66.42549343429343</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>10.79444082043995</v>
+        <v>70.7737850113316</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>10.82731693253492</v>
+        <v>77.53338297998846</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>10.89798468414773</v>
+        <v>87.05838336180736</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>10.92303252014027</v>
+        <v>94.08035084201634</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>10.72812212237229</v>
+        <v>35.46685762555034</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>10.88912170922315</v>
+        <v>83.30274594868069</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>10.92732991049407</v>
+        <v>88.45298188356097</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>10.69401406054172</v>
+        <v>53.58625039954268</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>10.6958424984863</v>
+        <v>38.22689540972585</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>10.74448498335819</v>
+        <v>44.97126623021928</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>10.76436705926741</v>
+        <v>53.86243142970424</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.61335276115454</v>
+        <v>17.99554793508891</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>10.7309382107281</v>
+        <v>44.34855750371594</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>10.76264026574026</v>
+        <v>57.36014016288857</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>10.60840125852194</v>
+        <v>23.28276722670377</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>10.68105031194819</v>
+        <v>42.15726770247132</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>10.70019246032056</v>
+        <v>51.76390764888561</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>10.5982140560835</v>
+        <v>18.08619787461833</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>10.67340379241967</v>
+        <v>49.39130686106432</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>10.69507428517089</v>
+        <v>57.57046672392445</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>10.64608972146243</v>
+        <v>21.47398666798912</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>10.70697127663779</v>
+        <v>59.80973577519436</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>10.72426500197006</v>
+        <v>69.41251034335544</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>10.73756981963889</v>
+        <v>61.59203233516189</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>10.79462485743844</v>
+        <v>71.10662997969479</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>10.81751200091222</v>
+        <v>83.3599508632677</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>10.65275253628607</v>
+        <v>27.06130537404742</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>10.78404121389587</v>
+        <v>64.1375537695221</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>10.81890476404688</v>
+        <v>77.77762229626967</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test1/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.1669779497279</v>
+        <v>11.16697794972842</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.53630131565158</v>
+        <v>19.53630131565231</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.30645345754776</v>
+        <v>27.30645345754828</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.1883841466984286</v>
+        <v>-0.1883841466991178</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.72555763720484</v>
+        <v>20.72555763720411</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.30298869297544</v>
+        <v>26.302988692975</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.785722047119716</v>
+        <v>4.785722047118551</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.45237875985802</v>
+        <v>32.4523787598587</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>38.24096384920887</v>
+        <v>38.24096384920858</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.81199545048248</v>
+        <v>23.81199545048267</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.94168286768499</v>
+        <v>25.94168286768456</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.87945034337298</v>
+        <v>31.8794503433728</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.44385700615147</v>
+        <v>12.44385700615144</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>21.66836585048581</v>
+        <v>21.66836585048595</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.47500813398403</v>
+        <v>34.47500813398335</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.6208442594146</v>
+        <v>13.62084425941317</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.71087488090252</v>
+        <v>22.7108748809023</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.36987870931703</v>
+        <v>29.36987870931662</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-4.019586311630878</v>
+        <v>-4.019586311631244</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.1350286861794</v>
+        <v>15.13502868617923</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.32983795637354</v>
+        <v>20.32983795637296</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-3.838625065328834</v>
+        <v>-3.838625065329378</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.76501477261453</v>
+        <v>23.76501477261491</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>18.55652331118678</v>
+        <v>18.556523311186</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>35.67695736396351</v>
+        <v>35.67695736396291</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>38.18858826999777</v>
+        <v>38.18858826999745</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6.130956014856704</v>
+        <v>6.130956014855954</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>38.57685306287392</v>
+        <v>38.5768530628743</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>39.42970623162638</v>
+        <v>39.42970623162583</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>13.81825874004495</v>
+        <v>13.81825874004486</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>52.0689509969052</v>
+        <v>52.06895099690526</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>53.22281348699941</v>
+        <v>53.22281348699832</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>55.8587458547234</v>
+        <v>55.85874585472251</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>62.0249856071252</v>
+        <v>62.02498560712579</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>62.87084906304804</v>
+        <v>62.8708490630479</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>30.93478588637041</v>
+        <v>30.93478588636966</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>56.56000909429692</v>
+        <v>56.56000909429788</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>60.98819838020142</v>
+        <v>60.98819838020153</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>22.44192489982716</v>
+        <v>22.44192489982682</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.46860550200563</v>
+        <v>41.46860550200551</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>43.76051498630973</v>
+        <v>43.76051498630991</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5.453954463265671</v>
+        <v>5.453954463266395</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>37.9527903547539</v>
+        <v>37.95279035475306</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>39.47176633766348</v>
+        <v>39.47176633766395</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>11.98287187294443</v>
+        <v>11.98287187294385</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>51.76659463185673</v>
+        <v>51.76659463185669</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>9.835416096998165</v>
+        <v>9.8354160969982</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.1037127178768</v>
+        <v>29.10371271787761</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>33.35903985952302</v>
+        <v>33.35903985952288</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.382094865336089</v>
+        <v>1.382094865335862</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.26495461831314</v>
+        <v>36.26495461831337</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>39.44098822587513</v>
+        <v>39.44098822587468</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>10.16929647704522</v>
+        <v>10.16929647704417</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>50.47422927888916</v>
+        <v>50.47422927888944</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>53.64580943155222</v>
+        <v>53.64580943155111</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>54.32707085751787</v>
+        <v>54.32707085751834</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>60.58755796330064</v>
+        <v>60.58755796330237</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>64.51718529039803</v>
+        <v>64.51718529039893</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>21.72340712608138</v>
+        <v>21.72340712608108</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>51.27438578872382</v>
+        <v>51.27438578872368</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>58.56667031694197</v>
+        <v>58.5666703169408</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.48627975305626</v>
+        <v>13.4862797530555</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.81495853567564</v>
+        <v>34.81495853567613</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>39.58751980398507</v>
+        <v>39.58751980398468</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-1.396526415940588</v>
+        <v>-1.396526415939658</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.81018190518709</v>
+        <v>33.81018190518734</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.53272432719282</v>
+        <v>38.53272432719315</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6.838876213286792</v>
+        <v>6.838876213288032</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>48.88384955296785</v>
+        <v>48.88384955296722</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>8.15529767987972</v>
+        <v>8.155297679880753</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>22.65290216965704</v>
+        <v>22.6529021696566</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32.36572591928696</v>
+        <v>32.36572591928783</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4.358593962240825</v>
+        <v>4.35859396224042</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.01313034128634</v>
+        <v>33.01313034128566</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>41.21140004489009</v>
+        <v>41.21140004488989</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10.53455368155696</v>
+        <v>10.53455368155539</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.21471539652995</v>
+        <v>45.21471539652934</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>53.27861468889265</v>
+        <v>53.27861468889159</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.7311806029815</v>
+        <v>38.73118060298047</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.83541441902915</v>
+        <v>43.8354144190292</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53.30958750259579</v>
+        <v>53.30958750259485</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>17.1928322198771</v>
+        <v>17.19283221987653</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.87154217570871</v>
+        <v>36.87154217570713</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>52.95370496928661</v>
+        <v>52.95370496928541</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>12.82973341739254</v>
+        <v>12.82973341739273</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.7878894548246</v>
+        <v>28.78788945482416</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>38.12390463330874</v>
+        <v>38.12390463330742</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1.450316476261218</v>
+        <v>1.450316476261722</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.27655663667685</v>
+        <v>29.27655663667631</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.00414157218157</v>
+        <v>38.00414157218137</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3.804933430203736</v>
+        <v>3.804933430203484</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.25566726800852</v>
+        <v>39.25566726800751</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.88232743492663</v>
+        <v>29.88232743492706</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>18.39808384172417</v>
+        <v>18.39808384172181</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22.8284315320161</v>
+        <v>22.82843153201573</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.34630753142994</v>
+        <v>27.34630753142974</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.802451094015211</v>
+        <v>3.802451094014785</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20.62187982317623</v>
+        <v>20.62187982317593</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.46051253750845</v>
+        <v>29.46051253751022</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.08554402838325</v>
+        <v>13.08554402838335</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.95544132966327</v>
+        <v>24.95544132966371</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.73713227733014</v>
+        <v>33.73713227733128</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-5.092629990964639</v>
+        <v>-5.092629990964319</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>17.38091954074534</v>
+        <v>17.38091954074572</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>24.13442384149224</v>
+        <v>24.13442384149248</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1.159799358950551</v>
+        <v>-1.159799358949613</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.59666561365862</v>
+        <v>29.59666561365913</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.03961830385681</v>
+        <v>38.03961830385755</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>32.5941681013156</v>
+        <v>32.59416810131442</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>38.2575631407689</v>
+        <v>38.25756314076907</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.36594954556097</v>
+        <v>47.36594954556139</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3.390778575096924</v>
+        <v>3.390778575095652</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.81789556616128</v>
+        <v>28.81789556616071</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>40.34411080084569</v>
+        <v>40.34411080084662</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.2049487114046</v>
+        <v>54.2049487114031</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>56.17056290874157</v>
+        <v>56.17056290874193</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>64.55303661856382</v>
+        <v>64.55303661856298</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>64.57830835237627</v>
+        <v>64.57830835237704</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.15091411413695</v>
+        <v>28.15091411413661</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>63.30789974341829</v>
+        <v>63.30789974341758</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>65.42350370466507</v>
+        <v>65.42350370466541</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.21782519345013</v>
+        <v>25.21782519345026</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.04985759441252</v>
+        <v>48.04985759441281</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>51.1701045288583</v>
+        <v>51.17010452885778</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>10.28622752653838</v>
+        <v>10.286227526537</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>47.7589632217955</v>
+        <v>47.75896322179621</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>49.00276939276036</v>
+        <v>49.0027693927594</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>19.60431570434825</v>
+        <v>19.6043157043471</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>63.94389041156197</v>
+        <v>63.94389041156134</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.01096330948204</v>
+        <v>67.01096330948198</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>77.45512946328995</v>
+        <v>77.4551294632881</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>86.87439589667899</v>
+        <v>86.87439589667704</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>91.02078821618173</v>
+        <v>91.02078821618159</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>37.45493948993981</v>
+        <v>37.45493948993937</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>82.9101081265249</v>
+        <v>82.91010812652553</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>85.70092588304757</v>
+        <v>85.70092588304729</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>54.11919713594821</v>
+        <v>54.11919713594736</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>52.46125170535436</v>
+        <v>52.46125170535402</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>60.63402912152658</v>
+        <v>60.63402912152613</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>64.81705804451948</v>
+        <v>64.81705804451819</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>18.96249273761886</v>
+        <v>18.96249273761847</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>58.23732714286293</v>
+        <v>58.23732714286376</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>64.43479191845209</v>
+        <v>64.43479191845334</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>17.42449081605509</v>
+        <v>17.42449081605401</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>43.52780459930884</v>
+        <v>43.52780459930908</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>48.53514924353426</v>
+        <v>48.53514924353378</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4.255183656386521</v>
+        <v>4.255183656386357</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>45.64325373097513</v>
+        <v>45.64325373097671</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>49.37279428792144</v>
+        <v>49.37279428792189</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>15.27507542863172</v>
+        <v>15.27507542863092</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>62.93275410920936</v>
+        <v>62.93275410921041</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>68.13137794708103</v>
+        <v>68.13137794708203</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>75.27886754307968</v>
+        <v>75.27886754307912</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>85.70463214861442</v>
+        <v>85.7046321486151</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>93.46487892851128</v>
+        <v>93.46487892851306</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.70661033014866</v>
+        <v>30.70661033014915</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>81.81087474028564</v>
+        <v>81.81087474028624</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>87.827430300938</v>
+        <v>87.82743030093896</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>48.47423062262459</v>
+        <v>48.47423062262318</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.8562394762064</v>
+        <v>33.85623947620515</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>41.18726191769911</v>
+        <v>41.18726191769908</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>50.33671197995617</v>
+        <v>50.33671197995534</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>11.60432600084733</v>
+        <v>11.60432600084592</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>40.22608366925364</v>
+        <v>40.22608366925247</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>53.49620990527499</v>
+        <v>53.4962099052748</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>19.67370923766882</v>
+        <v>19.6737092376687</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>39.8290795782072</v>
+        <v>39.82907957820778</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>50.39963830295516</v>
+        <v>50.39963830295448</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>8.748299794739879</v>
+        <v>8.748299794740689</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>41.66582084697937</v>
+        <v>41.66582084697868</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.83489826360669</v>
+        <v>50.83489826360567</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>15.13524582937875</v>
+        <v>15.13524582937836</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>55.30436517591725</v>
+        <v>55.30436517591669</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>65.83774261990038</v>
+        <v>65.83774261990013</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>58.4268302837893</v>
+        <v>58.42683028378789</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>68.61983782783535</v>
+        <v>68.61983782783607</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>81.60204477219767</v>
+        <v>81.60204477219713</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>21.77084947333234</v>
+        <v>21.77084947333136</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>61.40291314995314</v>
+        <v>61.40291314995262</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>76.04129481557874</v>
+        <v>76.04129481557959</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.07458696873729</v>
+        <v>13.07458696873815</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.45877461584986</v>
+        <v>21.45877461584948</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.09852142928395</v>
+        <v>27.09852142928333</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>6.533769592248309</v>
+        <v>6.53376959224892</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.59330271277872</v>
+        <v>24.5933027127793</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.07799904582597</v>
+        <v>29.07799904582466</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>14.4477356050072</v>
+        <v>14.44773560500652</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>40.00990902910301</v>
+        <v>40.00990902910117</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>44.48658145938408</v>
+        <v>44.48658145938407</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>32.61145003691118</v>
+        <v>32.61145003691114</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>38.75180825330908</v>
+        <v>38.75180825331039</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>40.14987860518984</v>
+        <v>40.14987860519018</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>13.18846965946818</v>
+        <v>13.18846965946892</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.79532375039606</v>
+        <v>25.79532375039577</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.5851128130022</v>
+        <v>33.58511281300234</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>15.30472324011053</v>
+        <v>15.30472324011077</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.91650268232245</v>
+        <v>28.91650268232366</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>35.47407096357679</v>
+        <v>35.47407096357661</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1.48606635720753</v>
+        <v>1.486066357207722</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>23.70621893451726</v>
+        <v>23.7062189345166</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.7993415904933</v>
+        <v>29.79934159049222</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>6.806808990614453</v>
+        <v>6.806808990614464</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>37.37710327960338</v>
+        <v>37.37710327960594</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>17.16067721023681</v>
+        <v>17.16067721023579</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>32.9822798219185</v>
+        <v>32.98227982191688</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>34.65348603017723</v>
+        <v>34.65348603017506</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>10.30299276303512</v>
+        <v>10.30299276303552</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>38.36920244224312</v>
+        <v>38.36920244224488</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>39.56495513170106</v>
+        <v>39.56495513170153</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>19.42752319763444</v>
+        <v>19.42752319763227</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>54.23722664255497</v>
+        <v>54.23722664255248</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>55.31170800476747</v>
+        <v>55.31170800476731</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>54.82811059670372</v>
+        <v>54.82811059670279</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>63.83787224511005</v>
+        <v>63.83787224510827</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>62.66579266850522</v>
+        <v>62.66579266850356</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.25965858899695</v>
+        <v>22.25965858899627</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>48.64258230609651</v>
+        <v>48.64258230609526</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>50.24475123131533</v>
+        <v>50.24475123131573</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>22.2563481918369</v>
+        <v>22.25634819183792</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>44.74605747116053</v>
+        <v>44.74605747115994</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>48.49028563286532</v>
+        <v>48.49028563286622</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>9.52743083137133</v>
+        <v>9.527430831371351</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>43.86028467624326</v>
+        <v>43.86028467624274</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>47.96297547990225</v>
+        <v>47.96297547990061</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.56230321102366</v>
+        <v>18.56230321102409</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>60.21469646004503</v>
+        <v>60.21469646004571</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>9.597471814609015</v>
+        <v>9.597471814609698</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.21822551432231</v>
+        <v>27.2182255143229</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>30.3827005019255</v>
+        <v>30.38270050192507</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>7.11748681007597</v>
+        <v>7.117486810076734</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>37.24649616638813</v>
+        <v>37.24649616638811</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>40.43328105664344</v>
+        <v>40.43328105664398</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>16.86598199068371</v>
+        <v>16.86598199068388</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>53.3918957114391</v>
+        <v>53.39189571143903</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>56.1832490753798</v>
+        <v>56.18324907537932</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>53.85499724772227</v>
+        <v>53.85499724772122</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>62.27909456906183</v>
+        <v>62.27909456906124</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>64.00158595749627</v>
+        <v>64.00158595749576</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.96620915471293</v>
+        <v>13.96620915471206</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>43.62734110523721</v>
+        <v>43.62734110523638</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>47.63881483153267</v>
+        <v>47.63881483153318</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>14.2731818951452</v>
+        <v>14.27318189514428</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>38.78941863334244</v>
+        <v>38.78941863334406</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>44.7032893662492</v>
+        <v>44.70328936624914</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4.287789579862537</v>
+        <v>4.287789579862821</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>41.03991982640737</v>
+        <v>41.03991982640865</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>47.93829978861856</v>
+        <v>47.93829978861959</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>14.41650884369481</v>
+        <v>14.41650884369608</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>58.06625140833695</v>
+        <v>58.06625140833747</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>8.715022524785702</v>
+        <v>8.715022524783553</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>22.6674643619275</v>
+        <v>22.66746436192644</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.10708364592871</v>
+        <v>30.10708364592789</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>9.508816040121779</v>
+        <v>9.508816040121093</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>34.60874587900176</v>
+        <v>34.6087458790019</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>41.53302361431611</v>
+        <v>41.53302361431655</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.11425502358546</v>
+        <v>18.11425502358506</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>50.07546244372286</v>
+        <v>50.07546244372384</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>56.64681054005107</v>
+        <v>56.6468105400492</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>44.42067383022039</v>
+        <v>44.42067383021867</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>52.84583709905766</v>
+        <v>52.84583709905713</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>57.61205074186062</v>
+        <v>57.61205074186176</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>15.12850616730767</v>
+        <v>15.12850616730687</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>37.31835756227663</v>
+        <v>37.31835756227707</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>47.97344672468486</v>
+        <v>47.97344672468515</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>12.77712617526036</v>
+        <v>12.7771261752603</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>32.94858348917991</v>
+        <v>32.94858348918039</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>42.01908502180916</v>
+        <v>42.01908502180929</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>5.01554917864998</v>
+        <v>5.015549178648222</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>35.51745399400242</v>
+        <v>35.51745399400562</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>44.91328640840321</v>
+        <v>44.9132864084045</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>11.8123980337127</v>
+        <v>11.8123980337124</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>49.88200658493211</v>
+        <v>49.88200658493194</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>44.00186230729165</v>
+        <v>44.00186230729265</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>32.09473837933712</v>
+        <v>32.09473837933672</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>43.64111531392518</v>
+        <v>43.64111531392582</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>46.11851097582294</v>
+        <v>46.11851097582378</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>11.11516763119481</v>
+        <v>11.11516763119361</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>37.13407374406283</v>
+        <v>37.13407374406346</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>43.76363511905205</v>
+        <v>43.76363511905156</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>17.28437338264924</v>
+        <v>17.28437338264933</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>33.37398266212873</v>
+        <v>33.37398266212892</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>43.43235054136195</v>
+        <v>43.43235054136148</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-2.278875933290699</v>
+        <v>-2.278875933290692</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>23.33622356104627</v>
+        <v>23.33622356104711</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>32.65362350007164</v>
+        <v>32.65362350007142</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>8.119326405255798</v>
+        <v>8.119326405256622</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>42.02069442750611</v>
+        <v>42.02069442750633</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>52.1304745386316</v>
+        <v>52.13047453863185</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>46.57787507394184</v>
+        <v>46.57787507393889</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>56.11268626208759</v>
+        <v>56.11268626208698</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>63.75271404957699</v>
+        <v>63.75271404957692</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.594712454385608</v>
+        <v>9.59471245438359</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>42.51665713082051</v>
+        <v>42.51665713082005</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>53.75047109394048</v>
+        <v>53.75047109394134</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>64.6273612292912</v>
+        <v>64.62736122929179</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>60.03352225881923</v>
+        <v>60.03352225881871</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>74.60628737742542</v>
+        <v>74.60628737742604</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>75.3403667173807</v>
+        <v>75.3403667173811</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>25.76307702421287</v>
+        <v>25.76307702421417</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>67.80008917627747</v>
+        <v>67.80008917627767</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>70.01740756971799</v>
+        <v>70.01740756971867</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>27.57946084321586</v>
+        <v>27.57946084321528</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>53.77824810652496</v>
+        <v>53.77824810652474</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>59.17330624548325</v>
+        <v>59.17330624548307</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>10.03623568793613</v>
+        <v>10.03623568793673</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>49.69722868483642</v>
+        <v>49.69722868483643</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>54.4853153100896</v>
+        <v>54.48531531008863</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>23.78958320844876</v>
+        <v>23.78958320844941</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>70.39294809067424</v>
+        <v>70.39294809067442</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>75.99674775949971</v>
+        <v>75.99674775950101</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>81.52142129926466</v>
+        <v>81.52142129926415</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>94.13151594967916</v>
+        <v>94.13151594967803</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>98.6996211166981</v>
+        <v>98.69962111669685</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>34.02738002552869</v>
+        <v>34.02738002552725</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>85.03866049265466</v>
+        <v>85.03866049265343</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>88.78213307471677</v>
+        <v>88.78213307471597</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>64.91006021408839</v>
+        <v>64.91006021409105</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>56.74889872634687</v>
+        <v>56.74889872634593</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>70.52756708041056</v>
+        <v>70.52756708040877</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>75.16214103645767</v>
+        <v>75.16214103645977</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>17.12068702670058</v>
+        <v>17.12068702670204</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>62.78665002733027</v>
+        <v>62.78665002732943</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>68.50040143760464</v>
+        <v>68.5004014376035</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>20.37600451941681</v>
+        <v>20.37600451941708</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>49.80687349598441</v>
+        <v>49.80687349598411</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>56.68301075236909</v>
+        <v>56.68301075236903</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>5.269726922753655</v>
+        <v>5.269726922754131</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>48.84331420185183</v>
+        <v>48.84331420185243</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>55.5854617280448</v>
+        <v>55.58546172804364</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>20.29826265415647</v>
+        <v>20.29826265415678</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>70.20444402591281</v>
+        <v>70.2044440259119</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>77.47484488955371</v>
+        <v>77.47484488955314</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>79.67665005779989</v>
+        <v>79.67665005780084</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>93.10003217682844</v>
+        <v>93.1000321768291</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>100.9016077309273</v>
+        <v>100.9016077309283</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.66805446485232</v>
+        <v>27.66805446485372</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>84.2712003205327</v>
+        <v>84.27120032053426</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>90.46588583470214</v>
+        <v>90.4658858347039</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>59.38894834777675</v>
+        <v>59.38894834777719</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>44.04457955722845</v>
+        <v>44.04457955722717</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>58.04949643659491</v>
+        <v>58.04949643659296</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>64.95198405767317</v>
+        <v>64.95198405767293</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.53859144655502</v>
+        <v>15.53859144655628</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>52.90175852660906</v>
+        <v>52.9017585266096</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>63.45129379220592</v>
+        <v>63.45129379220673</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>22.39017764839107</v>
+        <v>22.39017764838995</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>46.80025211731854</v>
+        <v>46.80025211731858</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>58.37246374109808</v>
+        <v>58.37246374109815</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>9.69570454909482</v>
+        <v>9.695704549095034</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>45.79416608812542</v>
+        <v>45.79416608812605</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>57.1507350112448</v>
+        <v>57.15073501124262</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>22.16123376809505</v>
+        <v>22.16123376809474</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>65.50459321887604</v>
+        <v>65.50459321887654</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>77.36113063010072</v>
+        <v>77.36113063010077</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>69.38882232051675</v>
+        <v>69.3888223205193</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>83.43689029542759</v>
+        <v>83.43689029542811</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>94.60581161456263</v>
+        <v>94.60581161456525</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>24.90464549856311</v>
+        <v>24.90464549856094</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>72.14824444963402</v>
+        <v>72.14824444963479</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>85.76676558739823</v>
+        <v>85.76676558739982</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10.772902867297</v>
+        <v>10.77290286729643</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>20.90883643762706</v>
+        <v>20.90883643762757</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.9763095189998</v>
+        <v>27.97630951899959</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2.487516352323318</v>
+        <v>-2.487516352324285</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>20.58402829598955</v>
+        <v>20.58402829598861</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.69079705514325</v>
+        <v>25.6907970551418</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>5.623979786130864</v>
+        <v>5.623979786131265</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>35.66328443562971</v>
+        <v>35.66328443562963</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>40.89582216438419</v>
+        <v>40.89582216438507</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>23.075769628219</v>
+        <v>23.07576962821902</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.94117362352343</v>
+        <v>25.94117362352456</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>31.19419463300417</v>
+        <v>31.19419463300565</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>7.382793673839117</v>
+        <v>7.382793673839156</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.70016870573908</v>
+        <v>18.7001687057392</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.4555457912095</v>
+        <v>30.45554579121006</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>17.89626604914785</v>
+        <v>17.89626604914777</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.38617880489045</v>
+        <v>31.38617880489093</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>37.75790539631492</v>
+        <v>37.75790539631626</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1.142267098149514</v>
+        <v>-1.142267098148029</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>23.36073972731637</v>
+        <v>23.36073972731731</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.49137954808535</v>
+        <v>28.49137954808468</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>2.80157447777335</v>
+        <v>2.801574477774217</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>35.60619808256904</v>
+        <v>35.60619808256948</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>19.14756474233758</v>
+        <v>19.14756474233813</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>37.91438697352462</v>
+        <v>37.91438697352565</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>39.60722363929732</v>
+        <v>39.60722363929767</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3.966567091081316</v>
+        <v>3.966567091080478</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>38.45902172029255</v>
+        <v>38.45902172029282</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.74150684051794</v>
+        <v>38.74150684051853</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>14.81775746006391</v>
+        <v>14.8177574600625</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>55.36356756847401</v>
+        <v>55.36356756847266</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>55.8477337032444</v>
+        <v>55.84773370324307</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>54.66283845915825</v>
+        <v>54.66283845915926</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>61.20560389895206</v>
+        <v>61.20560389895283</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>61.44167755023248</v>
+        <v>61.44167755023359</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>24.31471586166925</v>
+        <v>24.31471586166792</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>51.74537756340005</v>
+        <v>51.74537756339977</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>54.98161800443054</v>
+        <v>54.98161800443008</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>27.88754747936146</v>
+        <v>27.88754747936006</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>51.32122950059077</v>
+        <v>51.32122950059063</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>53.1109487225005</v>
+        <v>53.11094872249959</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>9.067421780641052</v>
+        <v>9.067421780642469</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>46.96632312930081</v>
+        <v>46.96632312929993</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>48.18407952955816</v>
+        <v>48.18407952955817</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>19.09795392664365</v>
+        <v>19.09795392664506</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>64.14534245310963</v>
+        <v>64.14534245310946</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>11.27964423738372</v>
+        <v>11.27964423738427</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>32.26244542250359</v>
+        <v>32.26244542250475</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>35.62681061774967</v>
+        <v>35.62681061775026</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>0.4805196805681042</v>
+        <v>0.4805196805674719</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>37.48706718928586</v>
+        <v>37.48706718928534</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>39.9990476001546</v>
+        <v>39.99904760015482</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>12.42732690172148</v>
+        <v>12.42732690172156</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>55.09142409817078</v>
+        <v>55.091424098171</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>57.50912902888281</v>
+        <v>57.50912902888167</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>54.51081145663643</v>
+        <v>54.5108114566366</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>61.14711923213962</v>
+        <v>61.14711923213943</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>64.38751318888383</v>
+        <v>64.38751318888302</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>16.20474105564869</v>
+        <v>16.20474105565041</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>47.67925200815635</v>
+        <v>47.67925200815757</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>53.64311296113353</v>
+        <v>53.6431129611353</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>19.4771445042375</v>
+        <v>19.47714450423871</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>45.28300599796578</v>
+        <v>45.28300599796639</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>49.43062179687976</v>
+        <v>49.43062179688047</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>3.184069433185194</v>
+        <v>3.184069433186643</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>43.87129026438259</v>
+        <v>43.87129026438232</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>48.13848098429101</v>
+        <v>48.13848098429226</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>14.8589413955563</v>
+        <v>14.85894139555715</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>62.23435635611898</v>
+        <v>62.2343563561209</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>9.394247743254514</v>
+        <v>9.394247743254994</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>25.85550145779236</v>
+        <v>25.85550145779222</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>34.78902176147571</v>
+        <v>34.78902176147704</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>4.104523437314075</v>
+        <v>4.104523437314189</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.15549402390683</v>
+        <v>35.15549402390601</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>42.79860289980115</v>
+        <v>42.79860289979958</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>13.48916454262398</v>
+        <v>13.48916454262378</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>50.76342642436647</v>
+        <v>50.76342642436556</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>58.1887807715598</v>
+        <v>58.18878077155883</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>40.24011951883719</v>
+        <v>40.24011951883607</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>46.15971401490731</v>
+        <v>46.15971401490648</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>54.87556805364973</v>
+        <v>54.87556805364938</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>13.80534076937912</v>
+        <v>13.80534076937812</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>35.88032103335043</v>
+        <v>35.88032103335046</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>50.76453187804472</v>
+        <v>50.76453187804508</v>
       </c>
     </row>
     <row r="446">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>39.10088273747678</v>
+        <v>39.10088273747868</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>48.01372376865108</v>
+        <v>48.01372376865204</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>6.106356288475496</v>
+        <v>6.106356288477059</v>
       </c>
     </row>
     <row r="450">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>48.15312081549071</v>
+        <v>48.15312081548942</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>12.23613424480893</v>
+        <v>12.23613424481038</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>53.22383919767229</v>
+        <v>53.22383919767145</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>41.55511260977578</v>
+        <v>41.55511260977468</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.71843505183652</v>
+        <v>28.71843505183712</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>36.24690044398019</v>
+        <v>36.24690044398162</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>40.6101007315246</v>
+        <v>40.61010073152484</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>10.4153845098249</v>
+        <v>10.41538450982301</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>33.59879421079261</v>
+        <v>33.59879421079473</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>41.98553661203577</v>
+        <v>41.9855366120363</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.83914180095019</v>
+        <v>13.83914180094978</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.46546509014068</v>
+        <v>30.46546509013998</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>39.12295097161784</v>
+        <v>39.12295097161867</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-9.523033356788076</v>
+        <v>-9.523033356788169</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>18.84565727836382</v>
+        <v>18.84565727836365</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>25.68218823955375</v>
+        <v>25.68218823955504</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-1.251859692070944</v>
+        <v>-1.251859692071413</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.18692310271268</v>
+        <v>35.18692310271358</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>43.58237351990361</v>
+        <v>43.58237351990497</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>37.59075645356823</v>
+        <v>37.59075645356809</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>46.74760398218636</v>
+        <v>46.74760398218631</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>55.33113793748716</v>
+        <v>55.33113793748795</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>4.287005343689977</v>
+        <v>4.287005343690304</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>36.99417556996725</v>
+        <v>36.99417556996757</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>48.11558535800163</v>
+        <v>48.11558535800076</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>66.18318570638495</v>
+        <v>66.18318570638571</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>66.65055156082012</v>
+        <v>66.65055156082001</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>77.80371522977173</v>
+        <v>77.80371522977146</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>77.62104741102873</v>
+        <v>77.62104741102776</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.8789083877501</v>
+        <v>33.87890838774842</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>75.29591942037189</v>
+        <v>75.29591942037092</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>76.61451507173192</v>
+        <v>76.6145150717293</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>26.25077936312617</v>
+        <v>26.25077936312537</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>53.90441726625638</v>
+        <v>53.90441726625703</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>56.51031272398312</v>
+        <v>56.51031272398394</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>5.303024006669851</v>
+        <v>5.30302400666838</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>48.81172594106136</v>
+        <v>48.81172594106133</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>49.66791087488716</v>
+        <v>49.66791087488721</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>18.67890531879505</v>
+        <v>18.67890531879478</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>68.83618043446103</v>
+        <v>68.83618043445975</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>71.42253328686292</v>
+        <v>71.42253328686296</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>81.50060473311291</v>
+        <v>81.50060473311339</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>94.13693420276357</v>
+        <v>94.13693420276462</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>97.48235130822869</v>
+        <v>97.48235130822917</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>36.67221917892387</v>
+        <v>36.67221917892324</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>89.43079395050003</v>
+        <v>89.43079395050069</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>91.13316059363638</v>
+        <v>91.13316059363549</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>66.93103307848267</v>
+        <v>66.93103307848344</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>63.94151601842711</v>
+        <v>63.94151601842617</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>74.86701617370821</v>
+        <v>74.86701617370818</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>78.70214648836412</v>
+        <v>78.70214648836274</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.46138539590311</v>
+        <v>25.46138539590378</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>71.11987673089756</v>
+        <v>71.11987673089808</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>76.29745726988173</v>
+        <v>76.29745726988192</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>18.61675874748257</v>
+        <v>18.61675874748182</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>49.65950887286304</v>
+        <v>49.6595088728647</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>53.96903300855362</v>
+        <v>53.96903300855421</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-0.1841580784078047</v>
+        <v>-0.1841580784069876</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>47.37832690150946</v>
+        <v>47.37832690151004</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>50.49138738326481</v>
+        <v>50.49138738326489</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>14.82515721662027</v>
+        <v>14.82515721661954</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>68.41810910492045</v>
+        <v>68.41810910492032</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>72.93276506768608</v>
+        <v>72.93276506768517</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>79.91758823710769</v>
+        <v>79.9175882371074</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>93.60435521560987</v>
+        <v>93.60435521561024</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>100.3497551702308</v>
+        <v>100.349755170232</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>30.35412570544707</v>
+        <v>30.3541257054462</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>88.96564757452657</v>
+        <v>88.96564757452691</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>93.56746533304079</v>
+        <v>93.56746533304073</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>62.1251469811813</v>
+        <v>62.12514698118009</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>46.26962871597083</v>
+        <v>46.26962871597031</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>56.84852368043343</v>
+        <v>56.84852368043644</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>65.69774606911204</v>
+        <v>65.69774606911329</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.85626701664087</v>
+        <v>19.85626701664248</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>55.32302169723658</v>
+        <v>55.32302169723652</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>67.88750748509985</v>
+        <v>67.88750748509909</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.29705816337324</v>
+        <v>21.29705816337383</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>46.58741952139711</v>
+        <v>46.58741952139791</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>56.80188685262776</v>
+        <v>56.80188685262801</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>5.464806311787648</v>
+        <v>5.464806311788024</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>44.74292504110335</v>
+        <v>44.74292504110302</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>53.71363890579743</v>
+        <v>53.71363890579754</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>16.21748324886588</v>
+        <v>16.21748324886488</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>62.48960597131739</v>
+        <v>62.48960597131784</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>72.72019116749722</v>
+        <v>72.72019116749728</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>64.99775144582046</v>
+        <v>64.99775144582006</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>78.92427524337046</v>
+        <v>78.92427524337126</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>91.09840525636716</v>
+        <v>91.0984052563683</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.84947282693619</v>
+        <v>23.84947282693544</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>71.38217869942844</v>
+        <v>71.38217869942824</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>85.19203427520097</v>
+        <v>85.1920342751998</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>9.296848848038408</v>
+        <v>9.296848848038199</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.20778801589704</v>
+        <v>13.20778801589713</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>17.52885238662278</v>
+        <v>17.52885238662285</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1.543138856503326</v>
+        <v>-1.54313885650474</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>9.197279826798336</v>
+        <v>9.19727982679856</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.54275316792963</v>
+        <v>12.5427531679289</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>3.896938933859136</v>
+        <v>3.896938933860749</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.33799474345187</v>
+        <v>22.33799474345274</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.77014481542939</v>
+        <v>25.77014481542936</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.0791929566618</v>
+        <v>19.07919295666147</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.31369899086252</v>
+        <v>22.31369899086354</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>23.3407911958007</v>
+        <v>23.34079119579952</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.214130804826539</v>
+        <v>5.214130804826727</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.77427627244132</v>
+        <v>12.77427627244391</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>17.82034580973406</v>
+        <v>17.82034580973535</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>8.704204423972083</v>
+        <v>8.704204423971799</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>16.5159724666164</v>
+        <v>16.51597246661539</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.87449511324214</v>
+        <v>22.87449511324177</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-4.861568401028531</v>
+        <v>-4.86156840102786</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>8.619746021841848</v>
+        <v>8.619746021840434</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>14.90645751154704</v>
+        <v>14.90645751154652</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-3.317927293196128</v>
+        <v>-3.317927293194138</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>18.7571711695434</v>
+        <v>18.75717116954443</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>11.85158209504278</v>
+        <v>11.85158209504392</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.49141995774588</v>
+        <v>23.49141995774656</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.75862658509469</v>
+        <v>24.7586265850941</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>1.726653409197372</v>
+        <v>1.726653409195706</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.69659236542881</v>
+        <v>22.69659236542756</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.78584137751033</v>
+        <v>23.78584137751041</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>8.700001644755957</v>
+        <v>8.700001644755677</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>36.57083727783096</v>
+        <v>36.57083727783098</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>37.54644316810543</v>
+        <v>37.54644316810622</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>38.04981314700005</v>
+        <v>38.04981314699938</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>44.82257128582832</v>
+        <v>44.82257128582926</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>44.4679892657216</v>
+        <v>44.4679892657211</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>11.69259141093188</v>
+        <v>11.6925914109315</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.38867487104359</v>
+        <v>33.3886748710442</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>33.83160469505761</v>
+        <v>33.83160469505841</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>14.226157955473</v>
+        <v>14.2261579554722</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.12297158856143</v>
+        <v>31.12297158856276</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.68909990997702</v>
+        <v>35.68909990997707</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>2.29220453787207</v>
+        <v>2.292204537872198</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.9707363010661</v>
+        <v>27.97073630106872</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.43714621280854</v>
+        <v>33.43714621280921</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>7.927018241659834</v>
+        <v>7.927018241661216</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>41.14366700790058</v>
+        <v>41.14366700790248</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>4.677515236674221</v>
+        <v>4.677515236673962</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>17.88845072980419</v>
+        <v>17.8884507298034</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.75992396035367</v>
+        <v>20.75992396035377</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-1.534232048594404</v>
+        <v>-1.53423204859364</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.24351888713812</v>
+        <v>21.24351888713775</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>24.45282066804378</v>
+        <v>24.45282066804306</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>6.089097929733317</v>
+        <v>6.089097929733402</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.45801719201889</v>
+        <v>35.45801719201968</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.26723115896654</v>
+        <v>38.26723115896645</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>36.52565252210672</v>
+        <v>36.52565252210803</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>42.559891955243</v>
+        <v>42.55989195524495</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>45.19812345721934</v>
+        <v>45.19812345722081</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>3.562406439152248</v>
+        <v>3.562406439152213</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.08284518927333</v>
+        <v>28.08284518927481</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.1495290835996</v>
+        <v>31.14952908360033</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>6.267683067603627</v>
+        <v>6.267683067602622</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.92471219115018</v>
+        <v>24.92471219114942</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.78399616040178</v>
+        <v>31.78399616040156</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-3.46914814470481</v>
+        <v>-3.469148144705677</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>24.3217542771215</v>
+        <v>24.32175427712119</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>32.72753803893138</v>
+        <v>32.72753803893028</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>3.304724291139198</v>
+        <v>3.304724291141042</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>38.25586974113554</v>
+        <v>38.25586974113671</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>4.303309549877678</v>
+        <v>4.303309549877394</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>13.1968663339356</v>
+        <v>13.19686633393765</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.49186682481702</v>
+        <v>19.49186682481744</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-0.1342428335045192</v>
+        <v>-0.1342428335053256</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.88342011432792</v>
+        <v>16.88342011432706</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.88398899320346</v>
+        <v>22.88398899320299</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>6.033092691661146</v>
+        <v>6.033092691662461</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.18737539247962</v>
+        <v>30.18737539247959</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>35.9088688367375</v>
+        <v>35.90886883673721</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.09783640493877</v>
+        <v>28.09783640493823</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.22337497393657</v>
+        <v>33.22337497393647</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.81674439566902</v>
+        <v>37.81674439566888</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>5.461169716199887</v>
+        <v>5.461169716199851</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>21.60709042285628</v>
+        <v>21.60709042285605</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.83521033308207</v>
+        <v>29.8352103330826</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>4.936150916915771</v>
+        <v>4.93615091691542</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>18.5959929024437</v>
+        <v>18.59599290244367</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.71797941141979</v>
+        <v>27.71797941141982</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-3.522858492955358</v>
+        <v>-3.522858492956267</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>17.3232538956142</v>
+        <v>17.32325389561483</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.21821600860178</v>
+        <v>27.21821600860065</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-0.4952351679687297</v>
+        <v>-0.4952351679685272</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.25428403118472</v>
+        <v>28.25428403118286</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.45320482910499</v>
+        <v>25.45320482910672</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>15.55804909008398</v>
+        <v>15.55804909008494</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>23.41489298203105</v>
+        <v>23.41489298203077</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>26.88965801523182</v>
+        <v>26.88965801523074</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-0.7592685396621519</v>
+        <v>-0.759268539663843</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>17.24663985208673</v>
+        <v>17.24663985208576</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>23.24803675632065</v>
+        <v>23.24803675631978</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>9.9728919560105</v>
+        <v>9.97289195600991</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>20.18853217098991</v>
+        <v>20.18853217099031</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.18214108485156</v>
+        <v>30.18214108485066</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-7.129152904198598</v>
+        <v>-7.129152904198534</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>9.567664255608797</v>
+        <v>9.567664255606374</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>19.35695576147294</v>
+        <v>19.35695576147292</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-0.4263546362579262</v>
+        <v>-0.4263546362579973</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.8154644729543</v>
+        <v>24.81546447295477</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.19627390185221</v>
+        <v>35.19627390185272</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>30.86791953343357</v>
+        <v>30.86791953343223</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>36.42287034918355</v>
+        <v>36.42287034918272</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>45.55334767938938</v>
+        <v>45.55334767938929</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>0.0400092099896554</v>
+        <v>0.04000920998894486</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>23.70047774583707</v>
+        <v>23.70047774583655</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.96606793331065</v>
+        <v>34.96606793330997</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>46.6977874668403</v>
+        <v>46.69778746684101</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>40.1593298451762</v>
+        <v>40.15932984517596</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>51.75841540610044</v>
+        <v>51.75841540610152</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>54.86731517858115</v>
+        <v>54.86731517858303</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>11.14047847817862</v>
+        <v>11.14047847817843</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>45.37779258352021</v>
+        <v>45.37779258352028</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>48.70836295040198</v>
+        <v>48.70836295040233</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>20.94994718817479</v>
+        <v>20.94994718817423</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>41.39138466095592</v>
+        <v>41.39138466095774</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.84349707862845</v>
+        <v>47.84349707862886</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>6.336100985656678</v>
+        <v>6.336100985656167</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>37.01039635413355</v>
+        <v>37.01039635413368</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>43.59304539444957</v>
+        <v>43.59304539445044</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>17.02258097016345</v>
+        <v>17.02258097016394</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>54.89590154056628</v>
+        <v>54.89590154056557</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>61.97972425249564</v>
+        <v>61.97972425249577</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>65.05639574348866</v>
+        <v>65.05639574348882</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>74.36279640292894</v>
+        <v>74.36279640293077</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>81.85098187847206</v>
+        <v>81.85098187847282</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>23.82511079258354</v>
+        <v>23.82511079258391</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>65.59216194959437</v>
+        <v>65.59216194959502</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>71.26546213526277</v>
+        <v>71.26546213526234</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.3732132371519</v>
+        <v>46.37321323715376</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.98539535131883</v>
+        <v>35.98539535131808</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>46.61819420409255</v>
+        <v>46.61819420409317</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>53.74632668697102</v>
+        <v>53.74632668697222</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>2.188146217400757</v>
+        <v>2.188146217399947</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>39.54406593773439</v>
+        <v>39.54406593773544</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>46.60269094568088</v>
+        <v>46.60269094567885</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>13.82059019181516</v>
+        <v>13.82059019181536</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>37.14807292802823</v>
+        <v>37.14807292802863</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>45.29196050232126</v>
+        <v>45.29196050232137</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>1.058963479793036</v>
+        <v>1.058963479793846</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.24175185268697</v>
+        <v>35.24175185268721</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>44.02700341953074</v>
+        <v>44.02700341952895</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>13.08492992834297</v>
+        <v>13.08492992834361</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>53.91233171651084</v>
+        <v>53.91233171651101</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>62.89032452279292</v>
+        <v>62.89032452279218</v>
       </c>
     </row>
     <row r="694">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>72.20406121908277</v>
+        <v>72.20406121908087</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>83.15292449973229</v>
+        <v>83.15292449973091</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>17.05121921419876</v>
+        <v>17.05121921419943</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>63.78393406843574</v>
+        <v>63.78393406843607</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>72.26773865815247</v>
+        <v>72.2677386581519</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>38.10849364783886</v>
+        <v>38.10849364783883</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>24.10608349071666</v>
+        <v>24.10608349071377</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.9669991193248</v>
+        <v>33.96699911932465</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>42.16466680163285</v>
+        <v>42.16466680163244</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>1.133014762333652</v>
+        <v>1.133014762334575</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.26053223341689</v>
+        <v>29.2605322334165</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>39.62991196628293</v>
+        <v>39.62991196628376</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>13.73298793730307</v>
+        <v>13.73298793730315</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.45475105205265</v>
+        <v>31.45475105205249</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>43.35464419785846</v>
+        <v>43.3546441978593</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.56322442178444</v>
+        <v>2.563224421783794</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.69674642034062</v>
+        <v>28.69674642034172</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.00612790300457</v>
+        <v>41.00612790300431</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>11.36546582193372</v>
+        <v>11.36546582193427</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.10911868208647</v>
+        <v>45.10911868208567</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>57.67080526756018</v>
+        <v>57.67080526756114</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>50.13411801967835</v>
+        <v>50.13411801967749</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>59.65119710257373</v>
+        <v>59.65119710257245</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>72.79637638417623</v>
+        <v>72.79637638417627</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>12.58705058852234</v>
+        <v>12.58705058852183</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>49.15705322817472</v>
+        <v>49.15705322817443</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>63.48319624458233</v>
+        <v>63.48319624458244</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>14.12029454096122</v>
+        <v>14.12029454096186</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.87583473217424</v>
+        <v>21.87583473217482</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.38418672067777</v>
+        <v>29.38418672067769</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.539213365933289</v>
+        <v>8.539213365934149</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.67424121223199</v>
+        <v>28.67424121223085</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>34.10383164027071</v>
+        <v>34.10383164027029</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>10.73136603573646</v>
+        <v>10.73136603573647</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>37.32203720868957</v>
+        <v>37.32203720868993</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>42.94839349017931</v>
+        <v>42.94839349017943</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>27.3592807467545</v>
+        <v>27.35928074675438</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.24975031204069</v>
+        <v>29.24975031203881</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.40832749826038</v>
+        <v>35.40832749825981</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>18.27930372415414</v>
+        <v>18.27930372415166</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.231217783608</v>
+        <v>26.23121778360784</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>39.12928343010499</v>
+        <v>39.12928343010569</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>17.74412472762078</v>
+        <v>17.74412472762153</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.90420384235768</v>
+        <v>25.9042038423571</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>32.19611680581156</v>
+        <v>32.1961168058113</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>6.44774240279725</v>
+        <v>6.447742402798042</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.47536751473923</v>
+        <v>24.47536751473951</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.37634287187749</v>
+        <v>29.37634287187868</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>3.397405455292908</v>
+        <v>3.397405455292041</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.59849468349001</v>
+        <v>29.59849468348994</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>20.94800928394922</v>
+        <v>20.94800928394913</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>37.01457802113724</v>
+        <v>37.01457802113694</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>39.31624976203459</v>
+        <v>39.31624976203496</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>13.94710214557742</v>
+        <v>13.9471021455769</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>45.02533131730455</v>
+        <v>45.02533131730399</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>45.7616389630761</v>
+        <v>45.76163896307506</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>18.74777837942023</v>
+        <v>18.74777837942123</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>55.39164234539712</v>
+        <v>55.39164234539744</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>56.42811022481889</v>
+        <v>56.42811022481791</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>57.84010328182191</v>
+        <v>57.84010328182313</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>63.47976036838686</v>
+        <v>63.4797603683883</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>64.51769327172006</v>
+        <v>64.51769327172182</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>35.76925903798035</v>
+        <v>35.76925903798022</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>59.32136678355891</v>
+        <v>59.32136678355823</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>63.93465061595298</v>
+        <v>63.9346506159538</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.78521741198107</v>
+        <v>25.78521741198182</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>43.36833735945729</v>
+        <v>43.3683373594574</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>45.2823641087034</v>
+        <v>45.28236410870281</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>14.889171699515</v>
+        <v>14.88917169951613</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>45.57665067044788</v>
+        <v>45.57665067044837</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>46.75937859917238</v>
+        <v>46.75937859917359</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>17.9732647715084</v>
+        <v>17.97326477150937</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>55.7405326733231</v>
+        <v>55.74053267332428</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>12.62434302746824</v>
+        <v>12.62434302746837</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.7848072018276</v>
+        <v>30.7848072018275</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.7434654077844</v>
+        <v>34.74346540778441</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>9.247925470419499</v>
+        <v>9.247925470418281</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>42.69538287914413</v>
+        <v>42.69538287914371</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>45.64402812188632</v>
+        <v>45.64402812188591</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>15.18120106034238</v>
+        <v>15.1812010603423</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>53.82510091645984</v>
+        <v>53.82510091645955</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>56.78271717917514</v>
+        <v>56.78271717917452</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>56.31805699381398</v>
+        <v>56.31805699381312</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>62.07723497973754</v>
+        <v>62.07723497973728</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>66.04503109630235</v>
+        <v>66.0450310963011</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.74633977015336</v>
+        <v>26.74633977015218</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>54.12902646292742</v>
+        <v>54.12902646292736</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>61.46100864075588</v>
+        <v>61.46100864075631</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>17.27864315802082</v>
+        <v>17.27864315802089</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>37.09514566539455</v>
+        <v>37.09514566539396</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.36808468970008</v>
+        <v>41.36808468970001</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>8.209557381733603</v>
+        <v>8.20955738173264</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>41.51849931326954</v>
+        <v>41.51849931327052</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>45.75144895007009</v>
+        <v>45.75144895007084</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>13.02012030262063</v>
+        <v>13.02012030262199</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>52.97871848951036</v>
+        <v>52.97871848950998</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>11.43474090602435</v>
+        <v>11.43474090602529</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.13278965706465</v>
+        <v>25.13278965706554</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>34.45452643491871</v>
+        <v>34.45452643491875</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>13.10146937707524</v>
+        <v>13.10146937707525</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>40.73996804162704</v>
+        <v>40.73996804162665</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>48.62898606340866</v>
+        <v>48.62898606340859</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>16.43814113408709</v>
+        <v>16.43814113408755</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>49.82740357663758</v>
+        <v>49.82740357663874</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>57.58793604604484</v>
+        <v>57.58793604604436</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>41.89576707265044</v>
+        <v>41.89576707264965</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>46.69026063553711</v>
+        <v>46.69026063553635</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>56.18627282144848</v>
+        <v>56.18627282144823</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>22.95544367220855</v>
+        <v>22.95544367220773</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>41.0341390167544</v>
+        <v>41.03413901675347</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>57.00915568733566</v>
+        <v>57.0091556873343</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>17.30522539481553</v>
+        <v>17.30522539481623</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>32.10207089209079</v>
+        <v>32.10207089209194</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>40.89855342696671</v>
+        <v>40.89855342696775</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>12.05484190039471</v>
+        <v>12.05484190039492</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>38.46167163054146</v>
+        <v>38.46167163054204</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>46.68124924117833</v>
+        <v>46.6812492411776</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>11.07997825807661</v>
+        <v>11.07997825807723</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>44.86474822010741</v>
+        <v>44.86474822010641</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.40710944588261</v>
+        <v>35.40710944588248</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.0339655251017</v>
+        <v>23.03396552510129</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.97010170192867</v>
+        <v>26.97010170193008</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.48926147956485</v>
+        <v>31.48926147956605</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.22353514277068</v>
+        <v>10.2235351427687</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.17898891270809</v>
+        <v>25.1789889127088</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>34.02387238235825</v>
+        <v>34.02387238235714</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.53821448794318</v>
+        <v>16.53821448794348</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.44086629935249</v>
+        <v>27.44086629935276</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>35.40573776752751</v>
+        <v>35.40573776752889</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>4.309421060928294</v>
+        <v>4.309421060928109</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.56434953978363</v>
+        <v>25.56434953978347</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>31.51076260235875</v>
+        <v>31.51076260235851</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.362317684981463</v>
+        <v>5.36231768498164</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>34.6383198105198</v>
+        <v>34.63831981051934</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>42.31033385868535</v>
+        <v>42.31033385868422</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>36.29958959961178</v>
+        <v>36.29958959961138</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>41.47775909900216</v>
+        <v>41.47775909900281</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>50.10649603811828</v>
+        <v>50.10649603811919</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>8.985671980518852</v>
+        <v>8.985671980518831</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>32.40265548316226</v>
+        <v>32.4026554831634</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>43.15958149865353</v>
+        <v>43.15958149865337</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>57.84982539055738</v>
+        <v>57.84982539055864</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>59.02742556560266</v>
+        <v>59.02742556560206</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>66.58377035821464</v>
+        <v>66.58377035821563</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>66.54087621814801</v>
+        <v>66.54087621814975</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.3700382663025</v>
+        <v>33.37003826630136</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>65.74686105643251</v>
+        <v>65.7468610564311</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>67.87664635164349</v>
+        <v>67.87664635164273</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.05499386001479</v>
+        <v>28.05499386001515</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>49.33411545799225</v>
+        <v>49.33411545799321</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>51.66622997195356</v>
+        <v>51.66622997195336</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>18.95820173378316</v>
+        <v>18.95820173378306</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>54.42785531004528</v>
+        <v>54.42785531004476</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>54.8757759689146</v>
+        <v>54.87577596891422</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.19195713813862</v>
+        <v>25.19195713813929</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>67.35199894209153</v>
+        <v>67.35199894209143</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>69.67672622259005</v>
+        <v>69.67672622258878</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>79.57442548210079</v>
+        <v>79.57442548209957</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>88.14486775159017</v>
+        <v>88.14486775158983</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>91.73735888177393</v>
+        <v>91.73735888177529</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.96274044979869</v>
+        <v>41.9627404497987</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>84.36246643958674</v>
+        <v>84.36246643958651</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>86.45121256382174</v>
+        <v>86.45121256382318</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>57.75073670611187</v>
+        <v>57.75073670611256</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>55.45427267741393</v>
+        <v>55.45427267741378</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>62.82155672464464</v>
+        <v>62.82155672464461</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>66.7339556370739</v>
+        <v>66.73395563707574</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>24.44883283315685</v>
+        <v>24.44883283315673</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>60.82418900885725</v>
+        <v>60.82418900885664</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>66.83378810735233</v>
+        <v>66.83378810735135</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>20.72510769718577</v>
+        <v>20.72510769718529</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>45.15141202623388</v>
+        <v>45.15141202623419</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>49.27315925544142</v>
+        <v>49.27315925544194</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>13.14198976003655</v>
+        <v>13.14198976003667</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>52.37336200546441</v>
+        <v>52.37336200546478</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>55.18259499851381</v>
+        <v>55.18259499851428</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>21.07655862087708</v>
+        <v>21.07655862087756</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>66.42549343429343</v>
+        <v>66.42549343429306</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>70.7737850113316</v>
+        <v>70.77378501133049</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>77.53338297998846</v>
+        <v>77.53338297998781</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>87.05838336180736</v>
+        <v>87.05838336180781</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>94.08035084201634</v>
+        <v>94.08035084201532</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>35.46685762555034</v>
+        <v>35.46685762554924</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>83.30274594868069</v>
+        <v>83.30274594868082</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>88.45298188356097</v>
+        <v>88.45298188356185</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>53.58625039954268</v>
+        <v>53.58625039954372</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>38.22689540972585</v>
+        <v>38.22689540972547</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>44.97126623021928</v>
+        <v>44.97126623021945</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>53.86243142970424</v>
+        <v>53.86243142970343</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>17.99554793508891</v>
+        <v>17.9955479350887</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>44.34855750371594</v>
+        <v>44.34855750371433</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>57.36014016288857</v>
+        <v>57.36014016288645</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.28276722670377</v>
+        <v>23.28276722670241</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>42.15726770247132</v>
+        <v>42.15726770247147</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>51.76390764888561</v>
+        <v>51.76390764888573</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>18.08619787461833</v>
+        <v>18.08619787461842</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>49.39130686106432</v>
+        <v>49.39130686106298</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>57.57046672392445</v>
+        <v>57.57046672392568</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>21.47398666798912</v>
+        <v>21.47398666798829</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>59.80973577519436</v>
+        <v>59.8097357751933</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>69.41251034335544</v>
+        <v>69.4125103433549</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>61.59203233516189</v>
+        <v>61.59203233516087</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>71.10662997969479</v>
+        <v>71.10662997969501</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>83.3599508632677</v>
+        <v>83.35995086326747</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.06130537404742</v>
+        <v>27.0613053740476</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>64.1375537695221</v>
+        <v>64.13755376952132</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>77.77762229626967</v>
+        <v>77.77762229626998</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.571</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.041</v>
+        <v>15.75</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.433</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.567</v>
+        <v>20.284</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.864</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.047</v>
+        <v>8.66</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.16697794972842</v>
+        <v>13.04211544843945</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.53630131565231</v>
+        <v>17.32362983901049</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.30645345754828</v>
+        <v>26.86138647874473</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.1883841466991178</v>
+        <v>0.002475697034284963</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.72555763720411</v>
+        <v>17.7416347791555</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.302988692975</v>
+        <v>23.2969905214182</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.785722047118551</v>
+        <v>5.889940160881487</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.4523787598587</v>
+        <v>29.83668228441639</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>38.24096384920858</v>
+        <v>37.14601851068755</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.81199545048267</v>
+        <v>17.58293361154481</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.94168286768456</v>
+        <v>23.50102229871507</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.8794503433728</v>
+        <v>26.53490214237994</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.44385700615144</v>
+        <v>15.52344029480993</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>21.66836585048595</v>
+        <v>19.60488317362063</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.47500813398335</v>
+        <v>32.77521219156594</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.62084425941317</v>
+        <v>16.62610122177162</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.7108748809023</v>
+        <v>24.04978140488089</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.36987870931662</v>
+        <v>30.15239305932857</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-4.019586311631244</v>
+        <v>0.7249170314549147</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.13502868617923</v>
+        <v>11.17868880858102</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.32983795637296</v>
+        <v>18.58004513015127</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-3.838625065329378</v>
+        <v>-1.347321339502479</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.76501477261491</v>
+        <v>19.11190018618911</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>18.556523311186</v>
+        <v>14.42825144584323</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>35.67695736396291</v>
+        <v>27.95423460010176</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>38.18858826999745</v>
+        <v>33.20819217127035</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6.130956014855954</v>
+        <v>2.146464772123522</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>38.5768530628743</v>
+        <v>33.17818428125658</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>39.42970623162583</v>
+        <v>35.35835173620445</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>13.81825874004486</v>
+        <v>9.530196314766737</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>52.06895099690526</v>
+        <v>47.12871594120315</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>53.22281348699832</v>
+        <v>50.77767862160235</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>55.85874585472251</v>
+        <v>47.48481753633975</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>62.02498560712579</v>
+        <v>54.91412803575863</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>62.8708490630479</v>
+        <v>57.96004925039604</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>30.93478588636966</v>
+        <v>28.44853049562875</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>56.56000909429788</v>
+        <v>48.30931391277145</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>60.98819838020153</v>
+        <v>56.64444443257575</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>22.44192489982682</v>
+        <v>20.73831772249589</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.46860550200551</v>
+        <v>37.37875038766089</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>43.76051498630991</v>
+        <v>41.51348036713694</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5.453954463266395</v>
+        <v>6.149973974972884</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>37.95279035475306</v>
+        <v>32.900130939058</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>39.47176633766395</v>
+        <v>38.95810035820589</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>11.98287187294385</v>
+        <v>10.2289327123318</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>51.76659463185669</v>
+        <v>47.21610719897539</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>9.8354160969982</v>
+        <v>8.389129825745083</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.10371271787761</v>
+        <v>23.33025696197863</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>33.35903985952288</v>
+        <v>29.08941112185616</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.382094865335862</v>
+        <v>0.1720593289426127</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.26495461831337</v>
+        <v>32.1557920562359</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>39.44098822587468</v>
+        <v>35.80176032381112</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>10.16929647704417</v>
+        <v>7.392477766309579</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>50.47422927888944</v>
+        <v>46.03540538151071</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>53.64580943155111</v>
+        <v>50.79728798223029</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>54.32707085751834</v>
+        <v>49.958675431141</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>60.58755796330237</v>
+        <v>56.63937243019415</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>64.51718529039893</v>
+        <v>61.2326328124869</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>21.72340712608108</v>
+        <v>23.63176778609188</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>51.27438578872368</v>
+        <v>46.10953469593933</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>58.5666703169408</v>
+        <v>55.38487293851625</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.4862797530555</v>
+        <v>14.55682169115707</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.81495853567613</v>
+        <v>32.48711365320843</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>39.58751980398468</v>
+        <v>38.45848371943612</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-1.396526415939658</v>
+        <v>2.143564104698154</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.81018190518734</v>
+        <v>30.46342323015713</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.53272432719315</v>
+        <v>39.33442184598746</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6.838876213288032</v>
+        <v>7.050432774272604</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>48.88384955296722</v>
+        <v>45.57750867472197</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>8.155297679880753</v>
+        <v>4.120391730140355</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>22.6529021696566</v>
+        <v>15.35610226438436</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32.36572591928783</v>
+        <v>25.59403174333117</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4.35859396224042</v>
+        <v>0.7538592878215695</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.01313034128566</v>
+        <v>27.94283300647361</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>41.21140004488989</v>
+        <v>36.39699779495587</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10.53455368155539</v>
+        <v>5.333814582463887</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.21471539652934</v>
+        <v>38.70759193020982</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>53.27861468889159</v>
+        <v>48.25463683070872</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.73118060298047</v>
+        <v>36.27049221563188</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.8354144190292</v>
+        <v>42.69561358068918</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53.30958750259485</v>
+        <v>48.84095345047641</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>17.19283221987653</v>
+        <v>15.41932365858036</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.87154217570713</v>
+        <v>32.54193574303746</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>52.95370496928541</v>
+        <v>48.1720611411428</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>12.82973341739273</v>
+        <v>11.17265476895629</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.78788945482416</v>
+        <v>27.46356105437859</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>38.12390463330742</v>
+        <v>37.09312627744057</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1.450316476261722</v>
+        <v>3.574688818935837</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.27655663667631</v>
+        <v>27.19054641105627</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.00414157218137</v>
+        <v>40.19430862468983</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3.804933430203484</v>
+        <v>3.620338358908739</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.25566726800751</v>
+        <v>37.08938227384733</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.88232743492706</v>
+        <v>28.42760955724533</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>18.39808384172181</v>
+        <v>18.84810033951438</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22.82843153201573</v>
+        <v>27.7072417730579</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.34630753142974</v>
+        <v>32.29255943539753</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.802451094014785</v>
+        <v>4.629636648652433</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20.62187982317593</v>
+        <v>19.15944330614187</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.46051253751022</v>
+        <v>27.09525846503965</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.08554402838335</v>
+        <v>15.43148580245306</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.95544132966371</v>
+        <v>24.46007127007583</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.73713227733128</v>
+        <v>31.94812480141714</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-5.092629990964319</v>
+        <v>-2.100794301223033</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>17.38091954074572</v>
+        <v>11.96465283249369</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>24.13442384149248</v>
+        <v>19.59302455279009</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1.159799358949613</v>
+        <v>-1.143663984124387</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.59666561365913</v>
+        <v>24.52928619976084</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.03961830385755</v>
+        <v>36.3304613839441</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>32.59416810131442</v>
+        <v>27.00410370926634</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>38.25756314076907</v>
+        <v>40.03660489146226</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.36594954556139</v>
+        <v>46.49965806855905</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3.390778575095652</v>
+        <v>4.30379899207955</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.81789556616071</v>
+        <v>24.16818826123542</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>40.34411080084662</v>
+        <v>36.60832758075475</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.2049487114031</v>
+        <v>55.4461593707001</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>56.17056290874193</v>
+        <v>53.51579505383148</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>64.55303661856298</v>
+        <v>60.68748723829168</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>64.57830835237704</v>
+        <v>63.32637607266611</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.15091411413661</v>
+        <v>24.94837130533048</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>63.30789974341758</v>
+        <v>58.29149685625222</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>65.42350370466541</v>
+        <v>63.2827872849662</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.21782519345026</v>
+        <v>24.03575235192615</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.04985759441281</v>
+        <v>42.77333165200675</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>51.17010452885778</v>
+        <v>46.69795961026409</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>10.286227526537</v>
+        <v>9.622199200793116</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>47.75896322179621</v>
+        <v>43.61276700595144</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>49.0027693927594</v>
+        <v>46.18491737090632</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>19.6043157043471</v>
+        <v>16.21033974309554</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>63.94389041156134</v>
+        <v>61.25501260851618</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.01096330948198</v>
+        <v>67.67527800534472</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>77.4551294632881</v>
+        <v>75.49049557320048</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>86.87439589667704</v>
+        <v>82.80784682545438</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>91.02078821618159</v>
+        <v>86.72983745007096</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>37.45493948993937</v>
+        <v>35.67204038563146</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>82.91010812652553</v>
+        <v>75.67194311989893</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>85.70092588304729</v>
+        <v>81.72532928200707</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>54.11919713594736</v>
+        <v>56.32551847556569</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>52.46125170535402</v>
+        <v>50.73941694184055</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>60.63402912152613</v>
+        <v>56.91238612225769</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>64.81705804451819</v>
+        <v>61.85854140802959</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>18.96249273761847</v>
+        <v>19.87864404029272</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>58.23732714286376</v>
+        <v>56.57989824452383</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>64.43479191845334</v>
+        <v>63.58314587455224</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>17.42449081605401</v>
+        <v>19.24845687440903</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>43.52780459930908</v>
+        <v>40.21301636049085</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>48.53514924353378</v>
+        <v>45.38680969487818</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4.255183656386357</v>
+        <v>6.400237710975663</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>45.64325373097671</v>
+        <v>43.49432189518586</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>49.37279428792189</v>
+        <v>47.79858203917696</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>15.27507542863092</v>
+        <v>13.89061304058009</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>62.93275410921041</v>
+        <v>61.83397386775712</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>68.13137794708203</v>
+        <v>69.61078506813294</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>75.27886754307912</v>
+        <v>77.75043281230489</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>85.7046321486151</v>
+        <v>83.31411235446699</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>93.46487892851306</v>
+        <v>89.19988276154955</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.70661033014915</v>
+        <v>33.04153170142325</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>81.81087474028624</v>
+        <v>77.48091443416168</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>87.82743030093896</v>
+        <v>85.2615483145855</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>48.47423062262318</v>
+        <v>51.71883555533051</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.85623947620515</v>
+        <v>30.85043803979698</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>41.18726191769908</v>
+        <v>38.71129190075033</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>50.33671197995534</v>
+        <v>48.02329607594518</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>11.60432600084592</v>
+        <v>10.32566302835231</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>40.22608366925247</v>
+        <v>43.29823864052636</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>53.4962099052748</v>
+        <v>54.67297585786555</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>19.6737092376687</v>
+        <v>16.66817738003902</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>39.82907957820778</v>
+        <v>37.57252874435828</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>50.39963830295448</v>
+        <v>46.56877671598252</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>8.748299794740689</v>
+        <v>8.13992836845264</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>41.66582084697868</v>
+        <v>40.13973304398814</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.83489826360567</v>
+        <v>50.01542009832123</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>15.13524582937836</v>
+        <v>11.71259177829961</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>55.30436517591669</v>
+        <v>54.90417275099449</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>65.83774261990013</v>
+        <v>68.39774313344012</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>58.42683028378789</v>
+        <v>60.63092772551683</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>68.61983782783607</v>
+        <v>71.0378694625018</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>81.60204477219713</v>
+        <v>81.83499558566531</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>21.77084947333136</v>
+        <v>21.16206433477467</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>61.40291314995262</v>
+        <v>62.98354436736169</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>76.04129481557959</v>
+        <v>77.47073759207929</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.07458696873815</v>
+        <v>13.34960943259613</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.45877461584948</v>
+        <v>19.35862385589255</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.09852142928333</v>
+        <v>28.95097784046843</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>6.53376959224892</v>
+        <v>1.447169019242025</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.5933027127793</v>
+        <v>19.6497360026597</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.07799904582466</v>
+        <v>23.6340719150464</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>14.44773560500652</v>
+        <v>8.505602134260808</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>40.00990902910117</v>
+        <v>33.59162117736615</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>44.48658145938407</v>
+        <v>39.41142435790431</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>32.61145003691114</v>
+        <v>23.1679621524513</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>38.75180825331039</v>
+        <v>28.4460948887573</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>40.14987860519018</v>
+        <v>29.35206397638412</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>13.18846965946892</v>
+        <v>11.13152901609931</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.79532375039577</v>
+        <v>17.95278459982781</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.58511281300234</v>
+        <v>27.25176782948624</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>15.30472324011077</v>
+        <v>13.64122650438365</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.91650268232366</v>
+        <v>25.74657908709037</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>35.47407096357661</v>
+        <v>29.47648987490845</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1.486066357207722</v>
+        <v>-2.782529844337823</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>23.7062189345166</v>
+        <v>13.23171800864918</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.79934159049222</v>
+        <v>17.42887168109539</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>6.806808990614464</v>
+        <v>1.586301465602023</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>37.37710327960594</v>
+        <v>27.69112847281062</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>17.16067721023579</v>
+        <v>14.29984476475131</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>32.98227982191688</v>
+        <v>28.82079688292071</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>34.65348603017506</v>
+        <v>35.4722126945252</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>10.30299276303552</v>
+        <v>4.1947879052472</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>38.36920244224488</v>
+        <v>35.48866670857429</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>39.56495513170153</v>
+        <v>36.50977395763307</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>19.42752319763227</v>
+        <v>12.8452428316933</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>54.23722664255248</v>
+        <v>51.10673748157743</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>55.31170800476731</v>
+        <v>53.79269502913662</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>54.82811059670279</v>
+        <v>48.18317528860165</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>63.83787224510827</v>
+        <v>54.61593474799169</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>62.66579266850356</v>
+        <v>57.36134912298155</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.25965858899627</v>
+        <v>17.91660649733527</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>48.64258230609526</v>
+        <v>39.86190878427243</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>50.24475123131573</v>
+        <v>45.11017661818985</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>22.25634819183792</v>
+        <v>15.9434440356921</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>44.74605747115994</v>
+        <v>35.90924615432864</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>48.49028563286622</v>
+        <v>39.45595975702427</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>9.527430831371351</v>
+        <v>1.801275930817358</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>43.86028467624274</v>
+        <v>33.24314547182435</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>47.96297547990061</v>
+        <v>37.4903434273555</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.56230321102409</v>
+        <v>10.80728252364061</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>60.21469646004571</v>
+        <v>52.14013659749359</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>9.597471814609698</v>
+        <v>8.571808990249576</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.2182255143229</v>
+        <v>24.27640047349914</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>30.38270050192507</v>
+        <v>31.55009201018716</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>7.117486810076734</v>
+        <v>2.324740564121875</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>37.24649616638811</v>
+        <v>34.5972063026576</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>40.43328105664398</v>
+        <v>36.8877514432831</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>16.86598199068388</v>
+        <v>10.56563661351023</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>53.39189571143903</v>
+        <v>49.72339174815856</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>56.18324907537932</v>
+        <v>53.46798920098186</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>53.85499724772122</v>
+        <v>49.59314182811168</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>62.27909456906124</v>
+        <v>55.13267211024018</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>64.00158595749576</v>
+        <v>59.84492802927099</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.96620915471206</v>
+        <v>12.52728447170983</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>43.62734110523638</v>
+        <v>36.95459370857628</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>47.63881483153318</v>
+        <v>43.13716317858906</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>14.27318189514428</v>
+        <v>11.23339975249421</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>38.78941863334406</v>
+        <v>31.87389909174951</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>44.70328936624914</v>
+        <v>37.28268016458139</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4.287789579862821</v>
+        <v>-0.7724474204525364</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>41.03991982640865</v>
+        <v>31.71398846826475</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>47.93829978861959</v>
+        <v>38.34701074729259</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>14.41650884369608</v>
+        <v>8.616718587203049</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>58.06625140833747</v>
+        <v>50.80266815603348</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>8.715022524783553</v>
+        <v>6.106106988849369</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>22.66746436192644</v>
+        <v>18.43583643622274</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.10708364592789</v>
+        <v>29.76101150883243</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>9.508816040121093</v>
+        <v>2.656396976604313</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>34.6087458790019</v>
+        <v>29.89552716753924</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>41.53302361431655</v>
+        <v>36.79609400156012</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.11425502358506</v>
+        <v>8.257079313773037</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>50.07546244372384</v>
+        <v>42.12475234951648</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>56.6468105400492</v>
+        <v>50.59311996887509</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>44.42067383021867</v>
+        <v>40.0257992633888</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>52.84583709905713</v>
+        <v>45.25281387064247</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>57.61205074186176</v>
+        <v>50.37323688278208</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>15.12850616730687</v>
+        <v>9.280847044423396</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>37.31835756227707</v>
+        <v>28.46534948530896</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>47.97344672468515</v>
+        <v>40.50550718887245</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>12.7771261752603</v>
+        <v>8.017645414289582</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>32.94858348918039</v>
+        <v>27.20475638045706</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>42.01908502180929</v>
+        <v>34.45643107674631</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>5.015549178648222</v>
+        <v>-1.297095535787012</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>35.51745399400562</v>
+        <v>26.09861941623519</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>44.9132864084045</v>
+        <v>34.51889748894732</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>11.8123980337124</v>
+        <v>4.22768997539487</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>49.88200658493194</v>
+        <v>41.18072066380925</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>44.00186230729265</v>
+        <v>34.07641192347129</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>32.09473837933672</v>
+        <v>24.12631257917001</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>43.64111531392582</v>
+        <v>35.05992908267517</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>46.11851097582378</v>
+        <v>39.39159457541152</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>11.11516763119361</v>
+        <v>6.132687518308487</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>37.13407374406346</v>
+        <v>24.79494845901699</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>43.76363511905156</v>
+        <v>31.39036518941921</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>17.28437338264933</v>
+        <v>15.57595082950837</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>33.37398266212892</v>
+        <v>28.87628949690159</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>43.43235054136148</v>
+        <v>37.42231496063155</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-2.278875933290692</v>
+        <v>-5.35921690382655</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>23.33622356104711</v>
+        <v>13.50835479639964</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>32.65362350007142</v>
+        <v>20.7099925099154</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>8.119326405256622</v>
+        <v>3.064066886181173</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>42.02069442750633</v>
+        <v>33.91496266718779</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>52.13047453863185</v>
+        <v>44.42344294545694</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>46.57787507393889</v>
+        <v>34.77442111088453</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>56.11268626208698</v>
+        <v>45.95086276122921</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>63.75271404957692</v>
+        <v>53.82592804332162</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.59471245438359</v>
+        <v>5.394707237736899</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>42.51665713082005</v>
+        <v>30.51741257059265</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>53.75047109394134</v>
+        <v>42.55315816364201</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>64.62736122929179</v>
+        <v>58.77862296562145</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>60.03352225881871</v>
+        <v>51.9744232548855</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>74.60628737742604</v>
+        <v>61.45367648161944</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>75.3403667173811</v>
+        <v>65.82885344609963</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>25.76307702421417</v>
+        <v>19.67631132558908</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>67.80008917627767</v>
+        <v>56.97048891316535</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>70.01740756971867</v>
+        <v>61.27747587738313</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>27.57946084321528</v>
+        <v>19.88506748424184</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>53.77824810652474</v>
+        <v>42.42367484996812</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>59.17330624548307</v>
+        <v>48.3088202957809</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>10.03623568793673</v>
+        <v>3.140801513895955</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>49.69722868483643</v>
+        <v>41.99897643009919</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>54.48531531008863</v>
+        <v>44.00316985055636</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>23.78958320844941</v>
+        <v>15.78981892441652</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>70.39294809067442</v>
+        <v>65.41769821242403</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>75.99674775950101</v>
+        <v>70.84531254306052</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>81.52142129926415</v>
+        <v>73.32530358529587</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>94.13151594967803</v>
+        <v>80.31039164742222</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>98.69962111669685</v>
+        <v>87.7736683758321</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>34.02738002552725</v>
+        <v>27.44379887819403</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>85.03866049265343</v>
+        <v>73.84715712292179</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>88.78213307471597</v>
+        <v>79.10625763141572</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>64.91006021409105</v>
+        <v>59.69655398022879</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>56.74889872634593</v>
+        <v>48.89966682307742</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>70.52756708040877</v>
+        <v>57.10924369501808</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>75.16214103645977</v>
+        <v>63.89231022646574</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>17.12068702670204</v>
+        <v>14.35103666099993</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>62.78665002732943</v>
+        <v>54.38540871128723</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>68.5004014376035</v>
+        <v>60.39818093456367</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>20.37600451941708</v>
+        <v>15.22391494478269</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>49.80687349598411</v>
+        <v>39.76881827864162</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>56.68301075236903</v>
+        <v>46.69378960200282</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>5.269726922754131</v>
+        <v>0.6421118099720395</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>48.84331420185243</v>
+        <v>42.61895007433962</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>55.58546172804364</v>
+        <v>45.66330853417846</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>20.29826265415678</v>
+        <v>13.72352767643349</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>70.2044440259119</v>
+        <v>66.00692614545508</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>77.47484488955314</v>
+        <v>72.39502371892905</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>79.67665005780084</v>
+        <v>74.38955048854601</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>93.1000321768291</v>
+        <v>80.13714436708837</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>100.9016077309283</v>
+        <v>89.40292116493431</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.66805446485372</v>
+        <v>23.70679273326481</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>84.27120032053426</v>
+        <v>74.82447220356453</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>90.4658858347039</v>
+        <v>81.31881956503079</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>59.38894834777719</v>
+        <v>52.02394671645924</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>44.04457955722717</v>
+        <v>31.55365829286957</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>58.04949643659296</v>
+        <v>41.08570462049209</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>64.95198405767293</v>
+        <v>50.35693752911039</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.53859144655628</v>
+        <v>7.191393458243741</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>52.9017585266096</v>
+        <v>42.18329262188218</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>63.45129379220673</v>
+        <v>51.46877780546179</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>22.39017764838995</v>
+        <v>13.30730647989949</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>46.80025211731858</v>
+        <v>37.98787871980674</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>58.37246374109815</v>
+        <v>47.91385154365854</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>9.695704549095034</v>
+        <v>1.602125603106618</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>45.79416608812605</v>
+        <v>38.25997380083994</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>57.15073501124262</v>
+        <v>46.18593635454219</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>22.16123376809474</v>
+        <v>11.49938954298809</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>65.50459321887654</v>
+        <v>59.18741716159981</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>77.36113063010077</v>
+        <v>70.53230607319881</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>69.3888223205193</v>
+        <v>62.04232961716184</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>83.43689029542811</v>
+        <v>71.551225733618</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>94.60581161456525</v>
+        <v>83.69885164804634</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>24.90464549856094</v>
+        <v>16.03221236616663</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>72.14824444963479</v>
+        <v>64.02666885391281</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>85.76676558739982</v>
+        <v>77.27504161073252</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10.77290286729643</v>
+        <v>10.80538133926631</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>20.90883643762757</v>
+        <v>17.94745255723668</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.97630951899959</v>
+        <v>28.0244502994577</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2.487516352324285</v>
+        <v>-1.42794974892718</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>20.58402829598861</v>
+        <v>19.66285767317187</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.6907970551418</v>
+        <v>25.7070106181614</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>5.623979786131265</v>
+        <v>6.332008242086815</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>35.66328443562963</v>
+        <v>34.27739092084225</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>40.89582216438507</v>
+        <v>41.86734977386396</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>23.07576962821902</v>
+        <v>20.47535990522374</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.94117362352456</v>
+        <v>26.79540146943536</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>31.19419463300565</v>
+        <v>29.67119016653908</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>7.382793673839156</v>
+        <v>13.2847819942876</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.7001687057392</v>
+        <v>19.34043548290732</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.45554579121006</v>
+        <v>32.282046439396</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>17.89626604914777</v>
+        <v>19.74483409406397</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.38617880489093</v>
+        <v>31.65734553518335</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>37.75790539631626</v>
+        <v>36.16763062014889</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1.142267098148029</v>
+        <v>1.551946185082699</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>23.36073972731731</v>
+        <v>18.1944559995876</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.49137954808468</v>
+        <v>24.35945071229431</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>2.801574477774217</v>
+        <v>4.46000074635765</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>35.60619808256948</v>
+        <v>31.2586838033308</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>19.14756474233813</v>
+        <v>13.91422452674599</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>37.91438697352565</v>
+        <v>30.87682561166146</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>39.60722363929767</v>
+        <v>36.5394413408825</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3.966567091080478</v>
+        <v>1.93673497351568</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>38.45902172029282</v>
+        <v>37.21615783376277</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.74150684051853</v>
+        <v>39.58451406476759</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>14.8177574600625</v>
+        <v>11.74806966071449</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>55.36356756847266</v>
+        <v>54.13275211194959</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>55.84773370324307</v>
+        <v>57.80124880236394</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>54.66283845915926</v>
+        <v>51.63574743343128</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>61.20560389895283</v>
+        <v>59.51257766567888</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>61.44167755023359</v>
+        <v>62.63281070098948</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>24.31471586166792</v>
+        <v>25.59018985974782</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>51.74537756339977</v>
+        <v>48.04412764558197</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>54.98161800443008</v>
+        <v>56.18911038074049</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>27.88754747936006</v>
+        <v>25.47252852804195</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>51.32122950059063</v>
+        <v>46.89155952341151</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>53.11094872249959</v>
+        <v>49.10015365795961</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>9.067421780642469</v>
+        <v>7.813023660578381</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>46.96632312929993</v>
+        <v>41.47670244733893</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>48.18407952955817</v>
+        <v>45.50467978423683</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>19.09795392664506</v>
+        <v>17.08794772500303</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>64.14534245310946</v>
+        <v>60.96562729265315</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>11.27964423738427</v>
+        <v>8.316948407315603</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>32.26244542250475</v>
+        <v>26.77773696197412</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>35.62681061775026</v>
+        <v>32.86815627200905</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>0.4805196805674719</v>
+        <v>0.4030007877312904</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>37.48706718928534</v>
+        <v>36.77711533637324</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>39.99904760015482</v>
+        <v>40.40529830888414</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>12.42732690172156</v>
+        <v>10.02235615952164</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>55.091424098171</v>
+        <v>53.54319561652932</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>57.50912902888167</v>
+        <v>58.16990514346615</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>54.5108114566366</v>
+        <v>54.65052804435644</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>61.14711923213943</v>
+        <v>61.82057438162381</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>64.38751318888302</v>
+        <v>66.46238225413607</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>16.20474105565041</v>
+        <v>21.09941808041418</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>47.67925200815757</v>
+        <v>46.36881062055195</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>53.6431129611353</v>
+        <v>55.32658717861361</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>19.47714450423871</v>
+        <v>19.64734950109944</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>45.28300599796639</v>
+        <v>42.42704087741862</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>49.43062179688047</v>
+        <v>46.25306475949444</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>3.184069433186643</v>
+        <v>4.13029238976241</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>43.87129026438232</v>
+        <v>39.47510714976259</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>48.13848098429226</v>
+        <v>45.86160846614368</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>14.85894139555715</v>
+        <v>14.04194767678881</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>62.2343563561209</v>
+        <v>59.53297829720094</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>9.394247743254994</v>
+        <v>4.673463904494952</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>25.85550145779222</v>
+        <v>19.16646062980033</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>34.78902176147704</v>
+        <v>29.99264292014293</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>4.104523437314189</v>
+        <v>1.807739860525448</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.15549402390601</v>
+        <v>32.95932990526443</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>42.79860289979958</v>
+        <v>41.60381867090359</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>13.48916454262378</v>
+        <v>8.646299755927213</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>50.76342642436556</v>
+        <v>46.53913828450757</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>58.18878077155883</v>
+        <v>56.17032096021325</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>40.24011951883607</v>
+        <v>42.14935600732607</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>46.15971401490648</v>
+        <v>49.0912760136674</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>54.87556805364938</v>
+        <v>55.09564417228887</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>13.80534076937812</v>
+        <v>14.97916845241961</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>35.88032103335046</v>
+        <v>34.53564659243328</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>50.76453187804508</v>
+        <v>49.8108385095283</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>18.43987118922207</v>
+        <v>15.62858575495422</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>39.10088273747868</v>
+        <v>36.75484844606748</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>48.01372376865204</v>
+        <v>44.19871848125715</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>6.106356288477059</v>
+        <v>5.289354293858395</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>39.64966234507092</v>
+        <v>35.60812092640826</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>48.15312081548942</v>
+        <v>46.23329486853033</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>12.23613424481038</v>
+        <v>10.36416004976059</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>53.22383919767145</v>
+        <v>50.61752063986049</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>41.55511260977468</v>
+        <v>39.00249881893026</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.71843505183712</v>
+        <v>30.72570097467443</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>36.24690044398162</v>
+        <v>41.42090073879889</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>40.61010073152484</v>
+        <v>46.08517653945565</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>10.41538450982301</v>
+        <v>13.31499366776082</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>33.59879421079473</v>
+        <v>32.87865013499341</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>41.9855366120363</v>
+        <v>40.05017206550389</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.83914180094978</v>
+        <v>18.48872081486983</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.46546509013998</v>
+        <v>31.25913430683542</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>39.12295097161867</v>
+        <v>37.23216092568082</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-9.523033356788169</v>
+        <v>-4.484395959344202</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>18.84565727836365</v>
+        <v>14.96763211049133</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>25.68218823955504</v>
+        <v>21.05684235602187</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-1.251859692071413</v>
+        <v>1.204719533402884</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.18692310271358</v>
+        <v>32.22276039134228</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>43.58237351990497</v>
+        <v>42.20937253253439</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>37.59075645356809</v>
+        <v>33.46319799681723</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>46.74760398218631</v>
+        <v>47.91702474809685</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>55.33113793748795</v>
+        <v>53.74835594134895</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>4.287005343690304</v>
+        <v>8.745038375572726</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>36.99417556996757</v>
+        <v>33.46519177815637</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>48.11558535800076</v>
+        <v>44.15521365346413</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>66.18318570638571</v>
+        <v>66.93484416543617</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>66.65055156082001</v>
+        <v>66.17395377189678</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>77.80371522977146</v>
+        <v>74.82298170690147</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>77.62104741102776</v>
+        <v>77.81450237608259</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.87890838774842</v>
+        <v>33.51569085225532</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>75.29591942037092</v>
+        <v>72.35260177835936</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>76.6145150717293</v>
+        <v>75.9846417168214</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>26.25077936312537</v>
+        <v>26.10858348673699</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>53.90441726625703</v>
+        <v>48.84115196019104</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>56.51031272398394</v>
+        <v>50.53670803643973</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>5.30302400666838</v>
+        <v>5.785229706824708</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>48.81172594106133</v>
+        <v>45.73946978395905</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>49.66791087488721</v>
+        <v>45.48635119698626</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>18.67890531879478</v>
+        <v>16.37038591995841</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>68.83618043445975</v>
+        <v>67.13668247945768</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>71.42253328686296</v>
+        <v>70.66215756423402</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>81.50060473311339</v>
+        <v>79.51093156764242</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>94.13693420276462</v>
+        <v>87.87556320154624</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>97.48235130822917</v>
+        <v>91.36389492818469</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>36.67221917892324</v>
+        <v>37.24597319799028</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>89.43079395050069</v>
+        <v>82.86327085414904</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>91.13316059363549</v>
+        <v>85.97422799261317</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>66.93103307848344</v>
+        <v>67.64058824431677</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>63.94151601842617</v>
+        <v>63.50694999388054</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>74.86701617370818</v>
+        <v>71.11545670479084</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>78.70214648836274</v>
+        <v>76.27071659562753</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.46138539590378</v>
+        <v>28.3915909465308</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>71.11987673089808</v>
+        <v>70.64543085905075</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>76.29745726988192</v>
+        <v>75.90443710547702</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>18.61675874748182</v>
+        <v>21.13971674678725</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>49.6595088728647</v>
+        <v>46.04755105593966</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>53.96903300855421</v>
+        <v>48.71997849260836</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-0.1841580784069876</v>
+        <v>2.561207375342025</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>47.37832690151004</v>
+        <v>45.58910311485305</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>50.49138738326489</v>
+        <v>46.57605984826629</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>14.82515721661954</v>
+        <v>13.78640684825476</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>68.41810910492032</v>
+        <v>67.37270062917086</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>72.93276506768517</v>
+        <v>71.85246303924485</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>79.9175882371074</v>
+        <v>81.44957945360861</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>93.60435521561024</v>
+        <v>87.98181453592956</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>100.349755170232</v>
+        <v>93.22491702146121</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>30.3541257054462</v>
+        <v>34.33626282543652</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>88.96564757452691</v>
+        <v>84.40946810366296</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>93.56746533304073</v>
+        <v>88.78626014215052</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>62.12514698118009</v>
+        <v>62.66863101776494</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>46.26962871597031</v>
+        <v>43.93470122873597</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>56.84852368043644</v>
+        <v>53.64287047618157</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>65.69774606911329</v>
+        <v>62.7488424934582</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.85626701664248</v>
+        <v>19.61355895292435</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>55.32302169723652</v>
+        <v>57.95673573069868</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>67.88750748509909</v>
+        <v>67.58803767424808</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.29705816337383</v>
+        <v>19.61181070672886</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>46.58741952139791</v>
+        <v>44.32034507242629</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>56.80188685262801</v>
+        <v>51.00250278806734</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>5.464806311788024</v>
+        <v>5.63604779022268</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>44.74292504110302</v>
+        <v>43.21813252190276</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>53.71363890579754</v>
+        <v>50.17186561768463</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>16.21748324886488</v>
+        <v>13.69306422627706</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>62.48960597131784</v>
+        <v>62.31862434505699</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>72.72019116749728</v>
+        <v>72.79567257151193</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>64.99775144582006</v>
+        <v>67.02956399970489</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>78.92427524337126</v>
+        <v>78.76503676251647</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>91.0984052563683</v>
+        <v>88.27089234213072</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.84947282693544</v>
+        <v>25.66981894709269</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>71.38217869942824</v>
+        <v>72.70695225583684</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>85.1920342751998</v>
+        <v>84.0505052018629</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>9.296848848038199</v>
+        <v>12.23802493933327</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.20778801589713</v>
+        <v>14.09582931420593</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>17.52885238662285</v>
+        <v>20.11574111073526</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1.54313885650474</v>
+        <v>0.5842936773047143</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>9.19727982679856</v>
+        <v>8.931704602853848</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.5427531679289</v>
+        <v>11.26859472150499</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>3.896938933860749</v>
+        <v>4.758374836820462</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.33799474345274</v>
+        <v>19.46708466694967</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.77014481542936</v>
+        <v>23.11831228742389</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.07919295666147</v>
+        <v>13.8233406007979</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.31369899086354</v>
+        <v>16.95460493524462</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>23.34079119579952</v>
+        <v>17.14829255477462</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.214130804826727</v>
+        <v>7.388465767454715</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.77427627244391</v>
+        <v>10.4632193749191</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>17.82034580973535</v>
+        <v>15.10123849453499</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>8.704204423971799</v>
+        <v>12.68203157970119</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>16.51597246661539</v>
+        <v>19.13871822710301</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.87449511324177</v>
+        <v>23.18581170924132</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-4.86156840102786</v>
+        <v>0.1763324672422719</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>8.619746021840434</v>
+        <v>7.677050291468102</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>14.90645751154652</v>
+        <v>12.20928483257418</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-3.317927293194138</v>
+        <v>1.346399252022291</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>18.75717116954443</v>
+        <v>17.27505243971328</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>11.85158209504392</v>
+        <v>12.09958522266504</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.49141995774656</v>
+        <v>21.3351282077813</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.7586265850941</v>
+        <v>25.10078463403993</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>1.726653409195706</v>
+        <v>2.900664607216878</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.69659236542756</v>
+        <v>22.38002459493331</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.78584137751041</v>
+        <v>22.56755093803482</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>8.700001644755677</v>
+        <v>7.8822141263283</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>36.57083727783098</v>
+        <v>33.86137205278786</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>37.54644316810622</v>
+        <v>35.15764616619997</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>38.04981314699938</v>
+        <v>32.76270923869384</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>44.82257128582926</v>
+        <v>36.97757552244315</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>44.4679892657211</v>
+        <v>39.40440631781235</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>11.6925914109315</v>
+        <v>12.00981660412628</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.3886748710442</v>
+        <v>27.9289805143625</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>33.83160469505841</v>
+        <v>29.67065423282376</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>14.2261579554722</v>
+        <v>13.58946945717004</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.12297158856276</v>
+        <v>27.04505538033732</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.68909990997707</v>
+        <v>31.72797010505809</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>2.292204537872198</v>
+        <v>3.962386896879671</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.97073630106872</v>
+        <v>24.5203801759694</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.43714621280921</v>
+        <v>30.34005887856955</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>7.927018241661216</v>
+        <v>8.701182105993436</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>41.14366700790248</v>
+        <v>37.59832429514695</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>4.677515236673962</v>
+        <v>7.543338967155329</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>17.8884507298034</v>
+        <v>17.7115094802127</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.75992396035377</v>
+        <v>22.20828838536837</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-1.53423204859364</v>
+        <v>1.468251382818096</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.24351888713775</v>
+        <v>21.79554914686577</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>24.45282066804306</v>
+        <v>23.28232736286551</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>6.089097929733402</v>
+        <v>6.142076412973292</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.45801719201968</v>
+        <v>32.90896591978645</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.26723115896645</v>
+        <v>35.30568295785102</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>36.52565252210803</v>
+        <v>33.47128235400115</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>42.55989195524495</v>
+        <v>36.92825270239499</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>45.19812345722081</v>
+        <v>41.14983067902523</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>3.562406439152213</v>
+        <v>7.583168907151297</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.08284518927481</v>
+        <v>25.3608660075222</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.14952908360033</v>
+        <v>28.11894027255645</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>6.267683067602622</v>
+        <v>9.354050870193761</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.92471219114942</v>
+        <v>23.11998456914429</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.78399616040156</v>
+        <v>29.7665798672319</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-3.469148144705677</v>
+        <v>1.27871916182362</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>24.32175427712119</v>
+        <v>22.40326017458392</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>32.72753803893028</v>
+        <v>30.79458776253748</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>3.304724291141042</v>
+        <v>6.371645051465219</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>38.25586974113671</v>
+        <v>35.7173280760052</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>4.303309549877394</v>
+        <v>5.754864905637003</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>13.19686633393765</v>
+        <v>12.66391649733381</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.49186682481744</v>
+        <v>20.50055111866919</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-0.1342428335053256</v>
+        <v>1.126275009998704</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.88342011432706</v>
+        <v>16.71303972051079</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.88398899320299</v>
+        <v>22.04560937059511</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>6.033092691662461</v>
+        <v>3.829890046125229</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.18737539247959</v>
+        <v>25.63906582335492</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>35.90886883673721</v>
+        <v>32.01325287335612</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.09783640493823</v>
+        <v>25.56009949084052</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.22337497393647</v>
+        <v>28.52818013173445</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.81674439566888</v>
+        <v>32.64514393979644</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>5.461169716199851</v>
+        <v>5.039135590141338</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>21.60709042285605</v>
+        <v>18.07097201774023</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.8352103330826</v>
+        <v>25.34733553597444</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>4.93615091691542</v>
+        <v>6.94182984608241</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>18.59599290244367</v>
+        <v>18.67979580955505</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.71797941141982</v>
+        <v>26.67133530504539</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-3.522858492956267</v>
+        <v>0.2903444072661721</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>17.32325389561483</v>
+        <v>16.41018781619904</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.21821600860065</v>
+        <v>25.88077579632409</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-0.4952351679685272</v>
+        <v>2.273603452792674</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.25428403118286</v>
+        <v>26.43752302040085</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.45320482910672</v>
+        <v>23.99705563578532</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>15.55804909008494</v>
+        <v>16.530416120464</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>23.41489298203077</v>
+        <v>24.37860833123563</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>26.88965801523074</v>
+        <v>28.42715847914965</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-0.759268539663843</v>
+        <v>3.265040605795345</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>17.24663985208576</v>
+        <v>14.57153660547819</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>23.24803675631978</v>
+        <v>20.53280614526513</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>9.97289195600991</v>
+        <v>14.78481290875779</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>20.18853217099031</v>
+        <v>22.6151607413709</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.18214108485066</v>
+        <v>30.36046318591274</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-7.129152904198534</v>
+        <v>-2.361751315099518</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>9.567664255606374</v>
+        <v>7.968877284811523</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>19.35695576147292</v>
+        <v>14.57560158870657</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-0.4263546362579973</v>
+        <v>3.10535797610849</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.81546447295477</v>
+        <v>23.35256579062243</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.19627390185272</v>
+        <v>33.17225249384567</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>30.86791953343223</v>
+        <v>25.96842775170697</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>36.42287034918272</v>
+        <v>33.43110520744722</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>45.55334767938929</v>
+        <v>42.11766194727104</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>0.04000920998894486</v>
+        <v>4.61120838012609</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>23.70047774583655</v>
+        <v>20.32746433812822</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.96606793330997</v>
+        <v>31.1234536981333</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>46.69778746684101</v>
+        <v>45.68860324307054</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>40.15932984517596</v>
+        <v>38.58867789794355</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>51.75841540610152</v>
+        <v>45.42166750744789</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>54.86731517858303</v>
+        <v>50.55649473823809</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>11.14047847817843</v>
+        <v>13.62539887451003</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>45.37779258352028</v>
+        <v>40.93455713916573</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>48.70836295040233</v>
+        <v>46.548350957186</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>20.94994718817423</v>
+        <v>19.3961178301798</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>41.39138466095774</v>
+        <v>35.35763329059902</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.84349707862886</v>
+        <v>41.7081856704384</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>6.336100985656167</v>
+        <v>6.608870768816796</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>37.01039635413368</v>
+        <v>33.86644918971659</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>43.59304539445044</v>
+        <v>37.43773815874957</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>17.02258097016394</v>
+        <v>16.28421325377482</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>54.89590154056557</v>
+        <v>52.51349125211121</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>61.97972425249577</v>
+        <v>59.23266230272074</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>65.05639574348882</v>
+        <v>60.37982785308867</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>74.36279640293077</v>
+        <v>64.82540346170218</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>81.85098187847282</v>
+        <v>74.29326019546087</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>23.82511079258391</v>
+        <v>24.65002949497787</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>65.59216194959502</v>
+        <v>58.52862379501622</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>71.26546213526234</v>
+        <v>65.03876576948954</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.37321323715376</v>
+        <v>46.21291430580594</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.98539535131808</v>
+        <v>35.0641963164618</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>46.61819420409317</v>
+        <v>40.71634788459977</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>53.74632668697222</v>
+        <v>48.20797598100848</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>2.188146217399947</v>
+        <v>8.777591560903339</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>39.54406593773544</v>
+        <v>37.96207372617768</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>46.60269094567885</v>
+        <v>45.55591062684154</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>13.82059019181536</v>
+        <v>15.56935923322428</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>37.14807292802863</v>
+        <v>33.02575478925542</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>45.29196050232137</v>
+        <v>40.71920251061987</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>1.058963479793846</v>
+        <v>4.166858397074119</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.24175185268721</v>
+        <v>33.79069661222287</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>44.02700341952895</v>
+        <v>38.90922239014034</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>13.08492992834361</v>
+        <v>14.39432479151717</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>53.91233171651101</v>
+        <v>52.64899385786592</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>62.89032452279218</v>
+        <v>60.7782055488631</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>62.33442483054515</v>
+        <v>60.61680514707682</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>72.20406121908087</v>
+        <v>64.06665604459819</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>83.15292449973091</v>
+        <v>75.48255233183708</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>17.05121921419943</v>
+        <v>21.18143972877357</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>63.78393406843607</v>
+        <v>58.69778549568981</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>72.2677386581519</v>
+        <v>66.87954861538198</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>38.10849364783883</v>
+        <v>38.2343481518125</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>24.10608349071377</v>
+        <v>20.21378974272885</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.96699911932465</v>
+        <v>26.55283348330931</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>42.16466680163244</v>
+        <v>35.58677358298856</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>1.133014762334575</v>
+        <v>2.964970009941744</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.2605322334165</v>
+        <v>26.86794284244302</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>39.62991196628376</v>
+        <v>36.51098709586515</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>13.73298793730315</v>
+        <v>13.30371318527908</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.45475105205249</v>
+        <v>30.1762657004822</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>43.3546441978593</v>
+        <v>40.37760938068485</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.563224421783794</v>
+        <v>3.185949452855382</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.69674642034172</v>
+        <v>27.65877958194834</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.00612790300431</v>
+        <v>36.73072979113435</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>11.36546582193427</v>
+        <v>10.32975389095889</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.10911868208567</v>
+        <v>43.99632399051461</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>57.67080526756114</v>
+        <v>56.25815572320383</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>50.13411801967749</v>
+        <v>47.39111643336828</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>59.65119710257245</v>
+        <v>53.56169022977886</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>72.79637638417627</v>
+        <v>67.33551537118096</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>12.58705058852183</v>
+        <v>13.00357424352914</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>49.15705322817443</v>
+        <v>46.99014201981319</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>63.48319624458244</v>
+        <v>60.67829476980826</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>14.12029454096186</v>
+        <v>16.96368411793968</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.87583473217482</v>
+        <v>21.96030822096519</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.38418672067769</v>
+        <v>31.69052533661201</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.539213365934149</v>
+        <v>8.633996315218472</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.67424121223085</v>
+        <v>27.70731297892483</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>34.10383164027029</v>
+        <v>33.88614818138963</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>10.73136603573647</v>
+        <v>12.99773122650514</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>37.32203720868993</v>
+        <v>37.5310940357942</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>42.94839349017943</v>
+        <v>45.19908254070396</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>27.35928074675438</v>
+        <v>23.81020026633139</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.24975031203881</v>
+        <v>29.53027438052422</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.40832749825981</v>
+        <v>32.8103143924671</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>18.27930372415166</v>
+        <v>21.2926417268604</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.23121778360784</v>
+        <v>25.51598829033153</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>39.12928343010569</v>
+        <v>39.50065117717649</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>17.74412472762153</v>
+        <v>20.46316686439306</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.9042038423571</v>
+        <v>27.41144764216938</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>32.1961168058113</v>
+        <v>32.85608473357519</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>6.447742402798042</v>
+        <v>10.69785555806403</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.47536751473951</v>
+        <v>21.52162017995454</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.37634287187868</v>
+        <v>28.24519220339253</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>3.397405455292041</v>
+        <v>4.892140694946281</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.59849468348994</v>
+        <v>24.86965748128906</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>20.94800928394913</v>
+        <v>19.03260914279236</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>37.01457802113694</v>
+        <v>32.92955921640936</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>39.31624976203496</v>
+        <v>38.39393861740233</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>13.9471021455769</v>
+        <v>11.12763060075639</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>45.02533131730399</v>
+        <v>43.01393920521139</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>45.76163896307506</v>
+        <v>45.84785086923352</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>18.74777837942123</v>
+        <v>16.91209802353845</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>55.39164234539744</v>
+        <v>54.55855712528847</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>56.42811022481791</v>
+        <v>58.62436949523308</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>57.84010328182313</v>
+        <v>52.90617542454545</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>63.4797603683883</v>
+        <v>60.03605083193523</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>64.51769327172182</v>
+        <v>63.15453503434962</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>35.76925903798022</v>
+        <v>34.09520198768329</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>59.32136678355823</v>
+        <v>53.38571261820604</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>63.9346506159538</v>
+        <v>62.71167978512831</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.78521741198182</v>
+        <v>25.01367327841883</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>43.3683373594574</v>
+        <v>40.43357758813099</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>45.28236410870281</v>
+        <v>43.57449004203961</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>14.88917169951613</v>
+        <v>16.26440762709131</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>45.57665067044837</v>
+        <v>42.271565591369</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>46.75937859917359</v>
+        <v>47.1761648181248</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>17.97326477150937</v>
+        <v>15.92444258229109</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>55.74053267332428</v>
+        <v>51.28914279996137</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>12.62434302746837</v>
+        <v>13.46689380364437</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.7848072018275</v>
+        <v>28.79640444465288</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.74346540778441</v>
+        <v>34.62506457960783</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>9.247925470418281</v>
+        <v>9.267294059162133</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>42.69538287914371</v>
+        <v>42.12376250538327</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>45.64402812188591</v>
+        <v>46.20006756581674</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>15.1812010603423</v>
+        <v>14.95721055342334</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>53.82510091645955</v>
+        <v>53.67811721046675</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>56.78271717917452</v>
+        <v>58.66424333831549</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>56.31805699381312</v>
+        <v>55.46572042047197</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>62.07723497973728</v>
+        <v>61.93557198746534</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>66.0450310963011</v>
+        <v>66.40930695935664</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.74633977015218</v>
+        <v>29.60777069396201</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>54.12902646292736</v>
+        <v>51.50949595625524</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>61.46100864075631</v>
+        <v>61.55763800503453</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>17.27864315802089</v>
+        <v>19.35507991943264</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>37.09514566539396</v>
+        <v>36.10928341183239</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.36808468970001</v>
+        <v>40.75928366672404</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>8.20955738173264</v>
+        <v>12.42179346301257</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>41.51849931327052</v>
+        <v>40.02379334248018</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>45.75144895007084</v>
+        <v>47.30472579023796</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>13.02012030262199</v>
+        <v>12.9251895835897</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>52.97871848950998</v>
+        <v>49.876661668496</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>11.43474090602529</v>
+        <v>9.180039290470329</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.13278965706554</v>
+        <v>21.10892513960734</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>34.45452643491875</v>
+        <v>31.24334916587127</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>13.10146937707525</v>
+        <v>9.948169041709987</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>40.73996804162665</v>
+        <v>38.36767751409691</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>48.62898606340859</v>
+        <v>46.94120836772647</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>16.43814113408755</v>
+        <v>13.25853990573648</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>49.82740357663874</v>
+        <v>47.10592206381897</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>57.58793604604436</v>
+        <v>56.55802697421436</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>41.89576707264965</v>
+        <v>42.54975226763872</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>46.69026063553635</v>
+        <v>48.87364296526646</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>56.18627282144823</v>
+        <v>54.85776200837787</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>22.95544367220773</v>
+        <v>21.82534029690382</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>41.03413901675347</v>
+        <v>38.74153533747599</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>57.0091556873343</v>
+        <v>54.74361177550093</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>17.30522539481623</v>
+        <v>15.86789223906011</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>32.10207089209194</v>
+        <v>31.46960018985305</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>40.89855342696775</v>
+        <v>39.64555433010354</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>12.05484190039492</v>
+        <v>13.8584616749777</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>38.46167163054204</v>
+        <v>37.40448403412901</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>46.6812492411776</v>
+        <v>48.68731550385309</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>11.07997825807723</v>
+        <v>9.963647419871135</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>44.86474822010641</v>
+        <v>42.57044669827373</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.40710944588248</v>
+        <v>33.1950153175958</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.03396552510129</v>
+        <v>23.63716926047798</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.97010170193008</v>
+        <v>31.72948379971286</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.48926147956605</v>
+        <v>36.27489966859893</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.2235351427687</v>
+        <v>10.49171880002502</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.1789889127088</v>
+        <v>23.91170384913818</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>34.02387238235714</v>
+        <v>31.18875776355896</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.53821448794348</v>
+        <v>18.83531829354745</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.44086629935276</v>
+        <v>27.28725556259397</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>35.40573776752889</v>
+        <v>33.61118429880244</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>4.309421060928109</v>
+        <v>8.324233910603095</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.56434953978347</v>
+        <v>22.62711697760809</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>31.51076260235851</v>
+        <v>29.1892605846211</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.36231768498164</v>
+        <v>5.998996160167206</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>34.63831981051934</v>
+        <v>30.86755513341875</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>42.31033385868422</v>
+        <v>41.29713380986911</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>36.29958959961138</v>
+        <v>31.97807245199679</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>41.47775909900281</v>
+        <v>44.4147215819698</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>50.10649603811919</v>
+        <v>50.50236296276044</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>8.985671980518831</v>
+        <v>10.61204172507007</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>32.4026554831634</v>
+        <v>29.28658209283261</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>43.15958149865337</v>
+        <v>40.54974726129801</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>57.84982539055864</v>
+        <v>58.1084682811782</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>59.02742556560206</v>
+        <v>56.17976344779233</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>66.58377035821563</v>
+        <v>62.27754228115963</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>66.54087621814975</v>
+        <v>64.90534458130844</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.37003826630136</v>
+        <v>29.82660541159825</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>65.7468610564311</v>
+        <v>60.42611315991383</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>67.87664635164273</v>
+        <v>64.63409662997283</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.05499386001515</v>
+        <v>27.31621717769336</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>49.33411545799321</v>
+        <v>44.45860887256568</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>51.66622997195336</v>
+        <v>46.90961090719814</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>18.95820173378306</v>
+        <v>19.37815895247139</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>54.42785531004476</v>
+        <v>51.89629848017975</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>54.87577596891422</v>
+        <v>53.10871760296249</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.19195713813929</v>
+        <v>21.80543193209494</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>67.35199894209143</v>
+        <v>64.40688532345609</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>69.67672622258878</v>
+        <v>69.22935367954544</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>79.57442548209957</v>
+        <v>76.87253842499091</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>88.14486775158983</v>
+        <v>83.32682723336882</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>91.73735888177529</v>
+        <v>86.97591437747404</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.9627404497987</v>
+        <v>39.70617067876887</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>84.36246643958651</v>
+        <v>76.48569871256011</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>86.45121256382318</v>
+        <v>81.36475055005344</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>57.75073670611256</v>
+        <v>58.80758895435167</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>55.45427267741378</v>
+        <v>53.71036555926121</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>62.82155672464461</v>
+        <v>58.84952693479946</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>66.73395563707574</v>
+        <v>63.48782905496073</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>24.44883283315673</v>
+        <v>25.15216964097249</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>60.82418900885664</v>
+        <v>59.00421332980692</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>66.83378810735135</v>
+        <v>64.83441099403983</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>20.72510769718529</v>
+        <v>23.06536681200977</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>45.15141202623419</v>
+        <v>42.27351325548585</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>49.27315925544194</v>
+        <v>45.69419367753765</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>13.14198976003667</v>
+        <v>16.28574728761078</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>52.37336200546478</v>
+        <v>51.650753192812</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>55.18259499851428</v>
+        <v>54.24150487505769</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>21.07655862087756</v>
+        <v>19.60995792476353</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>66.42549343429306</v>
+        <v>64.89592746659446</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>70.77378501133049</v>
+        <v>70.74397155203802</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>77.53338297998781</v>
+        <v>79.05816714211429</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>87.05838336180781</v>
+        <v>83.71696370294957</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>94.08035084201532</v>
+        <v>89.07405527747009</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>35.46685762554924</v>
+        <v>37.3592944539139</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>83.30274594868082</v>
+        <v>78.19103883720436</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>88.45298188356185</v>
+        <v>84.40860601663272</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>53.58625039954372</v>
+        <v>55.17766089396179</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>38.22689540972547</v>
+        <v>35.50174322704946</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>44.97126623021945</v>
+        <v>42.64611086712341</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>53.86243142970343</v>
+        <v>51.23308546800537</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>17.9955479350887</v>
+        <v>16.38827624051826</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>44.34855750371433</v>
+        <v>47.38220069689119</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>57.36014016288645</v>
+        <v>57.14933210306157</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.28276722670241</v>
+        <v>20.83330837155143</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>42.15726770247147</v>
+        <v>40.37117381984643</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>51.76390764888573</v>
+        <v>47.43946803241586</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>18.08619787461842</v>
+        <v>18.56263161795351</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>49.39130686106298</v>
+        <v>49.56909694895594</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>57.57046672392568</v>
+        <v>57.43985748596639</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>21.47398666798829</v>
+        <v>18.6193484081762</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>59.8097357751933</v>
+        <v>59.86921338834958</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>69.4125103433549</v>
+        <v>71.0774278549568</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>61.59203233516087</v>
+        <v>64.19442222784467</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>71.10662997969501</v>
+        <v>73.90620767142757</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>83.35995086326747</v>
+        <v>83.55644907646868</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.0613053740476</v>
+        <v>27.31845691987342</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>64.13755376952132</v>
+        <v>66.31503546536523</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>77.77762229626998</v>
+        <v>78.54650433591611</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.575</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.75</v>
+        <v>15.393</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.449</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.284</v>
+        <v>21.448</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.899</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.66</v>
+        <v>0.961</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.04211544843945</v>
+        <v>18.78782196794799</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.32362983901049</v>
+        <v>19.12976689464814</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.86138647874473</v>
+        <v>33.1755171653813</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.002475697034284963</v>
+        <v>3.847431865933569</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17.7416347791555</v>
+        <v>23.35337773073235</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.2969905214182</v>
+        <v>28.61585047472884</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.889940160881487</v>
+        <v>7.791502556807142</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.83668228441639</v>
+        <v>43.27189475909056</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37.14601851068755</v>
+        <v>47.34995522132864</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.58293361154481</v>
+        <v>16.18687947960257</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.50102229871507</v>
+        <v>19.83119461821935</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.53490214237994</v>
+        <v>19.7308501380425</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.52344029480993</v>
+        <v>20.17803174084056</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>19.60488317362063</v>
+        <v>20.42188186358309</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.77521219156594</v>
+        <v>48.11976181255282</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.62610122177162</v>
+        <v>17.12079329376527</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.04978140488089</v>
+        <v>26.91555127035229</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.15239305932857</v>
+        <v>35.44086020746626</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.7249170314549147</v>
+        <v>9.523053802099241</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11.17868880858102</v>
+        <v>14.73471540875777</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>18.58004513015127</v>
+        <v>16.99869342665876</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1.347321339502479</v>
+        <v>3.863284963120616</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.11190018618911</v>
+        <v>15.99503351298145</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14.42825144584323</v>
+        <v>25.39940279493584</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.95423460010176</v>
+        <v>30.67608646720706</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>33.20819217127035</v>
+        <v>33.49382905803933</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.146464772123522</v>
+        <v>3.141926998756627</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>33.17818428125658</v>
+        <v>36.23497139518087</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35.35835173620445</v>
+        <v>35.48378799937542</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>9.530196314766737</v>
+        <v>7.447112687926058</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47.12871594120315</v>
+        <v>48.45582842345082</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50.77767862160235</v>
+        <v>47.92593830709227</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.48481753633975</v>
+        <v>47.96271320992111</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>54.91412803575863</v>
+        <v>51.88151290469706</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>57.96004925039604</v>
+        <v>54.01494045561781</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.44853049562875</v>
+        <v>46.04625075940032</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>48.30931391277145</v>
+        <v>62.16294414925537</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>56.64444443257575</v>
+        <v>65.24924794746369</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20.73831772249589</v>
+        <v>24.29100357778112</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37.37875038766089</v>
+        <v>36.84338278570864</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>41.51348036713694</v>
+        <v>36.18193263075617</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.149973974972884</v>
+        <v>8.943426386212288</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.900130939058</v>
+        <v>34.15265154859991</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.95810035820589</v>
+        <v>34.8593581970081</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>10.2289327123318</v>
+        <v>4.648043459054307</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>47.21610719897539</v>
+        <v>49.76104271130501</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.389129825745083</v>
+        <v>9.34882211700916</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.33025696197863</v>
+        <v>23.18083600814783</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.08941112185616</v>
+        <v>29.27679795150623</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1720593289426127</v>
+        <v>2.804034042521401</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.1557920562359</v>
+        <v>32.39605906064276</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>35.80176032381112</v>
+        <v>36.28728278120323</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>7.392477766309579</v>
+        <v>8.259120315069975</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>46.03540538151071</v>
+        <v>48.56185528292994</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>50.79728798223029</v>
+        <v>53.59843149287725</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>49.958675431141</v>
+        <v>58.89790220527611</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>56.63937243019415</v>
+        <v>59.40643743384021</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>61.2326328124869</v>
+        <v>64.27950950119816</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>23.63176778609188</v>
+        <v>17.25561166550077</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>46.10953469593933</v>
+        <v>44.23261730173313</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>55.38487293851625</v>
+        <v>53.78115542819246</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>14.55682169115707</v>
+        <v>14.89075698848734</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.48711365320843</v>
+        <v>32.78543503954081</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>38.45848371943612</v>
+        <v>35.42318105463774</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.143564104698154</v>
+        <v>9.025115424608412</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.46342323015713</v>
+        <v>26.7982629660803</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>39.33442184598746</v>
+        <v>35.57968278545746</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>7.050432774272604</v>
+        <v>6.828403010939702</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.57750867472197</v>
+        <v>45.4817904004134</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4.120391730140355</v>
+        <v>4.670187298500984</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>15.35610226438436</v>
+        <v>14.96306113151177</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.59403174333117</v>
+        <v>24.49293025179243</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.7538592878215695</v>
+        <v>1.844526555439845</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>27.94283300647361</v>
+        <v>30.37239909024723</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>36.39699779495587</v>
+        <v>37.9292635027414</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5.333814582463887</v>
+        <v>1.261892528421441</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.70759193020982</v>
+        <v>42.03661750485127</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>48.25463683070872</v>
+        <v>50.46058460695758</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>36.27049221563188</v>
+        <v>43.52481965389273</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>42.69561358068918</v>
+        <v>45.44317172246696</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>48.84095345047641</v>
+        <v>55.0020039780528</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>15.41932365858036</v>
+        <v>10.90374918272568</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>32.54193574303746</v>
+        <v>28.24707928274303</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>48.1720611411428</v>
+        <v>58.83891879742239</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>11.17265476895629</v>
+        <v>9.257173683402034</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.46356105437859</v>
+        <v>26.76155441273971</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>37.09312627744057</v>
+        <v>35.47430618238931</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3.574688818935837</v>
+        <v>8.46627204379325</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.19054641105627</v>
+        <v>28.74554837904974</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>40.19430862468983</v>
+        <v>40.69704331645389</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3.620338358908739</v>
+        <v>1.035177575482894</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.08938227384733</v>
+        <v>40.21615495366724</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.42760955724533</v>
+        <v>21.12680580958225</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>18.84810033951438</v>
+        <v>17.03181453474144</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.7072417730579</v>
+        <v>29.83373484629435</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>32.29255943539753</v>
+        <v>32.10292408331188</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4.629636648652433</v>
+        <v>6.564958235714954</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>19.15944330614187</v>
+        <v>12.28655445786048</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27.09525846503965</v>
+        <v>19.5045752098626</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>15.43148580245306</v>
+        <v>14.76444918852399</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.46007127007583</v>
+        <v>23.07788230224203</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>31.94812480141714</v>
+        <v>35.73179792137008</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-2.100794301223033</v>
+        <v>8.637894441159165</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>11.96465283249369</v>
+        <v>12.85973780166405</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>19.59302455279009</v>
+        <v>17.83506607814844</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1.143663984124387</v>
+        <v>3.8726248823688</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>24.52928619976084</v>
+        <v>18.09995593546063</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36.3304613839441</v>
+        <v>38.10099597115135</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>27.00410370926634</v>
+        <v>21.08934730044234</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>40.03660489146226</v>
+        <v>40.16554355836416</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>46.49965806855905</v>
+        <v>46.97746943508646</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.30379899207955</v>
+        <v>4.79430026783524</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24.16818826123542</v>
+        <v>17.45389611383942</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.60832758075475</v>
+        <v>29.67557027008355</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>55.4461593707001</v>
+        <v>53.21703983331857</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>53.51579505383148</v>
+        <v>56.36247891147617</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.68748723829168</v>
+        <v>61.74078151208164</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>63.32637607266611</v>
+        <v>59.94239455873937</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>24.94837130533048</v>
+        <v>27.44139948282148</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>58.29149685625222</v>
+        <v>58.56873133531845</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>63.2827872849662</v>
+        <v>61.80542238776277</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>24.03575235192615</v>
+        <v>30.9828564572552</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.77333165200675</v>
+        <v>40.72802904926705</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>46.69795961026409</v>
+        <v>45.29059735834683</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>9.622199200793116</v>
+        <v>10.55621912029031</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.61276700595144</v>
+        <v>46.50803929065525</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>46.18491737090632</v>
+        <v>46.15126825304262</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>16.21033974309554</v>
+        <v>8.485784672651381</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>61.25501260851618</v>
+        <v>68.42004296965312</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.67527800534472</v>
+        <v>65.25608804454296</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>75.49049557320048</v>
+        <v>82.1509848509621</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>82.80784682545438</v>
+        <v>84.43302507433586</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>86.72983745007096</v>
+        <v>85.31932741454447</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>35.67204038563146</v>
+        <v>40.80132181864231</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>75.67194311989893</v>
+        <v>79.40364417225535</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>81.72532928200707</v>
+        <v>79.62884259737244</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>56.32551847556569</v>
+        <v>58.60871817603262</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>50.73941694184055</v>
+        <v>46.14091370252669</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>56.91238612225769</v>
+        <v>53.24558316949583</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>61.85854140802959</v>
+        <v>59.64732618980025</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>19.87864404029272</v>
+        <v>16.0584490018888</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>56.57989824452383</v>
+        <v>54.16856535676254</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>63.58314587455224</v>
+        <v>61.45086575201283</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>19.24845687440903</v>
+        <v>17.91858343019579</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>40.21301636049085</v>
+        <v>36.39529935430399</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>45.38680969487818</v>
+        <v>44.87845987478195</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>6.400237710975663</v>
+        <v>9.769865037681907</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.49432189518586</v>
+        <v>40.19036679215901</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.79858203917696</v>
+        <v>47.37132368014193</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>13.89061304058009</v>
+        <v>9.085705267083174</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>61.83397386775712</v>
+        <v>65.14935028830051</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>69.61078506813294</v>
+        <v>73.08079205928074</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>77.75043281230489</v>
+        <v>79.82553995413579</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>83.31411235446699</v>
+        <v>81.46931957806896</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>89.19988276154955</v>
+        <v>89.10979049688464</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.04153170142325</v>
+        <v>23.61984510937373</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>77.48091443416168</v>
+        <v>75.20222846173621</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>85.2615483145855</v>
+        <v>84.11091379243355</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>51.71883555533051</v>
+        <v>56.25365562037137</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.85043803979698</v>
+        <v>26.26671858656587</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>38.71129190075033</v>
+        <v>30.54688769116632</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>48.02329607594518</v>
+        <v>40.87371256518341</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>10.32566302835231</v>
+        <v>9.810610305794984</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>43.29823864052636</v>
+        <v>49.61313537727358</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>54.67297585786555</v>
+        <v>58.777981144148</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16.66817738003902</v>
+        <v>13.53866109004736</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>37.57252874435828</v>
+        <v>35.21863236007104</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>46.56877671598252</v>
+        <v>46.14211937846809</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>8.13992836845264</v>
+        <v>10.22975862734654</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.13973304398814</v>
+        <v>41.99678335735832</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.01542009832123</v>
+        <v>52.21198373523625</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>11.71259177829961</v>
+        <v>2.398239712159999</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>54.90417275099449</v>
+        <v>59.5965196992904</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>68.39774313344012</v>
+        <v>71.98539700409634</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>60.63092772551683</v>
+        <v>67.39522053557673</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>71.0378694625018</v>
+        <v>73.64974261486337</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>81.83499558566531</v>
+        <v>88.47071015676428</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>21.16206433477467</v>
+        <v>11.9545524825181</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>62.98354436736169</v>
+        <v>64.13826324208837</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>77.47073759207929</v>
+        <v>80.5441839590322</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.34960943259613</v>
+        <v>16.07105274084038</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.35862385589255</v>
+        <v>16.39435032131577</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.95097784046843</v>
+        <v>29.58078369010539</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.447169019242025</v>
+        <v>-0.04703539598624573</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19.6497360026597</v>
+        <v>21.57305304411691</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>23.6340719150464</v>
+        <v>24.4253579183557</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>8.505602134260808</v>
+        <v>5.45302161358142</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33.59162117736615</v>
+        <v>47.08180389653914</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>39.41142435790431</v>
+        <v>48.95324715471206</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>23.1679621524513</v>
+        <v>17.68465121161096</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.4460948887573</v>
+        <v>21.80250266700561</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.35206397638412</v>
+        <v>20.23047891405302</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>11.13152901609931</v>
+        <v>19.6466611553282</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>17.95278459982781</v>
+        <v>16.67182109217126</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>27.25176782948624</v>
+        <v>36.10830403865182</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>13.64122650438365</v>
+        <v>10.8198675677547</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.74657908709037</v>
+        <v>28.99988870527218</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.47648987490845</v>
+        <v>33.01186021371316</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-2.782529844337823</v>
+        <v>-0.7280112624461843</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>13.23171800864918</v>
+        <v>10.08930182291898</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>17.42887168109539</v>
+        <v>14.91464970132072</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1.586301465602023</v>
+        <v>0.2979460964904064</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.69112847281062</v>
+        <v>28.04951064000828</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>14.29984476475131</v>
+        <v>28.43849759591721</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.82079688292071</v>
+        <v>32.21329914092221</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>35.4722126945252</v>
+        <v>35.00103412956282</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>4.1947879052472</v>
+        <v>0.1495019561779678</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>35.48866670857429</v>
+        <v>35.51969424120257</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.50977395763307</v>
+        <v>36.26747232176668</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>12.8452428316933</v>
+        <v>4.636543726246671</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>51.10673748157743</v>
+        <v>57.48885763761169</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>53.79269502913662</v>
+        <v>54.46405312516484</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>48.18317528860165</v>
+        <v>46.69498112488476</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>54.61593474799169</v>
+        <v>59.38334072910823</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>57.36134912298155</v>
+        <v>56.56661725272194</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>17.91660649733527</v>
+        <v>32.28106654128582</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>39.86190878427243</v>
+        <v>52.11123784682297</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>45.11017661818985</v>
+        <v>55.18564292660297</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>15.9434440356921</v>
+        <v>22.70101334360934</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>35.90924615432864</v>
+        <v>35.39036938694309</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>39.45595975702427</v>
+        <v>39.23166658188114</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1.801275930817358</v>
+        <v>-0.8105664399371904</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>33.24314547182435</v>
+        <v>33.11325781125083</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>37.4903434273555</v>
+        <v>38.73203946810129</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.80728252364061</v>
+        <v>1.88060019519742</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>52.14013659749359</v>
+        <v>58.42094513217711</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8.571808990249576</v>
+        <v>6.873701761541767</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>24.27640047349914</v>
+        <v>22.34834038294424</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>31.55009201018716</v>
+        <v>31.58317540054018</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>2.324740564121875</v>
+        <v>-1.2828710631387</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.5972063026576</v>
+        <v>36.82506972235952</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>36.8877514432831</v>
+        <v>37.00078510656971</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>10.56563661351023</v>
+        <v>2.551939151257244</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>49.72339174815856</v>
+        <v>56.86601105418296</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>53.46798920098186</v>
+        <v>56.95704846357792</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>49.59314182811168</v>
+        <v>54.64657948050639</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>55.13267211024018</v>
+        <v>62.24710561619153</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>59.84492802927099</v>
+        <v>65.92694623747364</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>12.52728447170983</v>
+        <v>4.697986570697189</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>36.95459370857628</v>
+        <v>32.1791330479058</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>43.13716317858906</v>
+        <v>38.59555863720261</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>11.23339975249421</v>
+        <v>14.41237414087742</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.87389909174951</v>
+        <v>31.77053330150538</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>37.28268016458139</v>
+        <v>38.17057056616488</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-0.7724474204525364</v>
+        <v>-1.072261865531221</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.71398846826475</v>
+        <v>30.83846945964835</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>38.34701074729259</v>
+        <v>38.75406612631917</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>8.616718587203049</v>
+        <v>0.5602677018031557</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>50.80266815603348</v>
+        <v>51.20942829912951</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>6.106106988849369</v>
+        <v>4.040785660252503</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>18.43583643622274</v>
+        <v>16.58807260052321</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.76101150883243</v>
+        <v>29.16549082357162</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>2.656396976604313</v>
+        <v>-1.07782953088871</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.89552716753924</v>
+        <v>36.18445897562572</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>36.79609400156012</v>
+        <v>43.05247535514611</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>8.257079313773037</v>
+        <v>-0.2785479162194058</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.12475234951648</v>
+        <v>56.48454102686277</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>50.59311996887509</v>
+        <v>59.31708519040032</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>40.0257992633888</v>
+        <v>53.499900371794</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>45.25281387064247</v>
+        <v>60.01673643546366</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>50.37323688278208</v>
+        <v>64.17887523081737</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>9.280847044423396</v>
+        <v>2.134938648394428</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.46534948530896</v>
+        <v>33.2819263976116</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>40.50550718887245</v>
+        <v>47.3479860381013</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>8.017645414289582</v>
+        <v>6.752599416654217</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>27.20475638045706</v>
+        <v>29.8458669162497</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>34.45643107674631</v>
+        <v>34.72230305229921</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1.297095535787012</v>
+        <v>-1.30270011752571</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>26.09861941623519</v>
+        <v>28.19734381279335</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>34.51889748894732</v>
+        <v>36.47909527533497</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>4.22768997539487</v>
+        <v>-0.4854996221513304</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>41.18072066380925</v>
+        <v>45.3991156774574</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>34.07641192347129</v>
+        <v>29.76687396363963</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>24.12631257917001</v>
+        <v>24.10451298206068</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.05992908267517</v>
+        <v>41.0851154485577</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.39159457541152</v>
+        <v>45.05490479770636</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>6.132687518308487</v>
+        <v>9.463624355046633</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.79494845901699</v>
+        <v>19.81066716501676</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.39036518941921</v>
+        <v>29.09953686950846</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>15.57595082950837</v>
+        <v>13.16104689945803</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.87628949690159</v>
+        <v>29.62359981670212</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>37.42231496063155</v>
+        <v>37.57526140123061</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-5.35921690382655</v>
+        <v>-0.2998088973097559</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>13.50835479639964</v>
+        <v>10.77451312592237</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>20.7099925099154</v>
+        <v>21.30445121599783</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>3.064066886181173</v>
+        <v>2.948045394104529</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>33.91496266718779</v>
+        <v>33.52470234478135</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>44.42344294545694</v>
+        <v>55.6925694801084</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.77442111088453</v>
+        <v>31.19019454975802</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>45.95086276122921</v>
+        <v>46.47864195163081</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>53.82592804332162</v>
+        <v>54.91063709084258</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>5.394707237736899</v>
+        <v>9.587265847872086</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>30.51741257059265</v>
+        <v>26.50919572285937</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>42.55315816364201</v>
+        <v>40.53977914647163</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>58.77862296562145</v>
+        <v>67.60519280704374</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>51.9744232548855</v>
+        <v>56.66966212953632</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>61.45367648161944</v>
+        <v>69.88676812251423</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>65.82885344609963</v>
+        <v>72.11597649300111</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.67631132558908</v>
+        <v>24.69316537390853</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>56.97048891316535</v>
+        <v>64.2058992975211</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>61.27747587738313</v>
+        <v>67.72394523643324</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>19.88506748424184</v>
+        <v>32.37047045053049</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>42.42367484996812</v>
+        <v>42.37980220551126</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>48.3088202957809</v>
+        <v>46.98624828184911</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>3.140801513895955</v>
+        <v>1.016333752734475</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>41.99897643009919</v>
+        <v>43.02282622090227</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.00316985055636</v>
+        <v>46.71589073952163</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>15.78981892441652</v>
+        <v>6.838215720969121</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>65.41769821242403</v>
+        <v>70.4972370093143</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>70.84531254306052</v>
+        <v>74.69725607310635</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>73.32530358529587</v>
+        <v>77.01508969742777</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>80.31039164742222</v>
+        <v>85.11906352689927</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>87.7736683758321</v>
+        <v>90.19923029734399</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>27.44379887819403</v>
+        <v>36.95445860007983</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>73.84715712292179</v>
+        <v>79.78558692185632</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>79.10625763141572</v>
+        <v>82.7125590660803</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>59.69655398022879</v>
+        <v>64.9832792965958</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>48.89966682307742</v>
+        <v>49.76860442172809</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>57.10924369501808</v>
+        <v>57.99336832644187</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>63.89231022646574</v>
+        <v>67.64319578602803</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.35103666099993</v>
+        <v>12.92953303921556</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>54.38540871128723</v>
+        <v>56.2201458749641</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>60.39818093456367</v>
+        <v>61.33572264314157</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.22391494478269</v>
+        <v>18.85661138997331</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>39.76881827864162</v>
+        <v>38.98508235616573</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.69378960200282</v>
+        <v>45.48568153929445</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.6421118099720395</v>
+        <v>-0.2596013023051214</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>42.61895007433962</v>
+        <v>42.67833802167368</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>45.66330853417846</v>
+        <v>44.83220056644976</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>13.72352767643349</v>
+        <v>3.860369677738738</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>66.00692614545508</v>
+        <v>68.0621797987589</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>72.39502371892905</v>
+        <v>76.14627512259773</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>74.38955048854601</v>
+        <v>73.73649585223954</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>80.13714436708837</v>
+        <v>79.27308285744157</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>89.40292116493431</v>
+        <v>93.43626644403393</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>23.70679273326481</v>
+        <v>18.23540845746536</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>74.82447220356453</v>
+        <v>75.49631300761592</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>81.31881956503079</v>
+        <v>81.1390462927707</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>52.02394671645924</v>
+        <v>60.99619655885408</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>31.55365829286957</v>
+        <v>29.68627870734068</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>41.08570462049209</v>
+        <v>39.25033532264482</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>50.35693752911039</v>
+        <v>49.01501154325835</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>7.191393458243741</v>
+        <v>6.745214309071734</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>42.18329262188218</v>
+        <v>49.21076325693147</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>51.46877780546179</v>
+        <v>57.07524723725275</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>13.30730647989949</v>
+        <v>10.34161547040024</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>37.98787871980674</v>
+        <v>40.28483084028375</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>47.91385154365854</v>
+        <v>46.24448117420867</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>1.602125603106618</v>
+        <v>-0.8388311513386704</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>38.25997380083994</v>
+        <v>43.25447019899134</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>46.18593635454219</v>
+        <v>47.54937019688734</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>11.49938954298809</v>
+        <v>-0.3907668670488817</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>59.18741716159981</v>
+        <v>66.28951186971052</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>70.53230607319881</v>
+        <v>75.57825663549204</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>62.04232961716184</v>
+        <v>69.89984973431973</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>71.551225733618</v>
+        <v>73.14633329322014</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>83.69885164804634</v>
+        <v>88.44409912057634</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>16.03221236616663</v>
+        <v>8.937170216823358</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>64.02666885391281</v>
+        <v>74.24948154556682</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>77.27504161073252</v>
+        <v>81.25855709124342</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10.80538133926631</v>
+        <v>5.521156637060191</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>17.94745255723668</v>
+        <v>6.506820018116567</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.0244502994577</v>
+        <v>20.55713074385695</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1.42794974892718</v>
+        <v>-0.02398532729693059</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>19.66285767317187</v>
+        <v>9.033186389670657</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.7070106181614</v>
+        <v>12.1459033868757</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>6.332008242086815</v>
+        <v>5.524283255531909</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>34.27739092084225</v>
+        <v>40.11560790906544</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>41.86734977386396</v>
+        <v>41.12891953639256</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>20.47535990522374</v>
+        <v>12.57777018804953</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>26.79540146943536</v>
+        <v>15.1345003204185</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.67119016653908</v>
+        <v>16.16319362922369</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>13.2847819942876</v>
+        <v>30.48882652366781</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>19.34043548290732</v>
+        <v>32.4016083455652</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>32.282046439396</v>
+        <v>37.59779523060716</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>19.74483409406397</v>
+        <v>19.21192654460147</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.65734553518335</v>
+        <v>32.33724722422455</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>36.16763062014889</v>
+        <v>34.72438028175235</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1.551946185082699</v>
+        <v>-3.87597619169923</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>18.1944559995876</v>
+        <v>9.47782866555935</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.35945071229431</v>
+        <v>16.32289107020853</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>4.46000074635765</v>
+        <v>2.84708728610163</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>31.2586838033308</v>
+        <v>29.20872623788276</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>13.91422452674599</v>
+        <v>25.94324269424312</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>30.87682561166146</v>
+        <v>39.30904771085154</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>36.5394413408825</v>
+        <v>35.87714413003078</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>1.93673497351568</v>
+        <v>0.7611280207839144</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>37.21615783376277</v>
+        <v>37.45882152844464</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>39.58451406476759</v>
+        <v>39.88285877775694</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>11.74806966071449</v>
+        <v>5.527720376545243</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>54.13275211194959</v>
+        <v>63.9088798501277</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>57.80124880236394</v>
+        <v>56.11815226896522</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>51.63574743343128</v>
+        <v>44.21005295101399</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>59.51257766567888</v>
+        <v>57.09378198982955</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>62.63281070098948</v>
+        <v>59.86075528706694</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.59018985974782</v>
+        <v>32.34965075759756</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>48.04412764558197</v>
+        <v>32.10648178958247</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>56.18911038074049</v>
+        <v>26.64907977006268</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.47252852804195</v>
+        <v>29.17331686733605</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>46.89155952341151</v>
+        <v>51.65880578534232</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>49.10015365795961</v>
+        <v>48.18000552751047</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>7.813023660578381</v>
+        <v>-3.568351348199748</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>41.47670244733893</v>
+        <v>44.38406430782184</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>45.50467978423683</v>
+        <v>49.36526353258186</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>17.08794772500303</v>
+        <v>4.88618968938918</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>60.96562729265315</v>
+        <v>76.41909982054719</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8.316948407315603</v>
+        <v>5.196489890189746</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>26.77773696197412</v>
+        <v>25.34813723048239</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>32.86815627200905</v>
+        <v>26.67616936933062</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>0.4030007877312904</v>
+        <v>-1.033225591280434</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>36.77711533637324</v>
+        <v>29.21949123727092</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>40.40529830888414</v>
+        <v>36.373498625591</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>10.02235615952164</v>
+        <v>4.286018349550144</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>53.54319561652932</v>
+        <v>56.11163385694097</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>58.16990514346615</v>
+        <v>57.04342998107811</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>54.65052804435644</v>
+        <v>55.2408285017293</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>61.82057438162381</v>
+        <v>67.45703625025516</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>66.46238225413607</v>
+        <v>72.07957648831504</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.09941808041418</v>
+        <v>21.14200318035779</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>46.36881062055195</v>
+        <v>23.37823333985007</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>55.32658717861361</v>
+        <v>23.29483725683422</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>19.64734950109944</v>
+        <v>16.50428255154325</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>42.42704087741862</v>
+        <v>42.98901820706145</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>46.25306475949444</v>
+        <v>44.4754598325428</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>4.13029238976241</v>
+        <v>-4.403876807069135</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>39.47510714976259</v>
+        <v>30.1230139514867</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>45.86160846614368</v>
+        <v>40.77019543672515</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>14.04194767678881</v>
+        <v>1.669832538546114</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>59.53297829720094</v>
+        <v>61.98360474157985</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>4.673463904494952</v>
+        <v>5.511544696679778</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>19.16646062980033</v>
+        <v>30.36219520500149</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.99264292014293</v>
+        <v>33.3027330240877</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>1.807739860525448</v>
+        <v>0.9729016828009556</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>32.95932990526443</v>
+        <v>36.67578956735161</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>41.60381867090359</v>
+        <v>40.47727114059271</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>8.646299755927213</v>
+        <v>4.779616023111096</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>46.53913828450757</v>
+        <v>62.31721490802563</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>56.17032096021325</v>
+        <v>61.34913201879704</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>42.14935600732607</v>
+        <v>57.5703440618562</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>49.0912760136674</v>
+        <v>64.07105484549039</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>55.09564417228887</v>
+        <v>70.89267836003279</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>14.97916845241961</v>
+        <v>25.51631979733499</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>34.53564659243328</v>
+        <v>25.16710639481365</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>49.8108385095283</v>
+        <v>24.87821198616727</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>15.62858575495422</v>
+        <v>15.5569189769127</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.75484844606748</v>
+        <v>39.13673789571376</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>44.19871848125715</v>
+        <v>43.28871855514442</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>5.289354293858395</v>
+        <v>-3.54226592841632</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>35.60812092640826</v>
+        <v>32.06189500778694</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>46.23329486853033</v>
+        <v>48.0604533243218</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>10.36416004976059</v>
+        <v>1.94205891736642</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>50.61752063986049</v>
+        <v>57.57825659204863</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>39.00249881893026</v>
+        <v>30.82265733249749</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.72570097467443</v>
+        <v>29.31252827153661</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>41.42090073879889</v>
+        <v>50.62603799782565</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>46.08517653945565</v>
+        <v>51.92793738925209</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>13.31499366776082</v>
+        <v>12.99904025979331</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>32.87865013499341</v>
+        <v>28.80794536295131</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>40.05017206550389</v>
+        <v>35.74465421220376</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>18.48872081486983</v>
+        <v>23.88336998076204</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.25913430683542</v>
+        <v>33.11518110813392</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>37.23216092568082</v>
+        <v>38.70635293264971</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-4.484395959344202</v>
+        <v>-5.270189150305871</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>14.96763211049133</v>
+        <v>5.44763799638601</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>21.05684235602187</v>
+        <v>13.52725647712419</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>1.204719533402884</v>
+        <v>4.040596757417521</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.22276039134228</v>
+        <v>27.98334915101553</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>42.20937253253439</v>
+        <v>46.85264403738211</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>33.46319799681723</v>
+        <v>26.96485954237141</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>47.91702474809685</v>
+        <v>48.12885762816742</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>53.74835594134895</v>
+        <v>54.43528462852306</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>8.745038375572726</v>
+        <v>12.71777879423569</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>33.46519177815637</v>
+        <v>29.0445170510232</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>44.15521365346413</v>
+        <v>44.14618574038188</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>66.93484416543617</v>
+        <v>79.16823940985665</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>66.17395377189678</v>
+        <v>77.95872275495813</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>74.82298170690147</v>
+        <v>85.70432467747744</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>77.81450237608259</v>
+        <v>88.49712172645199</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.51569085225532</v>
+        <v>33.37329965013871</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>72.35260177835936</v>
+        <v>82.08122651624798</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>75.9846417168214</v>
+        <v>85.82924545054738</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>26.10858348673699</v>
+        <v>36.03395450725176</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>48.84115196019104</v>
+        <v>52.74500826983521</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>50.53670803643973</v>
+        <v>50.325009028419</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>5.785229706824708</v>
+        <v>-2.154125404856234</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>45.73946978395905</v>
+        <v>47.14395745098351</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>45.48635119698626</v>
+        <v>50.03985296234521</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>16.37038591995841</v>
+        <v>9.142790514274107</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>67.13668247945768</v>
+        <v>80.2501104242625</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>70.66215756423402</v>
+        <v>78.8464465905477</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>79.51093156764242</v>
+        <v>86.4232698691977</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>87.87556320154624</v>
+        <v>90.71959436843368</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>91.36389492818469</v>
+        <v>94.7637668085395</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>37.24597319799028</v>
+        <v>47.44966812397869</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>82.86327085414904</v>
+        <v>92.39128002719225</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>85.97422799261317</v>
+        <v>90.99720588822686</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>67.64058824431677</v>
+        <v>78.03078960942273</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>63.50694999388054</v>
+        <v>62.8858490385732</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>71.11545670479084</v>
+        <v>74.6843648809172</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>76.27071659562753</v>
+        <v>87.18206507035276</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.3915909465308</v>
+        <v>22.42071279802582</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>70.64543085905075</v>
+        <v>72.09677513746476</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>75.90443710547702</v>
+        <v>78.8510382776293</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>21.13971674678725</v>
+        <v>20.60968215067568</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>46.04755105593966</v>
+        <v>44.39414083799836</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>48.71997849260836</v>
+        <v>47.03989278325357</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>2.561207375342025</v>
+        <v>-5.367244054859064</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>45.58910311485305</v>
+        <v>29.57923593537638</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>46.57605984826629</v>
+        <v>39.25010530400272</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>13.78640684825476</v>
+        <v>6.657146677834778</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>67.37270062917086</v>
+        <v>66.67132303088182</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>71.85246303924485</v>
+        <v>78.54871406198042</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>81.44957945360861</v>
+        <v>73.0684451029211</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>87.98181453592956</v>
+        <v>81.90059030665034</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>93.22491702146121</v>
+        <v>93.12911564469648</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>34.33626282543652</v>
+        <v>30.96648037595215</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>84.40946810366296</v>
+        <v>84.01745025116816</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>88.78626014215052</v>
+        <v>88.18698154399074</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>62.66863101776494</v>
+        <v>74.59875416241998</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>43.93470122873597</v>
+        <v>45.78433627848013</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>53.64287047618157</v>
+        <v>50.86753710037048</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>62.7488424934582</v>
+        <v>65.4350442102984</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.61355895292435</v>
+        <v>21.73154834809748</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>57.95673573069868</v>
+        <v>66.41133145338897</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>67.58803767424808</v>
+        <v>75.36105921230208</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>19.61181070672886</v>
+        <v>22.90552131793746</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>44.32034507242629</v>
+        <v>46.50708883935588</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>51.00250278806734</v>
+        <v>50.65475400140704</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>5.63604779022268</v>
+        <v>-3.083103605451189</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>43.21813252190276</v>
+        <v>40.6854892980068</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>50.17186561768463</v>
+        <v>47.54035696088071</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>13.69306422627706</v>
+        <v>4.299697690066232</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>62.31862434505699</v>
+        <v>67.83052975241841</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>72.79567257151193</v>
+        <v>78.00760139599134</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>67.02956399970489</v>
+        <v>70.10163905100249</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>78.76503676251647</v>
+        <v>79.57733797952811</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>88.27089234213072</v>
+        <v>89.13995629079329</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.66981894709269</v>
+        <v>31.67501174606386</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>72.70695225583684</v>
+        <v>82.75079105575981</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>84.0505052018629</v>
+        <v>89.08035903986901</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.23802493933327</v>
+        <v>12.37972596326967</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.09582931420593</v>
+        <v>14.49190539801083</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.11574111073526</v>
+        <v>18.52937117363784</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.5842936773047143</v>
+        <v>4.69882026644412</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.931704602853848</v>
+        <v>9.793042184693579</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>11.26859472150499</v>
+        <v>10.44196050362351</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.758374836820462</v>
+        <v>8.390200650818212</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.46708466694967</v>
+        <v>21.37215033140269</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>23.11831228742389</v>
+        <v>23.82165757352283</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>13.8233406007979</v>
+        <v>14.36270485903491</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.95460493524462</v>
+        <v>16.94630263315995</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>17.14829255477462</v>
+        <v>16.82953327318999</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.388465767454715</v>
+        <v>9.468341786922259</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>10.4632193749191</v>
+        <v>10.71243755928372</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>15.10123849453499</v>
+        <v>16.07887205813856</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.68203157970119</v>
+        <v>12.05263727516805</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>19.13871822710301</v>
+        <v>20.59546308752615</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>23.18581170924132</v>
+        <v>25.67099436378478</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.1763324672422719</v>
+        <v>4.347337398123891</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>7.677050291468102</v>
+        <v>7.392974035512275</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>12.20928483257418</v>
+        <v>10.69326052077565</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>1.346399252022291</v>
+        <v>3.573071553633497</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>17.27505243971328</v>
+        <v>15.9615231157557</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.09958522266504</v>
+        <v>17.80796897268105</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.3351282077813</v>
+        <v>21.84705133243799</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.10078463403993</v>
+        <v>21.8000053583386</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>2.900664607216878</v>
+        <v>3.811142203515953</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.38002459493331</v>
+        <v>21.42531213767671</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.56755093803482</v>
+        <v>22.97890441706757</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>7.8822141263283</v>
+        <v>5.493402586663066</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>33.86137205278786</v>
+        <v>31.95347346001686</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>35.15764616619997</v>
+        <v>31.14865387564005</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.76270923869384</v>
+        <v>29.53679923767926</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.97757552244315</v>
+        <v>36.0824672328454</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>39.40440631781235</v>
+        <v>36.32654572627403</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>12.00981660412628</v>
+        <v>14.03629233228264</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>27.9289805143625</v>
+        <v>33.40806691996991</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.67065423282376</v>
+        <v>35.47774690715505</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.58946945717004</v>
+        <v>13.60650600651485</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.04505538033732</v>
+        <v>26.48808430501212</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.72797010505809</v>
+        <v>30.32188419723659</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.962386896879671</v>
+        <v>3.615478782737565</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.5203801759694</v>
+        <v>26.25725698516115</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.34005887856955</v>
+        <v>30.99577749535701</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>8.701182105993436</v>
+        <v>4.186104352147343</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>37.59832429514695</v>
+        <v>42.29021060582591</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>7.543338967155329</v>
+        <v>8.886058596181076</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>17.7115094802127</v>
+        <v>16.80024630974953</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.20828838536837</v>
+        <v>20.62230999894851</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>1.468251382818096</v>
+        <v>4.299185589792035</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.79554914686577</v>
+        <v>20.75268897531204</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>23.28232736286551</v>
+        <v>23.17264975815022</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>6.142076412973292</v>
+        <v>8.036130978774086</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>32.90896591978645</v>
+        <v>32.900422141883</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.30568295785102</v>
+        <v>33.3379047665621</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>33.47128235400115</v>
+        <v>31.53870051333571</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.92825270239499</v>
+        <v>33.69500778203481</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>41.14983067902523</v>
+        <v>39.42703117002164</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>7.583168907151297</v>
+        <v>7.407058817367524</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.3608660075222</v>
+        <v>21.8063640202949</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.11894027255645</v>
+        <v>24.09289916573503</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>9.354050870193761</v>
+        <v>10.27557264941659</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>23.11998456914429</v>
+        <v>21.32524360570341</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.7665798672319</v>
+        <v>30.06852137602877</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>1.27871916182362</v>
+        <v>4.253264173646595</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>22.40326017458392</v>
+        <v>18.48818690786604</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.79458776253748</v>
+        <v>31.79215406028338</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>6.371645051465219</v>
+        <v>5.223977316085179</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.7173280760052</v>
+        <v>29.05128850699515</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>5.754864905637003</v>
+        <v>7.28475205368202</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>12.66391649733381</v>
+        <v>14.15395798611378</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.50055111866919</v>
+        <v>18.57069723777217</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1.126275009998704</v>
+        <v>3.406934384350798</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.71303972051079</v>
+        <v>13.72511877522311</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.04560937059511</v>
+        <v>24.21365757242447</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>3.829890046125229</v>
+        <v>4.331499761346656</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.63906582335492</v>
+        <v>26.98568038218924</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>32.01325287335612</v>
+        <v>32.86582923881524</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.56009949084052</v>
+        <v>25.19918689687069</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.52818013173445</v>
+        <v>28.64623804095209</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>32.64514393979644</v>
+        <v>34.23704341289424</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>5.039135590141338</v>
+        <v>5.600662892295635</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>18.07097201774023</v>
+        <v>23.22924669743086</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.34733553597444</v>
+        <v>29.28067608849879</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>6.94182984608241</v>
+        <v>6.742368765898597</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>18.67979580955505</v>
+        <v>18.1632240981899</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.67133530504539</v>
+        <v>24.47209321187811</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>0.2903444072661721</v>
+        <v>4.255167258422986</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>16.41018781619904</v>
+        <v>16.21644734080225</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.88077579632409</v>
+        <v>26.9208051162969</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>2.273603452792674</v>
+        <v>3.709348266973365</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.43752302040085</v>
+        <v>23.68445825926202</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>23.99705563578532</v>
+        <v>18.19284498323343</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>16.530416120464</v>
+        <v>17.78744222815533</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24.37860833123563</v>
+        <v>28.5977164927161</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.42715847914965</v>
+        <v>31.1335269706743</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>3.265040605795345</v>
+        <v>7.747849349449876</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>14.57153660547819</v>
+        <v>11.82308035706895</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>20.53280614526513</v>
+        <v>17.14091436020654</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>14.78481290875779</v>
+        <v>13.12984763335978</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>22.6151607413709</v>
+        <v>24.0791179851381</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.36046318591274</v>
+        <v>28.1665757554707</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-2.361751315099518</v>
+        <v>4.608209651027838</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>7.968877284811523</v>
+        <v>8.716387697129147</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>14.57560158870657</v>
+        <v>13.5538599435784</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>3.10535797610849</v>
+        <v>6.011853612370807</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>23.35256579062243</v>
+        <v>21.6814230145916</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.17225249384567</v>
+        <v>33.3713768887193</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.96842775170697</v>
+        <v>22.54749884187455</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>33.43110520744722</v>
+        <v>32.50071281560091</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>42.11766194727104</v>
+        <v>37.27389411287242</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>4.61120838012609</v>
+        <v>8.849097557694371</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>20.32746433812822</v>
+        <v>18.78170690674991</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.1234536981333</v>
+        <v>26.94493728029205</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>45.68860324307054</v>
+        <v>50.04653040007619</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.58867789794355</v>
+        <v>39.46995681554113</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.42166750744789</v>
+        <v>50.71948634625612</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.55649473823809</v>
+        <v>53.15443731774882</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>13.62539887451003</v>
+        <v>13.10797587918999</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>40.93455713916573</v>
+        <v>45.75616106460259</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>46.548350957186</v>
+        <v>49.74062648281762</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>19.3961178301798</v>
+        <v>23.59145833794478</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.35763329059902</v>
+        <v>34.66137678000059</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.7081856704384</v>
+        <v>40.05300735422942</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>6.608870768816796</v>
+        <v>5.734893125631931</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.86644918971659</v>
+        <v>34.89644471718924</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>37.43773815874957</v>
+        <v>39.57126883864392</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>16.28421325377482</v>
+        <v>12.02408673809791</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>52.51349125211121</v>
+        <v>55.56653567781817</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>59.23266230272074</v>
+        <v>59.69657375555413</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>60.37982785308867</v>
+        <v>62.19187802090387</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>64.82540346170218</v>
+        <v>71.00893274443384</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>74.29326019546087</v>
+        <v>76.35878663255133</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>24.65002949497787</v>
+        <v>27.90172789380978</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>58.52862379501622</v>
+        <v>64.36450198795364</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>65.03876576948954</v>
+        <v>66.62788177313931</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.21291430580594</v>
+        <v>49.96201892734731</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.0641963164618</v>
+        <v>30.86366584480101</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>40.71634788459977</v>
+        <v>37.35667275284364</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>48.20797598100848</v>
+        <v>48.18568235201646</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>8.777591560903339</v>
+        <v>9.296676296244598</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.96207372617768</v>
+        <v>35.76911187666396</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>45.55591062684154</v>
+        <v>43.95084767515739</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>15.56935923322428</v>
+        <v>17.0843277809315</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.02575478925542</v>
+        <v>30.67210082095449</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>40.71920251061987</v>
+        <v>41.04886856983583</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>4.166858397074119</v>
+        <v>5.090437315207666</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.79069661222287</v>
+        <v>29.60789536904136</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>38.90922239014034</v>
+        <v>39.24252552613899</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>14.39432479151717</v>
+        <v>10.01402917841613</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>52.64899385786592</v>
+        <v>46.9724867156869</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>60.7782055488631</v>
+        <v>63.52058767169383</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>60.61680514707682</v>
+        <v>52.80244822219952</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>64.06665604459819</v>
+        <v>57.92104454895721</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>75.48255233183708</v>
+        <v>77.2999683341</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>21.18143972877357</v>
+        <v>19.96008734917817</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>58.69778549568981</v>
+        <v>54.17539180166787</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>66.87954861538198</v>
+        <v>62.93842795473921</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>38.2343481518125</v>
+        <v>41.85216308093344</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>20.21378974272885</v>
+        <v>18.89544084369233</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>26.55283348330931</v>
+        <v>23.11246529233086</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.58677358298856</v>
+        <v>30.22006598966636</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>2.964970009941744</v>
+        <v>6.296200534864965</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>26.86794284244302</v>
+        <v>21.54200462674598</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.51098709586515</v>
+        <v>35.90428398335798</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>13.30371318527908</v>
+        <v>11.23835893366787</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.1762657004822</v>
+        <v>30.14425205237349</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.37760938068485</v>
+        <v>39.32789968455779</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>3.185949452855382</v>
+        <v>3.92760350235903</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>27.65877958194834</v>
+        <v>28.42128738490721</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>36.73072979113435</v>
+        <v>38.2482328421417</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>10.32975389095889</v>
+        <v>4.570410373529224</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>43.99632399051461</v>
+        <v>43.14081458106199</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>56.25815572320383</v>
+        <v>60.17637766392272</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>47.39111643336828</v>
+        <v>46.8187411449449</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>53.56169022977886</v>
+        <v>50.27034321699257</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>67.33551537118096</v>
+        <v>71.11057434005662</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>13.00357424352914</v>
+        <v>11.00166619333095</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>46.99014201981319</v>
+        <v>50.09953494360948</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>60.67829476980826</v>
+        <v>61.17364881412277</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>16.96368411793968</v>
+        <v>25.22140061421374</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.96030822096519</v>
+        <v>18.231188949692</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.69052533661201</v>
+        <v>37.24108945181099</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.633996315218472</v>
+        <v>10.67670420560931</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.70731297892483</v>
+        <v>38.63174652222015</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>33.88614818138963</v>
+        <v>42.94810292353206</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>12.99773122650514</v>
+        <v>13.7009589151234</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>37.5310940357942</v>
+        <v>55.06985690088712</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>45.19908254070396</v>
+        <v>58.27252553033406</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>23.81020026633139</v>
+        <v>17.66129862176702</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.53027438052422</v>
+        <v>19.60690158237277</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>32.8103143924671</v>
+        <v>19.33897888036751</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>21.2926417268604</v>
+        <v>35.28133485282547</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.51598829033153</v>
+        <v>16.73240443924913</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>39.50065117717649</v>
+        <v>44.64592825469627</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.46316686439306</v>
+        <v>18.01275660163416</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.41144764216938</v>
+        <v>27.99118192282754</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>32.85608473357519</v>
+        <v>39.82039254435431</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>10.69785555806403</v>
+        <v>33.64248507207926</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>21.52162017995454</v>
+        <v>37.50920476747506</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.24519220339253</v>
+        <v>38.92943578405026</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>4.892140694946281</v>
+        <v>5.817456818212769</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.86965748128906</v>
+        <v>20.89827531230105</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>19.03260914279236</v>
+        <v>30.46758866749375</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>32.92955921640936</v>
+        <v>31.96079306030361</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>38.39393861740233</v>
+        <v>36.47288263027502</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>11.12763060075639</v>
+        <v>8.964832411725023</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>43.01393920521139</v>
+        <v>54.40208579030077</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>45.84785086923352</v>
+        <v>52.42736459623403</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>16.91209802353845</v>
+        <v>9.434847426185055</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>54.55855712528847</v>
+        <v>55.66680046767971</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>58.62436949523308</v>
+        <v>55.45589967718995</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>52.90617542454545</v>
+        <v>56.9843831180814</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>60.03605083193523</v>
+        <v>58.46617583893023</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>63.15453503434962</v>
+        <v>57.99506160768985</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>34.09520198768329</v>
+        <v>61.10229218832451</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>53.38571261820604</v>
+        <v>73.06265345605668</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>62.71167978512831</v>
+        <v>76.96365460226809</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.01367327841883</v>
+        <v>29.03516415676275</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>40.43357758813099</v>
+        <v>37.77980544105532</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>43.57449004203961</v>
+        <v>36.79274353869333</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>16.26440762709131</v>
+        <v>33.59923114507827</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>42.271565591369</v>
+        <v>51.73636327901532</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>47.1761648181248</v>
+        <v>47.83145981811937</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>15.92444258229109</v>
+        <v>6.988410390991778</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>51.28914279996137</v>
+        <v>53.21891600425883</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>13.46689380364437</v>
+        <v>15.15589783508706</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.79640444465288</v>
+        <v>25.2183907823904</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.62506457960783</v>
+        <v>32.44436737644173</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>9.267294059162133</v>
+        <v>6.673950187965733</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>42.12376250538327</v>
+        <v>48.53397415982446</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>46.20006756581674</v>
+        <v>51.90319404663055</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>14.95721055342334</v>
+        <v>9.382321681400931</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>53.67811721046675</v>
+        <v>55.23129730566352</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>58.66424333831549</v>
+        <v>61.76817553850793</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>55.46572042047197</v>
+        <v>67.56117332477363</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>61.93557198746534</v>
+        <v>65.94176349475363</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>66.40930695935664</v>
+        <v>68.34091794607268</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.60777069396201</v>
+        <v>16.13244884947667</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>51.50949595625524</v>
+        <v>45.5530804957145</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>61.55763800503453</v>
+        <v>59.32865235537942</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>19.35507991943264</v>
+        <v>22.80744655195024</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.10928341183239</v>
+        <v>34.34813334902752</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>40.75928366672404</v>
+        <v>36.30266571332853</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>12.42179346301257</v>
+        <v>34.16239637664083</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>40.02379334248018</v>
+        <v>45.92102341018134</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>47.30472579023796</v>
+        <v>51.49127474421674</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>12.9251895835897</v>
+        <v>9.151301920649534</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>49.876661668496</v>
+        <v>49.48290226185607</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>9.180039290470329</v>
+        <v>6.704329794032368</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>21.10892513960734</v>
+        <v>14.79760418769309</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>31.24334916587127</v>
+        <v>26.95650580331198</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.948169041709987</v>
+        <v>7.724378518301791</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>38.36767751409691</v>
+        <v>52.53351247387094</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>46.94120836772647</v>
+        <v>54.42713570681857</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>13.25853990573648</v>
+        <v>3.501158980135489</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>47.10592206381897</v>
+        <v>56.53323329698281</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>56.55802697421436</v>
+        <v>58.92894292336644</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>42.54975226763872</v>
+        <v>60.82698496918172</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>48.87364296526646</v>
+        <v>60.51103632897242</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>54.85776200837787</v>
+        <v>67.17920844824773</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>21.82534029690382</v>
+        <v>12.49581155469823</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>38.74153533747599</v>
+        <v>31.30858297068212</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>54.74361177550093</v>
+        <v>64.68974702255971</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>15.86789223906011</v>
+        <v>14.95751288353316</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.46960018985305</v>
+        <v>30.105606493598</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>39.64555433010354</v>
+        <v>36.47455300779347</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>13.8584616749777</v>
+        <v>33.56729786861757</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>37.40448403412901</v>
+        <v>49.30230925993703</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>48.68731550385309</v>
+        <v>54.03592484664703</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>9.963647419871135</v>
+        <v>3.75133547395167</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>42.57044669827373</v>
+        <v>48.10111713609948</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>33.1950153175958</v>
+        <v>25.50841165027137</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.63716926047798</v>
+        <v>21.53556560372009</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>31.72948379971286</v>
+        <v>35.40388086616537</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>36.27489966859893</v>
+        <v>39.57406883677808</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.49171880002502</v>
+        <v>9.95952089485926</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>23.91170384913818</v>
+        <v>14.2889021615782</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.18875776355896</v>
+        <v>24.12632206970732</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.83531829354745</v>
+        <v>13.94107455941878</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.28725556259397</v>
+        <v>21.64176441661343</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.61118429880244</v>
+        <v>35.52188704657695</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>8.324233910603095</v>
+        <v>33.44846366372441</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>22.62711697760809</v>
+        <v>37.12730597216698</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.1892605846211</v>
+        <v>40.58761412257827</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.998996160167206</v>
+        <v>5.663234904039573</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.86755513341875</v>
+        <v>25.10537197249795</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>41.29713380986911</v>
+        <v>46.55670364458919</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>31.97807245199679</v>
+        <v>25.05220546423755</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>44.4147215819698</v>
+        <v>47.05340678593943</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>50.50236296276044</v>
+        <v>55.39375747911969</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.61204172507007</v>
+        <v>7.337871467796916</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.28658209283261</v>
+        <v>22.62432671164552</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>40.54974726129801</v>
+        <v>37.65515989957692</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>58.1084682811782</v>
+        <v>54.96417927904598</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>56.17976344779233</v>
+        <v>58.19305368334746</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>62.27754228115963</v>
+        <v>61.76978271710114</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>64.90534458130844</v>
+        <v>57.99588901174036</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.82660541159825</v>
+        <v>33.01750501916828</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>60.42611315991383</v>
+        <v>57.87906713898571</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>64.63409662997283</v>
+        <v>62.61040890401294</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.31621717769336</v>
+        <v>33.1993978606443</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>44.45860887256568</v>
+        <v>38.77184852657651</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>46.90961090719814</v>
+        <v>41.44985660475167</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>19.37815895247139</v>
+        <v>34.91345182899657</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>51.89629848017975</v>
+        <v>60.79644677511067</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>53.10871760296249</v>
+        <v>54.14584260691678</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>21.80543193209494</v>
+        <v>8.667380105488828</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>64.40688532345609</v>
+        <v>67.03539618499236</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>69.22935367954544</v>
+        <v>64.21634464390226</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>76.87253842499091</v>
+        <v>81.91053259207865</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>83.32682723336882</v>
+        <v>81.78482835230029</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>86.97591437747404</v>
+        <v>82.53606463007512</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>39.70617067876887</v>
+        <v>42.52821381658102</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>76.48569871256011</v>
+        <v>75.98491751948923</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>81.36475055005344</v>
+        <v>77.56727240629428</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>58.80758895435167</v>
+        <v>62.75295952972699</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>53.71036555926121</v>
+        <v>49.81803516606973</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>58.84952693479946</v>
+        <v>54.23617870379744</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>63.48782905496073</v>
+        <v>57.706390283213</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.15216964097249</v>
+        <v>25.96505980098853</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>59.00421332980692</v>
+        <v>54.0529443740862</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>64.83441099403983</v>
+        <v>61.01042936778259</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>23.06536681200977</v>
+        <v>26.08512182950997</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>42.27351325548585</v>
+        <v>37.31656676756204</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>45.69419367753765</v>
+        <v>43.09082328861223</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>16.28574728761078</v>
+        <v>36.10262214903661</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>51.650753192812</v>
+        <v>58.21535340027781</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>54.24150487505769</v>
+        <v>59.06710935069498</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>19.60995792476353</v>
+        <v>12.19064071944405</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>64.89592746659446</v>
+        <v>67.45489981096912</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>70.74397155203802</v>
+        <v>73.18509912841526</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>79.05816714211429</v>
+        <v>82.24318930515147</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>83.71696370294957</v>
+        <v>79.12243254509234</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>89.07405527747009</v>
+        <v>86.98909392376221</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>37.3592944539139</v>
+        <v>32.09116808417157</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>78.19103883720436</v>
+        <v>74.17643723802118</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>84.40860601663272</v>
+        <v>81.77553871340267</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>55.17766089396179</v>
+        <v>58.10040139878542</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.50174322704946</v>
+        <v>28.60679136639525</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.64611086712341</v>
+        <v>33.01284613258862</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>51.23308546800537</v>
+        <v>43.20511580049658</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>16.38827624051826</v>
+        <v>16.42965435947937</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>47.38220069689119</v>
+        <v>53.0486351750385</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>57.14933210306157</v>
+        <v>57.88234398858893</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>20.83330837155143</v>
+        <v>18.98274484383846</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>40.37117381984643</v>
+        <v>36.20105143723199</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>47.43946803241586</v>
+        <v>43.90678387665716</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>18.56263161795351</v>
+        <v>36.33904969376464</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>49.56909694895594</v>
+        <v>58.71318457602801</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>57.43985748596639</v>
+        <v>63.68695030004083</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>18.6193484081762</v>
+        <v>4.644063981519679</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>59.86921338834958</v>
+        <v>65.24991429273943</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>71.0774278549568</v>
+        <v>70.30338955164191</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>64.19442222784467</v>
+        <v>77.08228034310851</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>73.90620767142757</v>
+        <v>77.87150941794516</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>83.55644907646868</v>
+        <v>88.98130622694831</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.31845691987342</v>
+        <v>22.01593716353592</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>66.31503546536523</v>
+        <v>70.51129821687535</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>78.54650433591611</v>
+        <v>80.3672364897658</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.589</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.393</v>
+        <v>16.009</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.384</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.448</v>
+        <v>20.332</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.961</v>
+        <v>9.705</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18.78782196794799</v>
+        <v>10.32770567080018</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.12976689464814</v>
+        <v>16.53739457419934</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.1755171653813</v>
+        <v>25.06716737554241</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.847431865933569</v>
+        <v>-1.92042273654954</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.35337773073235</v>
+        <v>15.122721178002</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.61585047472884</v>
+        <v>21.22364124650932</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.791502556807142</v>
+        <v>4.703733505621258</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>43.27189475909056</v>
+        <v>26.19237665820459</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>47.34995522132864</v>
+        <v>33.75361456928138</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16.18687947960257</v>
+        <v>19.90251828812139</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.83119461821935</v>
+        <v>26.46186814816603</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>19.7308501380425</v>
+        <v>28.77393604223133</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20.17803174084056</v>
+        <v>12.01549424404551</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20.42188186358309</v>
+        <v>18.66474564966802</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>48.11976181255282</v>
+        <v>31.63196223012731</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.12079329376527</v>
+        <v>14.28027162888216</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.91555127035229</v>
+        <v>22.98471366602439</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.44086020746626</v>
+        <v>29.00601070430525</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.523053802099241</v>
+        <v>-2.63438993427652</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.73471540875777</v>
+        <v>10.61812224634454</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.99869342665876</v>
+        <v>17.62339690311138</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.863284963120616</v>
+        <v>-1.465315005179026</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>15.99503351298145</v>
+        <v>19.45185530541564</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.39940279493584</v>
+        <v>12.38099747872019</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.67608646720706</v>
+        <v>27.63360084840987</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>33.49382905803933</v>
+        <v>32.28271449029633</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.141926998756627</v>
+        <v>2.282985968003327</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>36.23497139518087</v>
+        <v>32.13752545870526</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35.48378799937542</v>
+        <v>34.04397807631975</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.447112687926058</v>
+        <v>12.14235518348812</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>48.45582842345082</v>
+        <v>45.56738639833301</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47.92593830709227</v>
+        <v>49.13050888358551</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.96271320992111</v>
+        <v>48.08775590966751</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.88151290469706</v>
+        <v>55.90046821620783</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>54.01494045561781</v>
+        <v>57.31678668567101</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>46.04625075940032</v>
+        <v>26.5109033439268</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>62.16294414925537</v>
+        <v>47.69971396067294</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>65.24924794746369</v>
+        <v>55.4673634508132</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>24.29100357778112</v>
+        <v>18.93237566371306</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.84338278570864</v>
+        <v>37.64493947444313</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.18193263075617</v>
+        <v>41.86828663212194</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.943426386212288</v>
+        <v>5.713458558109465</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.15265154859991</v>
+        <v>33.86499267553263</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.8593581970081</v>
+        <v>39.00852500564628</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4.648043459054307</v>
+        <v>12.83717830307395</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>49.76104271130501</v>
+        <v>47.56767136042845</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>9.34882211700916</v>
+        <v>6.269428994927331</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.18083600814783</v>
+        <v>22.95737773759635</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.27679795150623</v>
+        <v>28.20846016046419</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2.804034042521401</v>
+        <v>-0.6004628608976184</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.39605906064276</v>
+        <v>30.90955333068812</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36.28728278120323</v>
+        <v>33.80311443794742</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8.259120315069975</v>
+        <v>9.112216506268457</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>48.56185528292994</v>
+        <v>44.03141001710905</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>53.59843149287725</v>
+        <v>48.41503924662732</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>58.89790220527611</v>
+        <v>48.87409089076158</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>59.40643743384021</v>
+        <v>56.21951987308572</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>64.27950950119816</v>
+        <v>58.85893126116947</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>17.25561166550077</v>
+        <v>21.97590826719457</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>44.23261730173313</v>
+        <v>46.03364224301989</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>53.78115542819246</v>
+        <v>54.41675810506673</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>14.89075698848734</v>
+        <v>12.58992400278989</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.78543503954081</v>
+        <v>33.05159509549296</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.42318105463774</v>
+        <v>38.76277310829445</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>9.025115424608412</v>
+        <v>1.65802042204146</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.7982629660803</v>
+        <v>32.11313410351481</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>35.57968278545746</v>
+        <v>39.22722146988271</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6.828403010939702</v>
+        <v>9.479005203797646</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.4817904004134</v>
+        <v>46.2376575009698</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4.670187298500984</v>
+        <v>2.611544436072741</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>14.96306113151177</v>
+        <v>15.9995684269746</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>24.49293025179243</v>
+        <v>25.74247890006091</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1.844526555439845</v>
+        <v>-0.3434434011748593</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.37239909024723</v>
+        <v>26.09752814533656</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.9292635027414</v>
+        <v>34.24315358728813</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.261892528421441</v>
+        <v>6.060556611692185</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.03661750485127</v>
+        <v>36.34572448155381</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>50.46058460695758</v>
+        <v>45.67331249108802</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>43.52481965389273</v>
+        <v>35.57209802922679</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>45.44317172246696</v>
+        <v>42.88182672082561</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>55.0020039780528</v>
+        <v>47.89964122407315</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>10.90374918272568</v>
+        <v>14.01448114355882</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.24707928274303</v>
+        <v>33.15715073117622</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>58.83891879742239</v>
+        <v>47.58540131562523</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>9.257173683402034</v>
+        <v>10.01602040533616</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.76155441273971</v>
+        <v>27.68592690667305</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35.47430618238931</v>
+        <v>36.76547513608512</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>8.46627204379325</v>
+        <v>2.321989339197636</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.74554837904974</v>
+        <v>27.48924905736415</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>40.69704331645389</v>
+        <v>38.65487893143842</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.035177575482894</v>
+        <v>5.468215881413276</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>40.21615495366724</v>
+        <v>37.52182640250128</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>21.12680580958225</v>
+        <v>27.62923444143924</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>17.03181453474144</v>
+        <v>18.19744154440031</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.83373484629435</v>
+        <v>27.54079855066995</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>32.10292408331188</v>
+        <v>31.73841466417354</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.564958235714954</v>
+        <v>3.776733147017985</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>12.28655445786048</v>
+        <v>19.52945909219237</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>19.5045752098626</v>
+        <v>27.97930144537867</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>14.76444918852399</v>
+        <v>14.03292733084314</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>23.07788230224203</v>
+        <v>24.21854938722004</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.73179792137008</v>
+        <v>32.33037490557906</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>8.637894441159165</v>
+        <v>-5.133522894354741</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>12.85973780166405</v>
+        <v>11.58791497263352</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>17.83506607814844</v>
+        <v>20.17874126120003</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3.8726248823688</v>
+        <v>0.2502745180524357</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>18.09995593546063</v>
+        <v>24.65529910097819</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.10099597115135</v>
+        <v>35.03456842748162</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>21.08934730044234</v>
+        <v>29.71786887997754</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>40.16554355836416</v>
+        <v>40.72223406825294</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>46.97746943508646</v>
+        <v>46.97298917891938</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.79430026783524</v>
+        <v>5.114253161504084</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>17.45389611383942</v>
+        <v>25.64037926019653</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.67557027008355</v>
+        <v>38.42354732422346</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.21703983331857</v>
+        <v>54.03337395418336</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>56.36247891147617</v>
+        <v>52.17367378911938</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>61.74078151208164</v>
+        <v>60.5100577410403</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>59.94239455873937</v>
+        <v>63.04920646286725</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>27.44139948282148</v>
+        <v>24.85389690001049</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>58.56873133531845</v>
+        <v>57.76387846533297</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>61.80542238776277</v>
+        <v>63.18802418410094</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>30.9828564572552</v>
+        <v>22.36575233737522</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.72802904926705</v>
+        <v>43.74991847595818</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>45.29059735834683</v>
+        <v>48.00533487500371</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>10.55621912029031</v>
+        <v>8.977058359470604</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.50803929065525</v>
+        <v>42.70634565228244</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>46.15126825304262</v>
+        <v>46.50594900319221</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>8.485784672651381</v>
+        <v>20.0196409740716</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>68.42004296965312</v>
+        <v>60.07224976654613</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>65.25608804454296</v>
+        <v>65.90722389816966</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>82.1509848509621</v>
+        <v>74.52804980331837</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>84.43302507433586</v>
+        <v>82.87472775988364</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>85.31932741454447</v>
+        <v>86.64952509336564</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>40.80132181864231</v>
+        <v>35.95907930021352</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>79.40364417225535</v>
+        <v>74.796807014764</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>79.62884259737244</v>
+        <v>81.88903041892169</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>58.60871817603262</v>
+        <v>54.45483186986617</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>46.14091370252669</v>
+        <v>50.1785293783681</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>53.24558316949583</v>
+        <v>57.76037556893854</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>59.64732618980025</v>
+        <v>62.06743384861137</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>16.0584490018888</v>
+        <v>19.9570165817853</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>54.16856535676254</v>
+        <v>56.42067215031956</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>61.45086575201283</v>
+        <v>63.45323630620274</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>17.91858343019579</v>
+        <v>17.2085479212871</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.39529935430399</v>
+        <v>41.21116745384277</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.87845987478195</v>
+        <v>46.35035449533579</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>9.769865037681907</v>
+        <v>6.289199032520088</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>40.19036679215901</v>
+        <v>43.44207025384816</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.37132368014193</v>
+        <v>48.40409393957646</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>9.085705267083174</v>
+        <v>18.02537590559875</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>65.14935028830051</v>
+        <v>61.09687938821529</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>73.08079205928074</v>
+        <v>67.91781494515809</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>79.82553995413579</v>
+        <v>76.56019751358005</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.46931957806896</v>
+        <v>83.99785793975084</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>89.10979049688464</v>
+        <v>89.20307601060937</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>23.61984510937373</v>
+        <v>33.77903103143216</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>75.20222846173621</v>
+        <v>77.08830464605242</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>84.11091379243355</v>
+        <v>85.28298666838248</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>56.25365562037137</v>
+        <v>49.48296512094374</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.26671858656587</v>
+        <v>32.8442617786692</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>30.54688769116632</v>
+        <v>42.29968519318371</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>40.87371256518341</v>
+        <v>50.31887428729806</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>9.810610305794984</v>
+        <v>10.54705911410725</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>49.61313537727358</v>
+        <v>42.38725623732623</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>58.777981144148</v>
+        <v>53.95136561305939</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.53866109004736</v>
+        <v>15.46395220829346</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.21863236007104</v>
+        <v>37.27181739605143</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>46.14211937846809</v>
+        <v>47.027807728977</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10.22975862734654</v>
+        <v>6.453245062888634</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>41.99678335735832</v>
+        <v>38.59453100937606</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>52.21198373523625</v>
+        <v>49.33289545815555</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.398239712159999</v>
+        <v>14.32910065844649</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>59.5965196992904</v>
+        <v>53.01411489009075</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>71.98539700409634</v>
+        <v>65.29750098810405</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>67.39522053557673</v>
+        <v>60.05272357339909</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>73.64974261486337</v>
+        <v>71.00476548592174</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>88.47071015676428</v>
+        <v>80.63503746126044</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>11.9545524825181</v>
+        <v>22.25925153992479</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>64.13826324208837</v>
+        <v>61.91583258075637</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>80.5441839590322</v>
+        <v>76.55498687728985</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>16.07105274084038</v>
+        <v>12.193835894858</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>16.39435032131577</v>
+        <v>19.77819294738576</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.58078369010539</v>
+        <v>27.74039116363671</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-0.04703539598624573</v>
+        <v>2.142179838225982</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.57305304411691</v>
+        <v>19.90920678416044</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>24.4253579183557</v>
+        <v>24.28712009790729</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>5.45302161358142</v>
+        <v>9.195115505424784</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>47.08180389653914</v>
+        <v>31.49352427850685</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>48.95324715471206</v>
+        <v>37.49921034278034</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>17.68465121161096</v>
+        <v>23.21312228423348</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>21.80250266700561</v>
+        <v>29.48516703754566</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>20.23047891405302</v>
+        <v>30.79161187375336</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19.6466611553282</v>
+        <v>8.782243182041446</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>16.67182109217126</v>
+        <v>16.98818139955262</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>36.10830403865182</v>
+        <v>26.43082531877189</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10.8198675677547</v>
+        <v>12.37646493734659</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.99988870527218</v>
+        <v>24.51706551587514</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>33.01186021371316</v>
+        <v>29.20666547944739</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-0.7280112624461843</v>
+        <v>-4.026865372189018</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>10.08930182291898</v>
+        <v>12.98933517248367</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>14.91464970132072</v>
+        <v>17.97934798888001</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.2979460964904064</v>
+        <v>1.922811980859692</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.04951064000828</v>
+        <v>26.40588802305006</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.43849759591721</v>
+        <v>14.12372005975931</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>32.21329914092221</v>
+        <v>29.95275005599862</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>35.00103412956282</v>
+        <v>34.86304111290717</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.1495019561779678</v>
+        <v>6.335833193842227</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>35.51969424120257</v>
+        <v>35.9722913842828</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.26747232176668</v>
+        <v>36.9488852506917</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>4.636543726246671</v>
+        <v>16.1087050625496</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>57.48885763761169</v>
+        <v>49.40440363833142</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>54.46405312516484</v>
+        <v>52.20202563485185</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>46.69498112488476</v>
+        <v>46.95482873271975</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>59.38334072910823</v>
+        <v>54.0985685348619</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>56.56661725272194</v>
+        <v>55.41322845207582</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>32.28106654128582</v>
+        <v>18.39314937655526</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>52.11123784682297</v>
+        <v>40.31659631494427</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>55.18564292660297</v>
+        <v>45.4756204501327</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>22.70101334360934</v>
+        <v>13.74539646744877</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>35.39036938694309</v>
+        <v>34.862947495024</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>39.23166658188114</v>
+        <v>38.89607469991407</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-0.8105664399371904</v>
+        <v>0.9360398883897574</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>33.11325781125083</v>
+        <v>31.85880319826219</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>38.73203946810129</v>
+        <v>36.14761398140287</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1.88060019519742</v>
+        <v>11.71150679127487</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>58.42094513217711</v>
+        <v>48.94557644434842</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>6.873701761541767</v>
+        <v>8.724561135814501</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.34834038294424</v>
+        <v>25.79483447319055</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>31.58317540054018</v>
+        <v>31.32154140795175</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-1.2828710631387</v>
+        <v>3.921888813964873</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>36.82506972235952</v>
+        <v>35.01407045124279</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>37.00078510656971</v>
+        <v>36.93924174812228</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>2.551939151257244</v>
+        <v>13.47148776798129</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>56.86601105418296</v>
+        <v>48.03719514331645</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>56.95704846357792</v>
+        <v>51.65873315132617</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>54.64657948050639</v>
+        <v>47.27305260264546</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>62.24710561619153</v>
+        <v>53.89704487229446</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>65.92694623747364</v>
+        <v>56.49644183021817</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>4.697986570697189</v>
+        <v>13.59527286499726</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>32.1791330479058</v>
+        <v>38.18235499018194</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>38.59555863720261</v>
+        <v>44.00683017490965</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>14.41237414087742</v>
+        <v>7.987072634854972</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.77053330150538</v>
+        <v>30.47355911601568</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>38.17057056616488</v>
+        <v>35.93018768528298</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-1.072261865531221</v>
+        <v>-2.791107964641427</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>30.83846945964835</v>
+        <v>30.0270371672747</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>38.75406612631917</v>
+        <v>36.10175242871274</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.5602677018031557</v>
+        <v>8.346344496779878</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>51.20942829912951</v>
+        <v>47.18336672657007</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>4.040785660252503</v>
+        <v>5.804362564940146</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>16.58807260052321</v>
+        <v>19.81649587376905</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.16549082357162</v>
+        <v>29.23278346435067</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-1.07782953088871</v>
+        <v>4.156741265264834</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>36.18445897562572</v>
+        <v>30.44249701056215</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>43.05247535514611</v>
+        <v>36.9039458108642</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-0.2785479162194058</v>
+        <v>10.90867542833888</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>56.48454102686277</v>
+        <v>41.10237348816138</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>59.31708519040032</v>
+        <v>49.00871090868061</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>53.499900371794</v>
+        <v>37.19951187601132</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>60.01673643546366</v>
+        <v>43.9349274861482</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>64.17887523081737</v>
+        <v>48.11521735343401</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>2.134938648394428</v>
+        <v>9.154161893521886</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>33.2819263976116</v>
+        <v>29.05154004603634</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>47.3479860381013</v>
+        <v>40.10662619621714</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>6.752599416654217</v>
+        <v>6.078877519736579</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.8458669162497</v>
+        <v>25.99809773663371</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>34.72230305229921</v>
+        <v>33.57204905384001</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1.30270011752571</v>
+        <v>-2.507425940998637</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.19734381279335</v>
+        <v>25.06713765862257</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>36.47909527533497</v>
+        <v>33.66932167628629</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-0.4854996221513304</v>
+        <v>4.614089634937812</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>45.3991156774574</v>
+        <v>38.8587534483181</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.76687396363963</v>
+        <v>32.78535476719775</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>24.10451298206068</v>
+        <v>22.31126139765455</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>41.0851154485577</v>
+        <v>33.52103911637801</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>45.05490479770636</v>
+        <v>37.67432471643465</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>9.463624355046633</v>
+        <v>4.533849425032699</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.81066716501676</v>
+        <v>23.74417456527071</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.09953686950846</v>
+        <v>29.90840461212868</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.16104689945803</v>
+        <v>13.75899382549715</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.62359981670212</v>
+        <v>28.26702756816919</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>37.57526140123061</v>
+        <v>36.50217306713748</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-0.2998088973097559</v>
+        <v>-7.34121227716377</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10.77451312592237</v>
+        <v>14.61069622926797</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>21.30445121599783</v>
+        <v>22.36863269295849</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>2.948045394104529</v>
+        <v>3.930454509820215</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>33.52470234478135</v>
+        <v>33.07104140097188</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>55.6925694801084</v>
+        <v>42.66911889431684</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>31.19019454975802</v>
+        <v>34.55100201208462</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>46.47864195163081</v>
+        <v>45.73418957138905</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>54.91063709084258</v>
+        <v>52.77862920866086</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.587265847872086</v>
+        <v>4.958083384131655</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>26.50919572285937</v>
+        <v>30.80600026345868</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>40.53977914647163</v>
+        <v>41.62621642150494</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>67.60519280704374</v>
+        <v>54.72541910338393</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>56.66966212953632</v>
+        <v>48.93223740291319</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>69.88676812251423</v>
+        <v>58.5878757085956</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>72.11597649300111</v>
+        <v>62.70559811979084</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>24.69316537390853</v>
+        <v>18.15651452466181</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>64.2058992975211</v>
+        <v>54.04109707535623</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>67.72394523643324</v>
+        <v>58.22687654257175</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>32.37047045053049</v>
+        <v>18.36847121588653</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>42.37980220551126</v>
+        <v>43.16108552339046</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.98624828184911</v>
+        <v>48.35202664925237</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>1.016333752734475</v>
+        <v>2.679519855756116</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>43.02282622090227</v>
+        <v>40.82198238238347</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>46.71589073952163</v>
+        <v>44.47837854865264</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>6.838215720969121</v>
+        <v>18.81446661862076</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>70.4972370093143</v>
+        <v>62.65699928496328</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>74.69725607310635</v>
+        <v>68.44350496283577</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>77.01508969742777</v>
+        <v>71.20725705232525</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>85.11906352689927</v>
+        <v>79.84305471189282</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>90.19923029734399</v>
+        <v>85.73967075593865</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>36.95445860007983</v>
+        <v>27.74390809974958</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>79.78558692185632</v>
+        <v>71.66697671685458</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>82.7125590660803</v>
+        <v>77.36981922230497</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>64.9832792965958</v>
+        <v>54.59591773359178</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>49.76860442172809</v>
+        <v>46.12933850395525</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>57.99336832644187</v>
+        <v>54.83896903201425</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>67.64319578602803</v>
+        <v>60.7473501647039</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>12.92953303921556</v>
+        <v>12.51574113162</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>56.2201458749641</v>
+        <v>51.57379515523805</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>61.33572264314157</v>
+        <v>57.25014418673013</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.85661138997331</v>
+        <v>13.27958930960598</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>38.98508235616573</v>
+        <v>40.40144521404731</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>45.48568153929445</v>
+        <v>46.34145414186132</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-0.2596013023051214</v>
+        <v>0.08072820017945048</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>42.67833802167368</v>
+        <v>41.37503488576207</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>44.83220056644976</v>
+        <v>45.92736077141272</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>3.860369677738738</v>
+        <v>16.60192190127328</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>68.0621797987589</v>
+        <v>63.15552209869026</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>76.14627512259773</v>
+        <v>69.7471511846022</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>73.73649585223954</v>
+        <v>72.20152343345177</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>79.27308285744157</v>
+        <v>80.00334141276841</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>93.43626644403393</v>
+        <v>87.25317283331839</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>18.23540845746536</v>
+        <v>24.5918203388368</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>75.49631300761592</v>
+        <v>72.85039307059044</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>81.1390462927707</v>
+        <v>79.46357644365574</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>60.99619655885408</v>
+        <v>48.66150661310831</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.68627870734068</v>
+        <v>31.06404039858248</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>39.25033532264482</v>
+        <v>41.88414273372815</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>49.01501154325835</v>
+        <v>49.95248672661161</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>6.745214309071734</v>
+        <v>5.674039326388954</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>49.21076325693147</v>
+        <v>39.59902998843432</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>57.07524723725275</v>
+        <v>48.50544674048991</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.34161547040024</v>
+        <v>12.6665635407526</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>40.28483084028375</v>
+        <v>37.94661133140856</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>46.24448117420867</v>
+        <v>47.71866727607596</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-0.8388311513386704</v>
+        <v>0.9439089397101164</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>43.25447019899134</v>
+        <v>37.4666033011099</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>47.54937019688734</v>
+        <v>46.88882779906591</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-0.3907668670488817</v>
+        <v>14.14661323725302</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.28951186971052</v>
+        <v>56.63024270436242</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>75.57825663549204</v>
+        <v>67.84884851187181</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>69.89984973431973</v>
+        <v>59.50301168755555</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>73.14633329322014</v>
+        <v>70.56821845220995</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>88.44409912057634</v>
+        <v>81.04233377640367</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>8.937170216823358</v>
+        <v>16.90502232610477</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>74.24948154556682</v>
+        <v>61.35373795735904</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>81.25855709124342</v>
+        <v>73.74606789025972</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>5.521156637060191</v>
+        <v>9.615121008552169</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>6.506820018116567</v>
+        <v>19.14148308504986</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.55713074385695</v>
+        <v>27.95843753312793</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-0.02398532729693059</v>
+        <v>-1.855691575976895</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>9.033186389670657</v>
+        <v>19.23116706771876</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>12.1459033868757</v>
+        <v>25.56772467187945</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>5.524283255531909</v>
+        <v>6.774384950127203</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>40.11560790906544</v>
+        <v>32.15609452125618</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>41.12891953639256</v>
+        <v>39.86896534542541</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>12.57777018804953</v>
+        <v>23.39401879824183</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>15.1345003204185</v>
+        <v>30.96687872015272</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>16.16319362922369</v>
+        <v>33.01376069268406</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.48882652366781</v>
+        <v>11.2717106052615</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>32.4016083455652</v>
+        <v>21.03575164228511</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>37.59779523060716</v>
+        <v>33.69226361311971</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>19.21192654460147</v>
+        <v>18.01304788927575</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>32.33724722422455</v>
+        <v>30.80939165453564</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.72438028175235</v>
+        <v>35.29399531646824</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-3.87597619169923</v>
+        <v>0.1100759116912862</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>9.47782866555935</v>
+        <v>18.62171624516336</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>16.32289107020853</v>
+        <v>23.94804693672845</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>2.84708728610163</v>
+        <v>5.047160949048031</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.20872623788276</v>
+        <v>30.95685040565768</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.94324269424312</v>
+        <v>13.51202071284944</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>39.30904771085154</v>
+        <v>32.41082047670815</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>35.87714413003078</v>
+        <v>37.13354993567513</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.7611280207839144</v>
+        <v>3.918953417141712</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>37.45882152844464</v>
+        <v>38.20383825787594</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>39.88285877775694</v>
+        <v>40.05919922079708</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>5.527720376545243</v>
+        <v>16.13731285041047</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>63.9088798501277</v>
+        <v>53.78879267642498</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>56.11815226896522</v>
+        <v>57.2681777547639</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>44.21005295101399</v>
+        <v>52.95086575468073</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>57.09378198982955</v>
+        <v>61.73132894947351</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>59.86075528706694</v>
+        <v>62.83274717912877</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>32.34965075759756</v>
+        <v>26.25566959546552</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>32.10648178958247</v>
+        <v>50.92110319693947</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>26.64907977006268</v>
+        <v>58.20939638628765</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.17331686733605</v>
+        <v>23.71292013451862</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>51.65880578534232</v>
+        <v>46.71260126318876</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>48.18000552751047</v>
+        <v>48.99009118998617</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-3.568351348199748</v>
+        <v>8.882646062388392</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>44.38406430782184</v>
+        <v>42.60471136349414</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>49.36526353258186</v>
+        <v>45.4901020602165</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>4.88618968938918</v>
+        <v>20.00678691700863</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>76.41909982054719</v>
+        <v>59.96675245086092</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>5.196489890189746</v>
+        <v>8.000767293473535</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.34813723048239</v>
+        <v>28.39251202515894</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.67616936933062</v>
+        <v>33.60900063345307</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-1.033225591280434</v>
+        <v>1.656561793830051</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.21949123727092</v>
+        <v>37.65540725449284</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>36.373498625591</v>
+        <v>40.34678853899649</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>4.286018349550144</v>
+        <v>13.74681449939917</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>56.11163385694097</v>
+        <v>52.93740063875293</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>57.04342998107811</v>
+        <v>57.11054858520954</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>55.2408285017293</v>
+        <v>54.344923537253</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>67.45703625025516</v>
+        <v>62.66936387489218</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>72.07957648831504</v>
+        <v>64.92163837147007</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.14200318035779</v>
+        <v>22.20174616849669</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.37823333985007</v>
+        <v>49.84055623982841</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>23.29483725683422</v>
+        <v>57.62941920486249</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>16.50428255154325</v>
+        <v>17.71176055620045</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>42.98901820706145</v>
+        <v>42.50637807261985</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>44.4754598325428</v>
+        <v>46.09493399338288</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-4.403876807069135</v>
+        <v>5.116413640315955</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>30.1230139514867</v>
+        <v>41.1930938411747</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>40.77019543672515</v>
+        <v>45.79511247110585</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>1.669832538546114</v>
+        <v>16.87445072956312</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>61.98360474157985</v>
+        <v>58.89715355631637</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>5.511544696679778</v>
+        <v>4.273807230069021</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>30.36219520500149</v>
+        <v>21.22611909874547</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>33.3027330240877</v>
+        <v>31.10648556350373</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>0.9729016828009556</v>
+        <v>2.083587964567204</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.67578956735161</v>
+        <v>32.86062139243265</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>40.47727114059271</v>
+        <v>40.98753744589043</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>4.779616023111096</v>
+        <v>10.73331908309615</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>62.31721490802563</v>
+        <v>45.16267448714989</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>61.34913201879704</v>
+        <v>54.42996142551348</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>57.5703440618562</v>
+        <v>41.54315875167359</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>64.07105484549039</v>
+        <v>49.93539178974623</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>70.89267836003279</v>
+        <v>54.5296745885861</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.51631979733499</v>
+        <v>15.11321181648618</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.16710639481365</v>
+        <v>37.69873589966525</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>24.87821198616727</v>
+        <v>51.62491450416834</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>15.5569189769127</v>
+        <v>14.77357733607868</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>39.13673789571376</v>
+        <v>36.76220960458012</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>43.28871855514442</v>
+        <v>43.8367142247491</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-3.54226592841632</v>
+        <v>5.744981493888538</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>32.06189500778694</v>
+        <v>36.46338458577922</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>48.0604533243218</v>
+        <v>45.29050917724587</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>1.94205891736642</v>
+        <v>12.73909896169508</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>57.57825659204863</v>
+        <v>50.02520216443168</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>30.82265733249749</v>
+        <v>37.49150602237681</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.31252827153661</v>
+        <v>29.07106524053606</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>50.62603799782565</v>
+        <v>40.0936439900149</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>51.92793738925209</v>
+        <v>43.80925283939472</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>12.99904025979331</v>
+        <v>12.0401878858347</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.80794536295131</v>
+        <v>32.30994364061745</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.74465421220376</v>
+        <v>39.10614712219882</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>23.88336998076204</v>
+        <v>16.88394506037331</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.11518110813392</v>
+        <v>30.83039058802932</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>38.70635293264971</v>
+        <v>37.35729977963351</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-5.270189150305871</v>
+        <v>-5.398699647170169</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>5.44763799638601</v>
+        <v>16.18021359608912</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>13.52725647712419</v>
+        <v>23.03563625500378</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>4.040596757417521</v>
+        <v>3.343703607933627</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.98334915101553</v>
+        <v>32.32203059746594</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>46.85264403738211</v>
+        <v>40.99155120966837</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.96485954237141</v>
+        <v>35.89701760371739</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>48.12885762816742</v>
+        <v>48.16321799175071</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>54.43528462852306</v>
+        <v>53.60929199106081</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>12.71777879423569</v>
+        <v>8.84117322903359</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.0445170510232</v>
+        <v>33.98500688310608</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>44.14618574038188</v>
+        <v>44.43545428481551</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>79.16823940985665</v>
+        <v>64.29543814249595</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>77.95872275495813</v>
+        <v>63.47463036157725</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>85.70432467747744</v>
+        <v>73.28056021548994</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>88.49712172645199</v>
+        <v>75.33610781850439</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.37329965013871</v>
+        <v>33.14002514477322</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>82.08122651624798</v>
+        <v>70.88596833995626</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>85.82924545054738</v>
+        <v>74.12015930144013</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>36.03395450725176</v>
+        <v>24.3225440279411</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>52.74500826983521</v>
+        <v>49.60806709119996</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>50.325009028419</v>
+        <v>51.73901956261439</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-2.154125404856234</v>
+        <v>7.419648655389407</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>47.14395745098351</v>
+        <v>46.23859083962072</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>50.03985296234521</v>
+        <v>47.57659800715915</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>9.142790514274107</v>
+        <v>21.6338095166261</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>80.2501104242625</v>
+        <v>66.42036592005307</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>78.8464465905477</v>
+        <v>69.91243860986337</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>86.4232698691977</v>
+        <v>79.02441326598696</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>90.71959436843368</v>
+        <v>88.46707719164165</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>94.7637668085395</v>
+        <v>91.34392960251169</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>47.44966812397869</v>
+        <v>37.78957343261376</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>92.39128002719225</v>
+        <v>81.56795094992988</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>90.99720588822686</v>
+        <v>85.59099820682925</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>78.03078960942273</v>
+        <v>64.76139152841685</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>62.8858490385732</v>
+        <v>61.65735161419109</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>74.6843648809172</v>
+        <v>70.66782486327038</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>87.18206507035276</v>
+        <v>74.37520976251766</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.42071279802582</v>
+        <v>28.33498869636981</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>72.09677513746476</v>
+        <v>69.70778443838371</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>78.8510382776293</v>
+        <v>74.31398902349626</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>20.60968215067568</v>
+        <v>19.11900413261277</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>44.39414083799836</v>
+        <v>47.01685164730345</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>47.03989278325357</v>
+        <v>49.84096628353743</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-5.367244054859064</v>
+        <v>4.756795375377699</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.57923593537638</v>
+        <v>46.99649716451285</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.25010530400272</v>
+        <v>49.22916431320641</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>6.657146677834778</v>
+        <v>19.56211247581089</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>66.67132303088182</v>
+        <v>67.35073429402439</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>78.54871406198042</v>
+        <v>71.60050697920556</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>73.0684451029211</v>
+        <v>80.97243535981713</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>81.90059030665034</v>
+        <v>89.46831786524771</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>93.12911564469648</v>
+        <v>93.62713870899604</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>30.96648037595215</v>
+        <v>35.52564718848589</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>84.01745025116816</v>
+        <v>83.80692788285916</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>88.18698154399074</v>
+        <v>88.68336188125475</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>74.59875416241998</v>
+        <v>59.77062898463704</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>45.78433627848013</v>
+        <v>44.51661314749447</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>50.86753710037048</v>
+        <v>55.60074981093877</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>65.4350442102984</v>
+        <v>62.88343272416959</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>21.73154834809748</v>
+        <v>19.32338476888978</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>66.41133145338897</v>
+        <v>55.964327533781</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>75.36105921230208</v>
+        <v>65.25637938759569</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.90552131793746</v>
+        <v>18.54413673579132</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>46.50708883935588</v>
+        <v>44.20089821324058</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>50.65475400140704</v>
+        <v>51.87273401525912</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-3.083103605451189</v>
+        <v>6.335254517137201</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>40.6854892980068</v>
+        <v>43.48362234490391</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>47.54035696088071</v>
+        <v>51.79474179049654</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>4.299697690066232</v>
+        <v>17.53714204605764</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>67.83052975241841</v>
+        <v>60.89893156190777</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>78.00760139599134</v>
+        <v>70.86856122053935</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>70.10163905100249</v>
+        <v>66.48016805006775</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>79.57733797952811</v>
+        <v>78.63138261906639</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>89.13995629079329</v>
+        <v>87.07088747382548</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>31.67501174606386</v>
+        <v>26.18174215509378</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>82.75079105575981</v>
+        <v>70.67198036890512</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>89.08035903986901</v>
+        <v>82.29349966565442</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.37972596326967</v>
+        <v>10.92333296679956</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.49190539801083</v>
+        <v>13.20167206052795</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>18.52937117363784</v>
+        <v>19.08434068059919</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>4.69882026644412</v>
+        <v>0.3219807251251545</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>9.793042184693579</v>
+        <v>9.600274490398766</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>10.44196050362351</v>
+        <v>12.40315718457791</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>8.390200650818212</v>
+        <v>4.428484971855244</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.37215033140269</v>
+        <v>18.42946548793474</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>23.82165757352283</v>
+        <v>22.77420672649166</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.36270485903491</v>
+        <v>13.15520835161464</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.94630263315995</v>
+        <v>17.34175593924996</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>16.82953327318999</v>
+        <v>18.4183310820989</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.468341786922259</v>
+        <v>5.071184110418976</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>10.71243755928372</v>
+        <v>8.352971801487637</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>16.07887205813856</v>
+        <v>14.43798304460563</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.05263727516805</v>
+        <v>11.5328513596102</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.59546308752615</v>
+        <v>17.7587787259371</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.67099436378478</v>
+        <v>22.97040600524217</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.347337398123891</v>
+        <v>-1.711848224451174</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>7.392974035512275</v>
+        <v>7.072656590233189</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>10.69326052077565</v>
+        <v>12.82613110559896</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>3.573071553633497</v>
+        <v>0.8795812967712742</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>15.9615231157557</v>
+        <v>16.81541288560104</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>17.80796897268105</v>
+        <v>12.09154911937836</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.84705133243799</v>
+        <v>21.75070065350905</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>21.8000053583386</v>
+        <v>25.16006453416141</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.811142203515953</v>
+        <v>3.926271442611366</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.42531213767671</v>
+        <v>23.78049543221842</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.97890441706757</v>
+        <v>23.87427320884046</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>5.493402586663066</v>
+        <v>10.1884606165082</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>31.95347346001686</v>
+        <v>34.01000834015861</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.14865387564005</v>
+        <v>35.76855925403349</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.53679923767926</v>
+        <v>33.10356028765063</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.0824672328454</v>
+        <v>38.14793285301464</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.32654572627403</v>
+        <v>39.65386413792763</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.03629233228264</v>
+        <v>12.82103274730579</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.40806691996991</v>
+        <v>28.3427964025921</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.47774690715505</v>
+        <v>30.9998065114297</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.60650600651485</v>
+        <v>12.34959682260518</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.48808430501212</v>
+        <v>26.69584436559628</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.32188419723659</v>
+        <v>31.9516945409477</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.615478782737565</v>
+        <v>2.986968432871283</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.25725698516115</v>
+        <v>24.21516225700248</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.99577749535701</v>
+        <v>30.14403038996559</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.186104352147343</v>
+        <v>9.753439482512835</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>42.29021060582591</v>
+        <v>37.12295537016563</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>8.886058596181076</v>
+        <v>7.347769217633569</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.80024630974953</v>
+        <v>18.05842929195423</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.62230999894851</v>
+        <v>22.18856045034999</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>4.299185589792035</v>
+        <v>1.73220985037004</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>20.75268897531204</v>
+        <v>22.84712461414462</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>23.17264975815022</v>
+        <v>23.9893410154374</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>8.036130978774086</v>
+        <v>7.834359289327267</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>32.900422141883</v>
+        <v>32.75357557492588</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.3379047665621</v>
+        <v>35.42772437877332</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>31.53870051333571</v>
+        <v>33.0737092535648</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>33.69500778203481</v>
+        <v>37.633557328893</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>39.42703117002164</v>
+        <v>40.39258311843219</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>7.407058817367524</v>
+        <v>8.459357288278815</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>21.8063640202949</v>
+        <v>26.21084733324135</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.09289916573503</v>
+        <v>29.66491186318438</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>10.27557264941659</v>
+        <v>7.004826249112439</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>21.32524360570341</v>
+        <v>22.42465027115464</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.06852137602877</v>
+        <v>29.22161776589577</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>4.253264173646595</v>
+        <v>-0.6961569821967188</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>18.48818690786604</v>
+        <v>22.05296014777143</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.79215406028338</v>
+        <v>29.91193855662706</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>5.223977316085179</v>
+        <v>6.465517417836942</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.05128850699515</v>
+        <v>35.11513457894145</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>7.28475205368202</v>
+        <v>4.793831813821743</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>14.15395798611378</v>
+        <v>12.48454319131841</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>18.57069723777217</v>
+        <v>20.07476008439896</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>3.406934384350798</v>
+        <v>1.419816770493021</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>13.72511877522311</v>
+        <v>17.90260040112175</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>24.21365757242447</v>
+        <v>23.07608051291469</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>4.331499761346656</v>
+        <v>5.169921851660938</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.98568038218924</v>
+        <v>25.85911021571047</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>32.86582923881524</v>
+        <v>32.36496714767382</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.19918689687069</v>
+        <v>23.95753194577866</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.64623804095209</v>
+        <v>28.4491372497125</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>34.23704341289424</v>
+        <v>32.37997807489779</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>5.600662892295635</v>
+        <v>4.516624156298626</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>23.22924669743086</v>
+        <v>17.77448418618863</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.28067608849879</v>
+        <v>25.73158239063597</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>6.742368765898597</v>
+        <v>5.253402899703861</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>18.1632240981899</v>
+        <v>17.86372331115434</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.47209321187811</v>
+        <v>26.3710097645486</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>4.255167258422986</v>
+        <v>-1.124045636485135</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>16.21644734080225</v>
+        <v>16.37194473506942</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.9208051162969</v>
+        <v>26.25609369871746</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>3.709348266973365</v>
+        <v>2.479690038142422</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.68445825926202</v>
+        <v>26.48930971792367</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>18.19284498323343</v>
+        <v>23.86483951403459</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>17.78744222815533</v>
+        <v>14.50856083761567</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.5977164927161</v>
+        <v>23.0695673891347</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>31.1335269706743</v>
+        <v>27.59215852137658</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>7.747849349449876</v>
+        <v>1.482154388378298</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>11.82308035706895</v>
+        <v>13.64302102642122</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>17.14091436020654</v>
+        <v>20.01578760661746</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>13.12984763335978</v>
+        <v>13.65137388476711</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>24.0791179851381</v>
+        <v>22.3335533698592</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.1665757554707</v>
+        <v>30.56543030053987</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>4.608209651027838</v>
+        <v>-5.207419701417919</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>8.716387697129147</v>
+        <v>8.600896939245908</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>13.5538599435784</v>
+        <v>16.53301068492235</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>6.011853612370807</v>
+        <v>2.813359335719777</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>21.6814230145916</v>
+        <v>23.42524315129924</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.3713768887193</v>
+        <v>33.13901228003297</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>22.54749884187455</v>
+        <v>25.9844927672955</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>32.50071281560091</v>
+        <v>34.21157471151031</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>37.27389411287242</v>
+        <v>42.20590286812858</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>8.849097557694371</v>
+        <v>2.963975787222285</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>18.78170690674991</v>
+        <v>20.78112382812216</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>26.94493728029205</v>
+        <v>31.3520025808043</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>50.04653040007619</v>
+        <v>44.35707145461394</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.46995681554113</v>
+        <v>37.85486977985476</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>50.71948634625612</v>
+        <v>45.21750657499192</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>53.15443731774882</v>
+        <v>50.29047829502508</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>13.10797587918999</v>
+        <v>13.23633122615973</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>45.75616106460259</v>
+        <v>40.39635753219901</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>49.74062648281762</v>
+        <v>45.94944953767532</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>23.59145833794478</v>
+        <v>18.78378288816973</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.66137678000059</v>
+        <v>36.66886557453559</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>40.05300735422942</v>
+        <v>42.86705828582073</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>5.734893125631931</v>
+        <v>5.288557033492015</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.89644471718924</v>
+        <v>33.50872651923983</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.57126883864392</v>
+        <v>38.64893108742158</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>12.02408673809791</v>
+        <v>17.89240812730771</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>55.56653567781817</v>
+        <v>51.60956555982037</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>59.69657375555413</v>
+        <v>58.70122582003295</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>62.19187802090387</v>
+        <v>60.24620817256957</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>71.00893274443384</v>
+        <v>66.38809274427221</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>76.35878663255133</v>
+        <v>73.97040947965473</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>27.90172789380978</v>
+        <v>24.62588859164974</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>64.36450198795364</v>
+        <v>58.56026652410747</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>66.62788177313931</v>
+        <v>65.5523269201861</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>49.96201892734731</v>
+        <v>44.10613895293172</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>30.86366584480101</v>
+        <v>34.82731498211221</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>37.35667275284364</v>
+        <v>41.32148128392461</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>48.18568235201646</v>
+        <v>48.17337341661155</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>9.296676296244598</v>
+        <v>7.922163878531968</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.76911187666396</v>
+        <v>37.66698792324499</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>43.95084767515739</v>
+        <v>44.89510722068595</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>17.0843277809315</v>
+        <v>14.16350324565343</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.67210082095449</v>
+        <v>33.99701385398473</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>41.04886856983583</v>
+        <v>41.16421170839943</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>5.090437315207666</v>
+        <v>2.661783645903707</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.60789536904136</v>
+        <v>33.54118772069519</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.24252552613899</v>
+        <v>39.85947501618696</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>10.01402917841613</v>
+        <v>15.72093578476961</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>46.9724867156869</v>
+        <v>51.72458517152295</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>63.52058767169383</v>
+        <v>59.87176641972636</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>52.80244822219952</v>
+        <v>60.70787712568061</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>57.92104454895721</v>
+        <v>66.11438293043717</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>77.2999683341</v>
+        <v>75.11471615460343</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>19.96008734917817</v>
+        <v>21.55595900409345</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>54.17539180166787</v>
+        <v>59.14502806757857</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>62.93842795473921</v>
+        <v>67.3410806323873</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.85216308093344</v>
+        <v>37.41940292361653</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>18.89544084369233</v>
+        <v>20.67150163843644</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>23.11246529233086</v>
+        <v>28.77978054180178</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>30.22006598966636</v>
+        <v>37.2673611960932</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>6.296200534864965</v>
+        <v>1.551521838833835</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>21.54200462674598</v>
+        <v>26.06776881568192</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>35.90428398335798</v>
+        <v>35.79658686726071</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>11.23835893366787</v>
+        <v>12.56916883603984</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.14425205237349</v>
+        <v>30.39938617853802</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>39.32789968455779</v>
+        <v>40.82373571771488</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>3.92760350235903</v>
+        <v>1.676066776231508</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.42128738490721</v>
+        <v>27.89413256312256</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.2482328421417</v>
+        <v>38.34490306534241</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>4.570410373529224</v>
+        <v>11.56046217087284</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>43.14081458106199</v>
+        <v>43.5499888143373</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>60.17637766392272</v>
+        <v>55.65377379524585</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>46.8187411449449</v>
+        <v>47.06095332083709</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>50.27034321699257</v>
+        <v>55.16644008950839</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>71.11057434005662</v>
+        <v>66.91432470931055</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>11.00166619333095</v>
+        <v>12.95936051747319</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>50.09953494360948</v>
+        <v>46.70205894699494</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>61.17364881412277</v>
+        <v>59.75643049590909</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.22140061421374</v>
+        <v>14.93005270856654</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>18.231188949692</v>
+        <v>22.07425789491288</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>37.24108945181099</v>
+        <v>30.6955892341514</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>10.67670420560931</v>
+        <v>6.58852399453766</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>38.63174652222015</v>
+        <v>24.76650147545638</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>42.94810292353206</v>
+        <v>31.23015206461599</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>13.7009589151234</v>
+        <v>12.36970727585194</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>55.06985690088712</v>
+        <v>34.49115093637374</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>58.27252553033406</v>
+        <v>42.24803592956315</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.66129862176702</v>
+        <v>26.45733680486171</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>19.60690158237277</v>
+        <v>33.14051419762934</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>19.33897888036751</v>
+        <v>35.52747988884057</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.28133485282547</v>
+        <v>18.2179381136164</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>16.73240443924913</v>
+        <v>25.42961894183289</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>44.64592825469627</v>
+        <v>38.80137781968875</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>18.01275660163416</v>
+        <v>17.84420375345135</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.99118192282754</v>
+        <v>26.3634760518442</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.82039254435431</v>
+        <v>31.72961208944337</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>33.64248507207926</v>
+        <v>5.811349507346861</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>37.50920476747506</v>
+        <v>19.1745861330463</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>38.92943578405026</v>
+        <v>25.47306746146086</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>5.817456818212769</v>
+        <v>4.663674626791199</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>20.89827531230105</v>
+        <v>25.14430851251981</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>30.46758866749375</v>
+        <v>17.66285769362624</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.96079306030361</v>
+        <v>33.54809233250273</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.47288263027502</v>
+        <v>38.27348085094589</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>8.964832411725023</v>
+        <v>11.24951799515731</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>54.40208579030077</v>
+        <v>41.77637367101628</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>52.42736459623403</v>
+        <v>44.0279146324484</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>9.434847426185055</v>
+        <v>20.21763636551678</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>55.66680046767971</v>
+        <v>53.84144238581223</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>55.45589967718995</v>
+        <v>57.59379172561674</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>56.9843831180814</v>
+        <v>54.12027188606062</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>58.46617583893023</v>
+        <v>61.98606112369033</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>57.99506160768985</v>
+        <v>63.3993885043834</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>61.10229218832451</v>
+        <v>32.76095700674738</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>73.06265345605668</v>
+        <v>53.89564331187145</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>76.96365460226809</v>
+        <v>62.15359658172336</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.03516415676275</v>
+        <v>22.79716033512322</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>37.77980544105532</v>
+        <v>40.79771458278951</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.79274353869333</v>
+        <v>44.12211406843292</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>33.59923114507827</v>
+        <v>14.04201744880268</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>51.73636327901532</v>
+        <v>41.53303523632299</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>47.83145981811937</v>
+        <v>45.66496622584988</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>6.988410390991778</v>
+        <v>18.54306834984612</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>53.21891600425883</v>
+        <v>52.1205750096379</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>15.15589783508706</v>
+        <v>11.98708187864224</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.2183907823904</v>
+        <v>29.29223272187748</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.44436737644173</v>
+        <v>34.50761040953494</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>6.673950187965733</v>
+        <v>8.611762918474229</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>48.53397415982446</v>
+        <v>40.75940981136122</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>51.90319404663055</v>
+        <v>43.85491951093687</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>9.382321681400931</v>
+        <v>17.48283780451555</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>55.23129730566352</v>
+        <v>52.57680303952145</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>61.76817553850793</v>
+        <v>57.02164061845272</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>67.56117332477363</v>
+        <v>55.10822524525129</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>65.94176349475363</v>
+        <v>62.53505937295922</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>68.34091794607268</v>
+        <v>65.05168418086458</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>16.13244884947667</v>
+        <v>28.59572246440771</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>45.5530804957145</v>
+        <v>52.52683624710524</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>59.32865235537942</v>
+        <v>61.26865637467398</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>22.80744655195024</v>
+        <v>16.90913554766858</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>34.34813334902752</v>
+        <v>36.6477097263614</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.30266571332853</v>
+        <v>41.26362810615444</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.16239637664083</v>
+        <v>10.22402420743125</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>45.92102341018134</v>
+        <v>39.97864392104363</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>51.49127474421674</v>
+        <v>45.84198125347871</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>9.151301920649534</v>
+        <v>15.44916140539494</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>49.48290226185607</v>
+        <v>51.02958785365214</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>6.704329794032368</v>
+        <v>8.202897105260337</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>14.79760418769309</v>
+        <v>22.40912494502808</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>26.95650580331198</v>
+        <v>32.00351652666139</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>7.724378518301791</v>
+        <v>8.853193135371601</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>52.53351247387094</v>
+        <v>36.23197717035882</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>54.42713570681857</v>
+        <v>44.43309703418784</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>3.501158980135489</v>
+        <v>14.51871747422707</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>56.53323329698281</v>
+        <v>45.25504952071197</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>58.92894292336644</v>
+        <v>54.49681266440687</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>60.82698496918172</v>
+        <v>42.41426082586392</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>60.51103632897242</v>
+        <v>49.88399734962087</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>67.17920844824773</v>
+        <v>54.69157371570926</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>12.49581155469823</v>
+        <v>20.89581189008172</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>31.30858297068212</v>
+        <v>40.23954583828161</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>64.68974702255971</v>
+        <v>54.80243243527793</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>14.95751288353316</v>
+        <v>14.32159651388968</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>30.105606493598</v>
+        <v>31.58537772024326</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.47455300779347</v>
+        <v>39.51504983874048</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>33.56729786861757</v>
+        <v>11.09337065965117</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>49.30230925993703</v>
+        <v>36.03415696494864</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>54.03592484664703</v>
+        <v>45.89470679636845</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>3.75133547395167</v>
+        <v>11.87638719064654</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>48.10111713609948</v>
+        <v>43.18601594639928</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.50841165027137</v>
+        <v>32.55031188236868</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.53556560372009</v>
+        <v>23.14034699816598</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>35.40388086616537</v>
+        <v>31.78590582722938</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>39.57406883677808</v>
+        <v>35.65510642072888</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.95952089485926</v>
+        <v>9.299872361826838</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>14.2889021615782</v>
+        <v>24.09794185340589</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.12632206970732</v>
+        <v>32.01893700472874</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>13.94107455941878</v>
+        <v>17.79736658884191</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>21.64176441661343</v>
+        <v>27.55605388893474</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>35.52188704657695</v>
+        <v>34.64675356232527</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>33.44846366372441</v>
+        <v>3.726712948135546</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>37.12730597216698</v>
+        <v>20.1425046802881</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>40.58761412257827</v>
+        <v>27.71960542135675</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.663234904039573</v>
+        <v>6.74867368539401</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.10537197249795</v>
+        <v>30.33163530411905</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>46.55670364458919</v>
+        <v>39.62094551860297</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.05220546423755</v>
+        <v>34.30240450550884</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>47.05340678593943</v>
+        <v>44.59187657197045</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>55.39375747911969</v>
+        <v>50.35588290165074</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>7.337871467796916</v>
+        <v>10.65585071536478</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>22.62432671164552</v>
+        <v>29.97851721362409</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>37.65515989957692</v>
+        <v>41.74507761144535</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>54.96417927904598</v>
+        <v>57.54656635877046</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>58.19305368334746</v>
+        <v>55.62464884823981</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>61.76978271710114</v>
+        <v>63.16679127829276</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>57.99588901174036</v>
+        <v>65.28498361158852</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.01750501916828</v>
+        <v>29.64879761141833</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>57.87906713898571</v>
+        <v>60.55442534334026</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>62.61040890401294</v>
+        <v>65.2982654936134</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.1993978606443</v>
+        <v>25.78089772106862</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>38.77184852657651</v>
+        <v>46.06765741230988</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>41.44985660475167</v>
+        <v>49.14265309422373</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.91345182899657</v>
+        <v>17.01697051638113</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>60.79644677511067</v>
+        <v>49.45588784922747</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>54.14584260691678</v>
+        <v>52.07162424691784</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>8.667380105488828</v>
+        <v>25.26397978941226</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>67.03539618499236</v>
+        <v>63.58974609908125</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>64.21634464390226</v>
+        <v>68.18970183515964</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>81.91053259207865</v>
+        <v>76.55361715634557</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>81.78482835230029</v>
+        <v>84.09522407067287</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>82.53606463007512</v>
+        <v>87.35172728476009</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>42.52821381658102</v>
+        <v>39.77289955578793</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>75.98491751948923</v>
+        <v>76.20618085826521</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>77.56727240629428</v>
+        <v>82.23908625658693</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>62.75295952972699</v>
+        <v>57.98789385074241</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>49.81803516606973</v>
+        <v>53.89165762079752</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>54.23617870379744</v>
+        <v>60.71714584193453</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>57.706390283213</v>
+        <v>64.43064544150289</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.96505980098853</v>
+        <v>25.11716726458535</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>54.0529443740862</v>
+        <v>59.47130699829928</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>61.01042936778259</v>
+        <v>65.59710436596433</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.08512182950997</v>
+        <v>20.96452577554991</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.31656676756204</v>
+        <v>43.76298315543592</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>43.09082328861223</v>
+        <v>47.56343048462526</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>36.10262214903661</v>
+        <v>14.41936882385444</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>58.21535340027781</v>
+        <v>50.12466420301978</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>59.06710935069498</v>
+        <v>53.71265845940248</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>12.19064071944405</v>
+        <v>23.37006923902951</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>67.45489981096912</v>
+        <v>64.5833562772137</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>73.18509912841526</v>
+        <v>69.99425634178499</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>82.24318930515147</v>
+        <v>78.54503114163714</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>79.12243254509234</v>
+        <v>85.18315726462333</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>86.98909392376221</v>
+        <v>89.71879562209003</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.09116808417157</v>
+        <v>37.76605540001248</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>74.17643723802118</v>
+        <v>78.44698452156354</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>81.77553871340267</v>
+        <v>85.38565063757083</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>58.10040139878542</v>
+        <v>53.8176172112186</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.60679136639525</v>
+        <v>37.79489693856442</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>33.01284613258862</v>
+        <v>46.56773243883704</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>43.20511580049658</v>
+        <v>53.83615108656205</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>16.42965435947937</v>
+        <v>16.37460331214934</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>53.0486351750385</v>
+        <v>46.66852813800878</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>57.88234398858893</v>
+        <v>57.14619030914622</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>18.98274484383846</v>
+        <v>19.55702555649282</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.20105143723199</v>
+        <v>40.43827112562521</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>43.90678387665716</v>
+        <v>48.73256256471318</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>36.33904969376464</v>
+        <v>15.13187131102714</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>58.71318457602801</v>
+        <v>46.28026344770676</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>63.68695030004083</v>
+        <v>55.48889981858768</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>4.644063981519679</v>
+        <v>20.52468023901415</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>65.24991429273943</v>
+        <v>57.7628922687815</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>70.30338955164191</v>
+        <v>68.47141955730672</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>77.08228034310851</v>
+        <v>63.63560836540372</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>77.87150941794516</v>
+        <v>73.81611435904014</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>88.98130622694831</v>
+        <v>82.5209895309906</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>22.01593716353592</v>
+        <v>27.4637381074956</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>70.51129821687535</v>
+        <v>64.98709727063527</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>80.3672364897658</v>
+        <v>78.07085732670339</v>
       </c>
     </row>
   </sheetData>
